--- a/ccchi/字符串表.xlsx
+++ b/ccchi/字符串表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890">
   <si>
     <t>编号</t>
   </si>
@@ -5429,6 +5429,9 @@
   </si>
   <si>
     <t>如果NOD失去全部的地对空导弹,空军就会来援助.</t>
+  </si>
+  <si>
+    <t>ea</t>
   </si>
   <si>
     <t>防守,部署MCV,然后清除全部敌人.</t>
@@ -5814,11 +5817,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -5843,6 +5846,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -5862,14 +5880,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5897,54 +5907,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5979,6 +5942,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -5992,6 +5995,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6043,54 +6052,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6133,6 +6094,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6152,6 +6119,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6189,6 +6192,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -6209,56 +6227,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6286,6 +6254,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6294,10 +6297,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6306,133 +6309,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -15940,7 +15943,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B219" sqref="$A219:$XFD221"/>
+      <selection pane="bottomLeft" activeCell="B254" sqref="$A254:$XFD254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -19067,15 +19070,14 @@
       <c r="A254" s="3">
         <v>252</v>
       </c>
-      <c r="B254" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v>FC</v>
+      <c r="B254" s="4" t="s">
+        <v>1804</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="I254" s="3" t="s">
         <v>1747</v>
@@ -19090,13 +19092,13 @@
         <v>FD</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -19108,13 +19110,13 @@
         <v>FE</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -19126,10 +19128,10 @@
         <v>FF</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
   </sheetData>
@@ -19288,7 +19290,7 @@
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:10">
       <c r="A1" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -19297,134 +19299,134 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="E1" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F1" t="s">
         <v>1814</v>
       </c>
-      <c r="F1" t="s">
-        <v>1813</v>
-      </c>
       <c r="G1" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="H1" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="I1" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="J1" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:6">
       <c r="A2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="D2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="F2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="3" ht="67.5" spans="1:6">
       <c r="A3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1825</v>
+      </c>
+      <c r="F3" t="s">
         <v>1822</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1819</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1824</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:6">
       <c r="A4" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D4" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="F4" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
       <c r="A5" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="D5" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" ht="54" spans="1:6">
       <c r="A6" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D6" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="F6" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:5">
       <c r="A7" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="D7" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -19433,83 +19435,83 @@
         <v>1796</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="D8" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="F8" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:6">
       <c r="A9" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D9" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="F9" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:5">
       <c r="A10" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D10" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" ht="67.5" spans="1:5">
       <c r="A11" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D11" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" ht="81" spans="1:5">
       <c r="A12" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="D12" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -19518,19 +19520,19 @@
         <v>1789</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="D13" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="F13" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:6">
@@ -19538,19 +19540,19 @@
         <v>1786</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="D14" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="F14" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:6">
@@ -19558,19 +19560,19 @@
         <v>1783</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="D15" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="F15" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:6">
@@ -19578,19 +19580,19 @@
         <v>1780</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="D16" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="F16" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:6">
@@ -19598,53 +19600,53 @@
         <v>1776</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="D17" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="F17" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="18" ht="54" spans="1:6">
       <c r="A18" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D18" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="F18" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:5">
       <c r="A19" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="D19" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -19653,87 +19655,87 @@
         <v>1769</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="D20" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="F20" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:6">
       <c r="A21" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D21" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="F21" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="22" ht="54" spans="1:4">
       <c r="A22" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="D22" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:6">
       <c r="A23" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D23" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="F23" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:5">
       <c r="A24" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="D24" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E24" s="1"/>
     </row>
@@ -19742,68 +19744,68 @@
         <v>1759</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="D25" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="F25" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="26" ht="54" spans="1:6">
       <c r="A26" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D26" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="F26" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:5">
       <c r="A27" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="D27" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" ht="54" spans="1:5">
       <c r="A28" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="D28" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="E28" s="1"/>
     </row>

--- a/ccchi/字符串表.xlsx
+++ b/ccchi/字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15315" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="9780" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="text_chi - 副本" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970">
   <si>
     <t>编号</t>
   </si>
@@ -4645,6 +4645,9 @@
   </si>
   <si>
     <t>投  降</t>
+  </si>
+  <si>
+    <t>09</t>
   </si>
   <si>
     <t>678</t>
@@ -6055,9 +6058,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -6114,6 +6117,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6135,6 +6145,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -6149,8 +6167,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6197,29 +6223,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -6247,7 +6250,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6259,7 +6292,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6271,31 +6340,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6313,13 +6364,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6337,19 +6388,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6362,66 +6425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6459,6 +6462,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6470,6 +6488,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6498,30 +6525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -6540,10 +6543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6552,34 +6555,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6588,7 +6591,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -6597,88 +6600,88 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7247,10 +7250,10 @@
   <sheetPr/>
   <dimension ref="A1:F755"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D677" sqref="D677"/>
+      <selection pane="bottomLeft" activeCell="E678" sqref="E678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -15576,7 +15579,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="677" spans="1:4">
+    <row r="677" spans="1:5">
       <c r="A677" s="3" t="s">
         <v>1540</v>
       </c>
@@ -15589,322 +15592,325 @@
       <c r="D677" s="3" t="s">
         <v>1542</v>
       </c>
+      <c r="E677" s="3" t="s">
+        <v>1543</v>
+      </c>
     </row>
     <row r="678" spans="1:3">
       <c r="A678" s="3" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C678" s="3" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="679" spans="1:3">
       <c r="A679" s="3" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C679" s="3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="680" spans="1:3">
       <c r="A680" s="3" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C680" s="3" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="681" spans="1:3">
       <c r="A681" s="3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C681" s="3" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="682" spans="1:3">
       <c r="A682" s="3" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C682" s="3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="683" spans="1:3">
       <c r="A683" s="3" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C683" s="3" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="684" spans="1:3">
       <c r="A684" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C684" s="3" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="685" spans="1:3">
       <c r="A685" s="3" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B685" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C685" s="3" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="686" spans="1:3">
       <c r="A686" s="3" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C686" s="3" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="687" spans="1:3">
       <c r="A687" s="3" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B687" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C687" s="3" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="688" spans="1:3">
       <c r="A688" s="3" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C688" s="3" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="689" spans="1:3">
       <c r="A689" s="3" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B689" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C689" s="3" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="690" spans="1:3">
       <c r="A690" s="3" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C690" s="3" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="691" spans="1:3">
       <c r="A691" s="3" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B691" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="692" spans="1:3">
       <c r="A692" s="3" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C692" s="3" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="693" spans="1:3">
       <c r="A693" s="3" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B693" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C693" s="3" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="694" spans="1:3">
       <c r="A694" s="3" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C694" s="3" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="695" spans="1:3">
       <c r="A695" s="3" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B695" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C695" s="3" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="696" spans="1:3">
       <c r="A696" s="3" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C696" s="3" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="697" spans="1:3">
       <c r="A697" s="3" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B697" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C697" s="3" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="698" spans="1:3">
       <c r="A698" s="3" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B698" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C698" s="3" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="699" spans="1:5">
       <c r="A699" s="3" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B699" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C699" s="3" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D699" s="3" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="E699" s="3" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="700" spans="1:3">
       <c r="A700" s="3" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B700" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C700" s="3" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="701" spans="1:3">
       <c r="A701" s="3" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B701" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C701" s="3" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="702" spans="1:3">
       <c r="A702" s="3" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C702" s="3" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="703" spans="1:3">
       <c r="A703" s="3" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B703" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C703" s="3" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="704" spans="1:3">
       <c r="A704" s="3" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B704" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C704" s="3" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="705" spans="1:5">
       <c r="A705" s="3" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B705" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C705" s="3" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D705" s="3" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="E705" s="3" t="s">
         <v>323</v>
@@ -15912,16 +15918,16 @@
     </row>
     <row r="706" spans="1:5">
       <c r="A706" s="3" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B706" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C706" s="3" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="D706" s="3" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="E706" s="3" t="s">
         <v>331</v>
@@ -15929,16 +15935,16 @@
     </row>
     <row r="707" spans="1:5">
       <c r="A707" s="3" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B707" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C707" s="3" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="E707" s="3" t="s">
         <v>297</v>
@@ -15946,382 +15952,382 @@
     </row>
     <row r="708" spans="1:3">
       <c r="A708" s="3" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C708" s="3" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="709" spans="1:3">
       <c r="A709" s="3" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B709" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C709" s="3" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="710" spans="1:3">
       <c r="A710" s="3" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B710" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C710" s="3" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="711" spans="1:5">
       <c r="A711" s="3" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B711" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C711" s="3" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D711" s="3" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="E711" s="3" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="712" spans="1:3">
       <c r="A712" s="3" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B712" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C712" s="3" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="713" spans="1:3">
       <c r="A713" s="3" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B713" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C713" s="3" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="714" spans="1:3">
       <c r="A714" s="3" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B714" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C714" s="3" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="715" spans="1:3">
       <c r="A715" s="3" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C715" s="3" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="716" spans="1:3">
       <c r="A716" s="3" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B716" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C716" s="3" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="717" spans="1:3">
       <c r="A717" s="3" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B717" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C717" s="3" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="718" spans="1:3">
       <c r="A718" s="3" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B718" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C718" s="3" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="719" spans="1:3">
       <c r="A719" s="3" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B719" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C719" s="3" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="720" spans="1:3">
       <c r="A720" s="3" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B720" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C720" s="3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="721" spans="1:3">
       <c r="A721" s="3" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B721" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C721" s="3" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="722" spans="1:3">
       <c r="A722" s="3" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C722" s="3" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="723" spans="1:3">
       <c r="A723" s="3" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B723" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C723" s="3" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="724" spans="1:3">
       <c r="A724" s="3" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B724" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C724" s="3" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="725" spans="1:3">
       <c r="A725" s="3" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B725" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C725" s="3" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="726" spans="1:3">
       <c r="A726" s="3" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B726" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C726" s="3" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="727" spans="1:3">
       <c r="A727" s="3" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B727" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C727" s="3" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="728" spans="1:3">
       <c r="A728" s="3" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B728" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C728" s="3" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="729" spans="1:3">
       <c r="A729" s="3" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C729" s="3" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="730" spans="1:3">
       <c r="A730" s="3" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B730" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C730" s="3" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="731" spans="1:3">
       <c r="A731" s="3" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B731" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C731" s="3" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="732" spans="1:5">
       <c r="A732" s="3" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B732" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C732" s="3" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="D732" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="E732" s="3" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="733" spans="1:3">
       <c r="A733" s="3" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B733" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C733" s="3" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="734" spans="1:3">
       <c r="A734" s="3" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B734" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C734" s="3" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="735" spans="1:3">
       <c r="A735" s="3" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C735" s="3" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="736" spans="1:3">
       <c r="A736" s="3" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B736" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C736" s="3" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="737" spans="1:3">
       <c r="A737" s="3" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B737" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C737" s="3" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="738" spans="1:3">
       <c r="A738" s="3" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B738" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C738" s="3" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="739" spans="1:3">
       <c r="A739" s="3" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B739" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C739" s="3" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="740" spans="1:3">
       <c r="A740" s="3" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B740" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C740" s="3" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="741" spans="1:5">
       <c r="A741" s="3" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>5</v>
@@ -16330,24 +16336,24 @@
         <v>1477</v>
       </c>
       <c r="D741" s="3" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="E741" s="3" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="742" spans="1:5">
       <c r="A742" s="3" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B742" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C742" s="3" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="D742" s="3" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="E742" s="3" t="s">
         <v>262</v>
@@ -16355,16 +16361,16 @@
     </row>
     <row r="743" spans="1:5">
       <c r="A743" s="3" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B743" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C743" s="3" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="D743" s="3" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="E743" s="3" t="s">
         <v>265</v>
@@ -16372,16 +16378,16 @@
     </row>
     <row r="744" spans="1:5">
       <c r="A744" s="3" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B744" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C744" s="3" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="D744" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="E744" s="3" t="s">
         <v>244</v>
@@ -16389,16 +16395,16 @@
     </row>
     <row r="745" spans="1:5">
       <c r="A745" s="3" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B745" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="D745" s="3" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="E745" s="3" t="s">
         <v>192</v>
@@ -16406,16 +16412,16 @@
     </row>
     <row r="746" spans="1:5">
       <c r="A746" s="3" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B746" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C746" s="3" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="D746" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="E746" s="3" t="s">
         <v>216</v>
@@ -16423,16 +16429,16 @@
     </row>
     <row r="747" spans="1:5">
       <c r="A747" s="3" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B747" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="E747" s="3" t="s">
         <v>204</v>
@@ -16440,87 +16446,87 @@
     </row>
     <row r="748" spans="1:3">
       <c r="A748" s="3" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B748" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="749" spans="1:3">
       <c r="A749" s="3" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B749" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C749" s="3" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="750" spans="1:3">
       <c r="A750" s="3" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B750" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C750" s="3" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="751" spans="1:3">
       <c r="A751" s="3" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B751" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="752" spans="1:3">
       <c r="A752" s="3" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="B752" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C752" s="3" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="753" spans="1:3">
       <c r="A753" s="3" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B753" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C753" s="3" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="754" spans="1:3">
       <c r="A754" s="3" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B754" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C754" s="3" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="755" spans="1:3">
       <c r="A755" s="3" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
   </sheetData>
@@ -16547,7 +16553,7 @@
   <sheetPr/>
   <dimension ref="A1:I257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
@@ -16574,22 +16580,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="D1" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="E1" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="F1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:4">
@@ -16601,7 +16607,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -16613,7 +16619,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -16627,7 +16633,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
@@ -16655,7 +16661,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -16669,7 +16675,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -16709,7 +16715,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -16942,7 +16948,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -16954,7 +16960,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -16966,7 +16972,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -16978,7 +16984,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -16990,7 +16996,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -17002,7 +17008,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -17014,7 +17020,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -17026,7 +17032,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -17038,7 +17044,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -17050,7 +17056,7 @@
         <v>2A</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -17062,7 +17068,7 @@
         <v>2B</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -17074,7 +17080,7 @@
         <v>2C</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -17086,7 +17092,7 @@
         <v>2D</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -17098,7 +17104,7 @@
         <v>2E</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -17110,7 +17116,7 @@
         <v>2F</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -17122,7 +17128,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -17134,7 +17140,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -17242,7 +17248,7 @@
         <v>3A</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -17254,7 +17260,7 @@
         <v>3B</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -17314,7 +17320,7 @@
         <v>40</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -17326,7 +17332,7 @@
         <v>41</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -17338,7 +17344,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -17350,7 +17356,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -17362,7 +17368,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -17374,7 +17380,7 @@
         <v>45</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -17386,7 +17392,7 @@
         <v>46</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -17398,7 +17404,7 @@
         <v>47</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -17410,7 +17416,7 @@
         <v>48</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -17422,7 +17428,7 @@
         <v>49</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -17434,7 +17440,7 @@
         <v>4A</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -17446,7 +17452,7 @@
         <v>4B</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -17458,7 +17464,7 @@
         <v>4C</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -17470,7 +17476,7 @@
         <v>4D</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -17482,7 +17488,7 @@
         <v>4E</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -17494,7 +17500,7 @@
         <v>4F</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -17506,7 +17512,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -17518,7 +17524,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -17530,7 +17536,7 @@
         <v>52</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -17542,7 +17548,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -17554,7 +17560,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -17566,7 +17572,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -17578,7 +17584,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -17590,7 +17596,7 @@
         <v>57</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -17602,7 +17608,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -17614,7 +17620,7 @@
         <v>59</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -17626,7 +17632,7 @@
         <v>5A</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -17638,7 +17644,7 @@
         <v>5B</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -17650,7 +17656,7 @@
         <v>5C</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -17662,7 +17668,7 @@
         <v>5D</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -17686,7 +17692,7 @@
         <v>5F</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -17698,7 +17704,7 @@
         <v>60</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -17710,7 +17716,7 @@
         <v>61</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -17722,7 +17728,7 @@
         <v>62</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -17734,7 +17740,7 @@
         <v>63</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -17746,7 +17752,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -17758,7 +17764,7 @@
         <v>65</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -17770,7 +17776,7 @@
         <v>66</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -17782,7 +17788,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -17794,7 +17800,7 @@
         <v>68</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -17806,7 +17812,7 @@
         <v>69</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -17818,7 +17824,7 @@
         <v>6A</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -17830,7 +17836,7 @@
         <v>6B</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -17842,7 +17848,7 @@
         <v>6C</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -17854,7 +17860,7 @@
         <v>6D</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -17866,7 +17872,7 @@
         <v>6E</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -17878,7 +17884,7 @@
         <v>6F</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -17890,7 +17896,7 @@
         <v>70</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -17902,7 +17908,7 @@
         <v>71</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -17914,7 +17920,7 @@
         <v>72</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -17926,7 +17932,7 @@
         <v>73</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -17938,7 +17944,7 @@
         <v>74</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -17950,7 +17956,7 @@
         <v>75</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -17974,7 +17980,7 @@
         <v>77</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -17986,7 +17992,7 @@
         <v>78</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -17998,7 +18004,7 @@
         <v>79</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -18010,7 +18016,7 @@
         <v>7A</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -18022,7 +18028,7 @@
         <v>7B</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -18034,7 +18040,7 @@
         <v>7C</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -18046,7 +18052,7 @@
         <v>7D</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -18094,7 +18100,7 @@
         <v>1508</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="H131" t="s">
         <v>224</v>
@@ -18112,7 +18118,7 @@
         <v>1511</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="H132" t="s">
         <v>227</v>
@@ -18127,13 +18133,13 @@
         <v>83</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>1170</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="H133" t="s">
         <v>229</v>
@@ -18151,10 +18157,10 @@
         <v>142</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="H134" t="s">
         <v>231</v>
@@ -18172,10 +18178,10 @@
         <v>146</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="H135" t="s">
         <v>234</v>
@@ -18190,13 +18196,13 @@
         <v>86</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="H136" t="s">
         <v>237</v>
@@ -18232,7 +18238,7 @@
         <v>499</v>
       </c>
       <c r="H138" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -18244,10 +18250,10 @@
         <v>89</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H139" t="s">
         <v>246</v>
@@ -18262,7 +18268,7 @@
         <v>8A</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>1347</v>
@@ -18280,7 +18286,7 @@
         <v>8B</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>1354</v>
@@ -18322,7 +18328,7 @@
         <v>1361</v>
       </c>
       <c r="H143" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -18334,10 +18340,10 @@
         <v>8E</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="H144" t="s">
         <v>261</v>
@@ -18352,10 +18358,10 @@
         <v>8F</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="H145" t="s">
         <v>264</v>
@@ -18373,7 +18379,7 @@
         <v>581</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="H146" t="s">
         <v>267</v>
@@ -18391,7 +18397,7 @@
         <v>191</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="H147" t="s">
         <v>270</v>
@@ -18409,7 +18415,7 @@
         <v>215</v>
       </c>
       <c r="E148" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="F148"/>
       <c r="H148" t="s">
@@ -18428,7 +18434,7 @@
         <v>203</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="H149" t="s">
         <v>275</v>
@@ -18536,7 +18542,7 @@
         <v>9A</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>1180</v>
@@ -18551,7 +18557,7 @@
         <v>9B</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>1183</v>
@@ -18581,7 +18587,7 @@
         <v>9D</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>1189</v>
@@ -18641,7 +18647,7 @@
         <v>A1</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>977</v>
@@ -18656,7 +18662,7 @@
         <v>A2</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>1017</v>
@@ -18671,7 +18677,7 @@
         <v>A3</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>1279</v>
@@ -18710,10 +18716,10 @@
         <v>A6</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -18725,10 +18731,10 @@
         <v>A7</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -19181,10 +19187,10 @@
         <v>D9</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="G219" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -19196,10 +19202,10 @@
         <v>DA</v>
       </c>
       <c r="D220" s="3" t="s">
+        <v>1836</v>
+      </c>
+      <c r="G220" t="s">
         <v>1835</v>
-      </c>
-      <c r="G220" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -19211,10 +19217,10 @@
         <v>DB</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="G221" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -19226,10 +19232,10 @@
         <v>DC</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="G222" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -19241,10 +19247,10 @@
         <v>DD</v>
       </c>
       <c r="D223" s="3" t="s">
+        <v>1840</v>
+      </c>
+      <c r="G223" t="s">
         <v>1839</v>
-      </c>
-      <c r="G223" t="s">
-        <v>1838</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -19256,10 +19262,10 @@
         <v>DE</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="G224" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -19271,10 +19277,10 @@
         <v>DF</v>
       </c>
       <c r="D225" s="3" t="s">
+        <v>1843</v>
+      </c>
+      <c r="G225" t="s">
         <v>1842</v>
-      </c>
-      <c r="G225" t="s">
-        <v>1841</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -19286,10 +19292,10 @@
         <v>E0</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="G226" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -19301,10 +19307,10 @@
         <v>E1</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="G227" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -19316,10 +19322,10 @@
         <v>E2</v>
       </c>
       <c r="D228" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G228" t="s">
         <v>1846</v>
-      </c>
-      <c r="G228" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:7">
@@ -19331,10 +19337,10 @@
         <v>E3</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="G229" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -19346,10 +19352,10 @@
         <v>E4</v>
       </c>
       <c r="D230" s="3" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G230" t="s">
         <v>1849</v>
-      </c>
-      <c r="G230" t="s">
-        <v>1848</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -19361,10 +19367,10 @@
         <v>E5</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="G231" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -19376,10 +19382,10 @@
         <v>E6</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="G232" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -19391,10 +19397,10 @@
         <v>E7</v>
       </c>
       <c r="D233" s="3" t="s">
+        <v>1854</v>
+      </c>
+      <c r="G233" t="s">
         <v>1853</v>
-      </c>
-      <c r="G233" t="s">
-        <v>1852</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -19406,10 +19412,10 @@
         <v>E8</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="G234" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -19421,10 +19427,10 @@
         <v>E9</v>
       </c>
       <c r="D235" s="3" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G235" t="s">
         <v>1856</v>
-      </c>
-      <c r="G235" t="s">
-        <v>1855</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -19436,10 +19442,10 @@
         <v>EA</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="G236" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -19451,10 +19457,10 @@
         <v>EB</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="G237" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -19466,10 +19472,10 @@
         <v>EC</v>
       </c>
       <c r="D238" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G238" t="s">
         <v>1860</v>
-      </c>
-      <c r="G238" t="s">
-        <v>1859</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -19481,10 +19487,10 @@
         <v>ED</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="G239" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -19496,10 +19502,10 @@
         <v>EE</v>
       </c>
       <c r="D240" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G240" t="s">
         <v>1863</v>
-      </c>
-      <c r="G240" t="s">
-        <v>1862</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -19511,10 +19517,10 @@
         <v>EF</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="G241" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -19526,10 +19532,10 @@
         <v>F0</v>
       </c>
       <c r="D242" s="3" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G242" t="s">
         <v>1866</v>
-      </c>
-      <c r="G242" t="s">
-        <v>1865</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -19541,13 +19547,13 @@
         <v>F1</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="G243" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="I243" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -19559,13 +19565,13 @@
         <v>F2</v>
       </c>
       <c r="D244" s="3" t="s">
+        <v>1870</v>
+      </c>
+      <c r="G244" t="s">
         <v>1869</v>
       </c>
-      <c r="G244" t="s">
-        <v>1868</v>
-      </c>
       <c r="I244" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -19577,13 +19583,13 @@
         <v>F3</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="G245" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="I245" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -19595,13 +19601,13 @@
         <v>F4</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="G246" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="I246" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -19613,13 +19619,13 @@
         <v>F5</v>
       </c>
       <c r="D247" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G247" t="s">
         <v>1873</v>
       </c>
-      <c r="G247" t="s">
-        <v>1872</v>
-      </c>
       <c r="I247" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -19631,13 +19637,13 @@
         <v>F6</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="G248" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="I248" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -19649,13 +19655,13 @@
         <v>F7</v>
       </c>
       <c r="D249" s="3" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G249" t="s">
         <v>1876</v>
       </c>
-      <c r="G249" t="s">
-        <v>1875</v>
-      </c>
       <c r="I249" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -19667,13 +19673,13 @@
         <v>F8</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="I250" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -19685,13 +19691,13 @@
         <v>F9</v>
       </c>
       <c r="D251" s="3" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G251" s="3" t="s">
         <v>1879</v>
       </c>
-      <c r="G251" s="3" t="s">
-        <v>1878</v>
-      </c>
       <c r="I251" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -19703,13 +19709,13 @@
         <v>FA</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="G252" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="I252" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -19721,13 +19727,13 @@
         <v>FB</v>
       </c>
       <c r="D253" s="3" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G253" t="s">
         <v>1882</v>
       </c>
-      <c r="G253" t="s">
-        <v>1881</v>
-      </c>
       <c r="I253" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -19735,16 +19741,16 @@
         <v>252</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="I254" s="3" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -19756,13 +19762,13 @@
         <v>FD</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="I255" s="3" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -19774,13 +19780,13 @@
         <v>FE</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -19792,10 +19798,10 @@
         <v>FF</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
   </sheetData>
@@ -19959,7 +19965,7 @@
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:10">
       <c r="A1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -19968,513 +19974,513 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F1" t="s">
         <v>1894</v>
       </c>
-      <c r="F1" t="s">
-        <v>1893</v>
-      </c>
       <c r="G1" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="H1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I1" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="J1" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:6">
       <c r="A2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="D2" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="F2" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="3" ht="67.5" spans="1:6">
       <c r="A3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1900</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F3" t="s">
         <v>1902</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1899</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1904</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1901</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:6">
       <c r="A4" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D4" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="F4" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:5">
       <c r="A5" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="D5" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" ht="54" spans="1:6">
       <c r="A6" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="D6" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="F6" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:5">
       <c r="A7" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="D7" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="54" spans="1:6">
       <c r="A8" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="D8" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="F8" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="1:6">
       <c r="A9" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D9" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="F9" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="10" ht="67.5" spans="1:5">
       <c r="A10" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D10" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" ht="67.5" spans="1:5">
       <c r="A11" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D11" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" ht="81" spans="1:5">
       <c r="A12" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="D12" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" ht="54" spans="1:6">
       <c r="A13" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="D13" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="F13" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:6">
       <c r="A14" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="D14" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="F14" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="15" ht="54" spans="1:6">
       <c r="A15" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="D15" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="F15" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="1:6">
       <c r="A16" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="D16" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="F16" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="17" ht="54" spans="1:6">
       <c r="A17" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="D17" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="F17" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="18" ht="54" spans="1:6">
       <c r="A18" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="D18" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="F18" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:5">
       <c r="A19" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="D19" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" ht="54" spans="1:6">
       <c r="A20" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="D20" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="F20" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="21" ht="54" spans="1:6">
       <c r="A21" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="D21" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="F21" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="22" ht="54" spans="1:4">
       <c r="A22" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="D22" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="23" ht="54" spans="1:6">
       <c r="A23" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="D23" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="F23" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="24" ht="54" spans="1:5">
       <c r="A24" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="D24" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" ht="40.5" spans="1:6">
       <c r="A25" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="D25" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="F25" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="26" ht="54" spans="1:6">
       <c r="A26" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D26" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="F26" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="27" ht="54" spans="1:5">
       <c r="A27" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="D27" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" ht="54" spans="1:5">
       <c r="A28" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="D28" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E28" s="1"/>
     </row>

--- a/ccchi/字符串表.xlsx
+++ b/ccchi/字符串表.xlsx
@@ -6059,9 +6059,9 @@
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -6087,29 +6087,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6141,6 +6118,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6244,6 +6244,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6263,30 +6287,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6555,10 +6555,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6573,7 +6573,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -6582,28 +6582,28 @@
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6615,7 +6615,7 @@
     <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6645,13 +6645,13 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6663,13 +6663,13 @@
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6678,7 +6678,7 @@
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6707,10 +6707,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -7251,9 +7251,9 @@
   <dimension ref="A1:F755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D177" sqref="D177"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -7484,37 +7484,37 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3" t="s">
+    <row r="18" s="7" customFormat="1" spans="1:5">
+      <c r="A18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="7" customFormat="1" spans="1:5">
+      <c r="A19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -7540,37 +7540,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="3" t="s">
+    <row r="22" s="7" customFormat="1" spans="1:5">
+      <c r="A22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
+    <row r="23" s="7" customFormat="1" spans="1:5">
+      <c r="A23" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7585,54 +7585,54 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
+    <row r="25" s="7" customFormat="1" spans="1:5">
+      <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
+    <row r="26" s="7" customFormat="1" spans="1:5">
+      <c r="A26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3" t="s">
+    <row r="27" s="7" customFormat="1" spans="1:5">
+      <c r="A27" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="7" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7911,227 +7911,227 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="3" t="s">
+    <row r="53" s="7" customFormat="1" spans="1:5">
+      <c r="A53" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="3" t="s">
+    <row r="54" s="7" customFormat="1" spans="1:5">
+      <c r="A54" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
+      <c r="B54" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="3" t="s">
+    <row r="55" s="7" customFormat="1" spans="1:5">
+      <c r="A55" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="B55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="3" t="s">
+    <row r="56" s="7" customFormat="1" spans="1:5">
+      <c r="A56" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="B56" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3" t="s">
+    <row r="57" s="7" customFormat="1" spans="1:5">
+      <c r="A57" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="7" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3" t="s">
+    <row r="58" s="7" customFormat="1" spans="1:5">
+      <c r="A58" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B58" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="7" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3" t="s">
+    <row r="59" s="7" customFormat="1" spans="1:5">
+      <c r="A59" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="7" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3" t="s">
+    <row r="60" s="7" customFormat="1" spans="1:5">
+      <c r="A60" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="3" t="s">
+    <row r="61" s="7" customFormat="1" spans="1:5">
+      <c r="A61" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="B61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="7" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="3" t="s">
+    <row r="62" s="7" customFormat="1" spans="1:5">
+      <c r="A62" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="3" t="s">
+    <row r="63" s="7" customFormat="1" spans="1:5">
+      <c r="A63" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="3" t="s">
+    <row r="64" s="7" customFormat="1" spans="1:5">
+      <c r="A64" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="65" s="7" customFormat="1" spans="1:6">
-      <c r="A65" s="7" t="s">
+    <row r="65" s="8" customFormat="1" spans="1:6">
+      <c r="A65" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="8" t="s">
         <v>176</v>
       </c>
     </row>
@@ -8201,20 +8201,20 @@
         <v>188</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="3" t="s">
+    <row r="72" s="7" customFormat="1" spans="1:5">
+      <c r="A72" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="B72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="7" t="s">
         <v>192</v>
       </c>
     </row>
@@ -8240,88 +8240,88 @@
         <v>196</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="3" t="s">
+    <row r="75" s="7" customFormat="1" spans="1:5">
+      <c r="A75" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="3" t="s">
+    <row r="76" s="7" customFormat="1" spans="1:5">
+      <c r="A76" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="7" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="3" t="s">
+    <row r="77" s="7" customFormat="1" spans="1:5">
+      <c r="A77" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="3" t="s">
+    <row r="78" s="7" customFormat="1" spans="1:5">
+      <c r="A78" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="7" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="3" t="s">
+    <row r="79" s="7" customFormat="1" spans="1:5">
+      <c r="A79" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -8336,632 +8336,632 @@
         <v>218</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="3" t="s">
+    <row r="81" s="7" customFormat="1" spans="1:5">
+      <c r="A81" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="3" t="s">
+    <row r="82" s="7" customFormat="1" spans="1:5">
+      <c r="A82" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="7">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="3" t="s">
+    <row r="83" s="7" customFormat="1" spans="1:5">
+      <c r="A83" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="3" t="s">
+      <c r="B83" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="3" t="s">
+    <row r="84" s="7" customFormat="1" spans="1:5">
+      <c r="A84" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="B84" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="3" t="s">
+    <row r="85" s="7" customFormat="1" spans="1:5">
+      <c r="A85" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="B85" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="3" t="s">
+    <row r="86" s="7" customFormat="1" spans="1:5">
+      <c r="A86" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="B86" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="87" s="8" customFormat="1" spans="1:5">
-      <c r="A87" s="8" t="s">
+    <row r="87" s="7" customFormat="1" spans="1:5">
+      <c r="A87" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="8" t="s">
+      <c r="B87" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>236</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="7">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="3" t="s">
+    <row r="88" s="7" customFormat="1" spans="1:5">
+      <c r="A88" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="B88" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="7">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="3" t="s">
+    <row r="89" s="7" customFormat="1" spans="1:5">
+      <c r="A89" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="7">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="3" t="s">
+    <row r="90" s="7" customFormat="1" spans="1:5">
+      <c r="A90" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="7">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="3" t="s">
+    <row r="91" s="7" customFormat="1" spans="1:5">
+      <c r="A91" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="B91" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="3" t="s">
+    <row r="92" s="7" customFormat="1" spans="1:5">
+      <c r="A92" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="3" t="s">
+    <row r="93" s="7" customFormat="1" spans="1:5">
+      <c r="A93" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="3" t="s">
+    <row r="94" s="7" customFormat="1" spans="1:5">
+      <c r="A94" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="3" t="s">
+    <row r="95" s="7" customFormat="1" spans="1:5">
+      <c r="A95" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="7" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="3" t="s">
+    <row r="96" s="7" customFormat="1" spans="1:5">
+      <c r="A96" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="3" t="s">
+      <c r="B96" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="3" t="s">
+    <row r="97" s="7" customFormat="1" spans="1:5">
+      <c r="A97" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="3" t="s">
+      <c r="B97" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="3" t="s">
+    <row r="98" s="7" customFormat="1" spans="1:5">
+      <c r="A98" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="3" t="s">
+      <c r="B98" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="7">
         <v>91</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="3" t="s">
+    <row r="99" s="7" customFormat="1" spans="1:5">
+      <c r="A99" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C99" s="3" t="s">
+      <c r="B99" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="3" t="s">
+    <row r="100" s="7" customFormat="1" spans="1:5">
+      <c r="A100" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="3" t="s">
+      <c r="B100" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="7">
         <v>93</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="3" t="s">
+    <row r="101" s="7" customFormat="1" spans="1:5">
+      <c r="A101" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="3" t="s">
+      <c r="B101" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="7">
         <v>94</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="3" t="s">
+    <row r="102" s="7" customFormat="1" spans="1:5">
+      <c r="A102" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="B102" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="7">
         <v>95</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="3" t="s">
+    <row r="103" s="7" customFormat="1" spans="1:5">
+      <c r="A103" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="3" t="s">
+    <row r="104" s="7" customFormat="1" spans="1:5">
+      <c r="A104" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="B104" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="7">
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="3" t="s">
+    <row r="105" s="7" customFormat="1" spans="1:5">
+      <c r="A105" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="B105" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="7">
         <v>98</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="3" t="s">
+    <row r="106" s="7" customFormat="1" spans="1:5">
+      <c r="A106" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="7">
         <v>99</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="3" t="s">
+    <row r="107" s="7" customFormat="1" spans="1:5">
+      <c r="A107" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="3" t="s">
+    <row r="108" s="7" customFormat="1" spans="1:5">
+      <c r="A108" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="3" t="s">
+    <row r="109" s="7" customFormat="1" spans="1:5">
+      <c r="A109" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="3" t="s">
+    <row r="110" s="7" customFormat="1" spans="1:5">
+      <c r="A110" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="B110" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="3" t="s">
+    <row r="111" s="7" customFormat="1" spans="1:5">
+      <c r="A111" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B111" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="3" t="s">
+    <row r="112" s="7" customFormat="1" spans="1:5">
+      <c r="A112" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="B112" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="3" t="s">
+    <row r="113" s="7" customFormat="1" spans="1:5">
+      <c r="A113" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B113" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="3" t="s">
+    <row r="114" s="7" customFormat="1" spans="1:5">
+      <c r="A114" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="B114" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="7" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="3" t="s">
+    <row r="115" s="7" customFormat="1" spans="1:5">
+      <c r="A115" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="B115" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="7" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="3" t="s">
+    <row r="116" s="7" customFormat="1" spans="1:5">
+      <c r="A116" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="B116" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="3" t="s">
+    <row r="117" s="7" customFormat="1" spans="1:5">
+      <c r="A117" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="B117" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="7" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9365,122 +9365,122 @@
         <v>405</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="3" t="s">
+    <row r="154" s="7" customFormat="1" spans="1:5">
+      <c r="A154" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C154" s="3" t="s">
+      <c r="B154" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="7" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="3" t="s">
+    <row r="155" s="7" customFormat="1" spans="1:5">
+      <c r="A155" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="B155" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C155" s="3" t="s">
+      <c r="B155" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="3" t="s">
+    <row r="156" s="7" customFormat="1" spans="1:5">
+      <c r="A156" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="B156" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C156" s="3" t="s">
+      <c r="B156" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="3" t="s">
+    <row r="157" s="7" customFormat="1" spans="1:5">
+      <c r="A157" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B157" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C157" s="3" t="s">
+      <c r="B157" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D157" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="3" t="s">
+    <row r="158" s="7" customFormat="1" spans="1:5">
+      <c r="A158" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C158" s="3" t="s">
+      <c r="B158" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D158" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="7" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="3" t="s">
+    <row r="159" s="7" customFormat="1" spans="1:5">
+      <c r="A159" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C159" s="3" t="s">
+      <c r="B159" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="D159" s="8" t="s">
+      <c r="D159" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="7" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="3" t="s">
+    <row r="160" s="7" customFormat="1" spans="1:5">
+      <c r="A160" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" s="3" t="s">
+      <c r="B160" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="D160" t="s">
+      <c r="D160" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="7" t="s">
         <v>431</v>
       </c>
     </row>
@@ -9498,20 +9498,20 @@
         <v>434</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="3" t="s">
+    <row r="162" s="7" customFormat="1" spans="1:5">
+      <c r="A162" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C162" s="3" t="s">
+      <c r="B162" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="D162" s="8" t="s">
+      <c r="D162" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="7" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9557,247 +9557,247 @@
         <v>447</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="3" t="s">
+    <row r="166" s="7" customFormat="1" spans="1:5">
+      <c r="A166" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C166" s="3" t="s">
+      <c r="B166" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C166" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="7" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="3" t="s">
+    <row r="167" s="7" customFormat="1" spans="1:5">
+      <c r="A167" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="3" t="s">
+      <c r="B167" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="7" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="3" t="s">
+    <row r="168" s="7" customFormat="1" spans="1:5">
+      <c r="A168" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168" s="3" t="s">
+      <c r="B168" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="3" t="s">
+    <row r="169" s="7" customFormat="1" spans="1:5">
+      <c r="A169" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C169" s="3" t="s">
+      <c r="B169" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="7" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="3" t="s">
+    <row r="170" s="7" customFormat="1" spans="1:5">
+      <c r="A170" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C170" s="3" t="s">
+      <c r="B170" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="7" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="3" t="s">
+    <row r="171" s="7" customFormat="1" spans="1:5">
+      <c r="A171" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C171" s="3" t="s">
+      <c r="B171" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="7" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="3" t="s">
+    <row r="172" s="7" customFormat="1" spans="1:5">
+      <c r="A172" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C172" s="3" t="s">
+      <c r="B172" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D172" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="7" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="3" t="s">
+    <row r="173" s="7" customFormat="1" spans="1:5">
+      <c r="A173" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C173" s="3" t="s">
+      <c r="B173" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D173" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="7" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="3" t="s">
+    <row r="174" s="7" customFormat="1" spans="1:5">
+      <c r="A174" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C174" s="3" t="s">
+      <c r="B174" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D174" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="7" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="3" t="s">
+    <row r="175" s="7" customFormat="1" spans="1:5">
+      <c r="A175" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C175" s="3" t="s">
+      <c r="B175" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D175" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="7" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="3" t="s">
+    <row r="176" s="7" customFormat="1" spans="1:5">
+      <c r="A176" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="3" t="s">
+      <c r="B176" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D176" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="7" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="3" t="s">
+    <row r="177" s="7" customFormat="1" spans="1:5">
+      <c r="A177" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C177" s="3" t="s">
+      <c r="B177" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D177" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="7" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="3" t="s">
+    <row r="178" s="7" customFormat="1" spans="1:6">
+      <c r="A178" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C178" s="3" t="s">
+      <c r="B178" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="F178" s="7" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="3" t="s">
+    <row r="179" s="7" customFormat="1" spans="1:6">
+      <c r="A179" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" s="3" t="s">
+      <c r="B179" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F179" s="7" t="s">
         <v>501</v>
       </c>
     </row>
@@ -9823,20 +9823,20 @@
         <v>505</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="3" t="s">
+    <row r="182" s="7" customFormat="1" spans="1:5">
+      <c r="A182" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="B182" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C182" s="3" t="s">
+      <c r="B182" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="7" t="s">
         <v>509</v>
       </c>
     </row>
@@ -9862,105 +9862,105 @@
         <v>513</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="3" t="s">
+    <row r="185" s="7" customFormat="1" spans="1:5">
+      <c r="A185" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C185" s="3" t="s">
+      <c r="B185" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="7" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="3" t="s">
+    <row r="186" s="7" customFormat="1" spans="1:5">
+      <c r="A186" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C186" s="3" t="s">
+      <c r="B186" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="3" t="s">
+    <row r="187" s="7" customFormat="1" spans="1:5">
+      <c r="A187" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C187" s="3" t="s">
+      <c r="B187" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="7" t="s">
         <v>522</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="3" t="s">
+    <row r="188" s="7" customFormat="1" spans="1:5">
+      <c r="A188" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C188" s="3" t="s">
+      <c r="B188" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="3" t="s">
+    <row r="189" s="7" customFormat="1" spans="1:5">
+      <c r="A189" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B189" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" s="3" t="s">
+      <c r="B189" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="3" t="s">
+    <row r="190" s="7" customFormat="1" spans="1:5">
+      <c r="A190" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="B190" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C190" s="3" t="s">
+      <c r="B190" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -10173,20 +10173,20 @@
         <v>567</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="3" t="s">
+    <row r="210" s="7" customFormat="1" spans="1:5">
+      <c r="A210" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="B210" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C210" s="3" t="s">
+      <c r="B210" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="7" t="s">
         <v>571</v>
       </c>
     </row>
@@ -10223,20 +10223,20 @@
         <v>577</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="3" t="s">
+    <row r="214" s="7" customFormat="1" spans="1:5">
+      <c r="A214" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="B214" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C214" s="3" t="s">
+      <c r="B214" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="E214" s="7" t="s">
         <v>244</v>
       </c>
     </row>
@@ -10251,20 +10251,20 @@
         <v>582</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="3" t="s">
+    <row r="216" s="7" customFormat="1" spans="1:5">
+      <c r="A216" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="B216" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C216" s="3" t="s">
+      <c r="B216" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D216" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E216" s="7" t="s">
         <v>586</v>
       </c>
     </row>
@@ -10400,37 +10400,37 @@
         <v>610</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="3" t="s">
+    <row r="229" s="7" customFormat="1" spans="1:5">
+      <c r="A229" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C229" s="3" t="s">
+      <c r="B229" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E229" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="3" t="s">
+    <row r="230" s="7" customFormat="1" spans="1:5">
+      <c r="A230" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C230" s="3" t="s">
+      <c r="B230" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" s="7" t="s">
         <v>615</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E230" s="7" t="s">
         <v>258</v>
       </c>
     </row>
@@ -10599,20 +10599,20 @@
         <v>646</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="3" t="s">
+    <row r="246" s="7" customFormat="1" spans="1:5">
+      <c r="A246" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="B246" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C246" s="3" t="s">
+      <c r="B246" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D246" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="E246" s="7" t="s">
         <v>305</v>
       </c>
     </row>
@@ -10627,37 +10627,37 @@
         <v>651</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="3" t="s">
+    <row r="248" s="7" customFormat="1" spans="1:5">
+      <c r="A248" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="B248" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C248" s="3" t="s">
+      <c r="B248" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" s="7" t="s">
         <v>653</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E248" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="3" t="s">
+    <row r="249" s="7" customFormat="1" spans="1:5">
+      <c r="A249" s="7" t="s">
         <v>655</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" s="3" t="s">
+      <c r="B249" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="7" t="s">
         <v>656</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="7" t="s">
         <v>657</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="E249" s="7" t="s">
         <v>309</v>
       </c>
     </row>
@@ -16552,9 +16552,9 @@
   <dimension ref="A1:I257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A167" sqref="$A167:$XFD167"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ccchi/字符串表.xlsx
+++ b/ccchi/字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27975" windowHeight="10935"/>
+    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370">
   <si>
     <t>编号</t>
   </si>
@@ -8532,10 +8532,25 @@
     <t>Name=Funpark Dinosaur Campaign</t>
   </si>
   <si>
+    <t>恐龙乐园行动</t>
+  </si>
+  <si>
+    <t>本地有些奇异生物的报告,调查并报告你的发现.</t>
+  </si>
+  <si>
     <t>[SCG20EB]</t>
   </si>
   <si>
+    <t>一座基地失去了联系.前去保护,消除威胁.</t>
+  </si>
+  <si>
     <t>[SCG20EC]</t>
+  </si>
+  <si>
+    <t>很多人在丛林里遇险,清除威胁,以便安全通过.</t>
+  </si>
+  <si>
+    <t>科学家表示这些恐龙似乎拥有智慧.</t>
   </si>
   <si>
     <t>[SCG20ED]</t>
@@ -10119,11 +10134,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -10158,20 +10173,6 @@
       <color theme="7" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10231,6 +10232,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10299,6 +10307,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -10332,13 +10347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10362,6 +10371,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10375,6 +10390,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10404,6 +10425,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10416,7 +10443,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10440,25 +10479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10482,37 +10527,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10574,15 +10589,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -10675,6 +10681,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10683,10 +10698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10695,133 +10710,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12851,7 +12866,7 @@
   <sheetPr/>
   <dimension ref="A1:P754"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C635" sqref="C635"/>
@@ -34457,8 +34472,10 @@
   <sheetPr/>
   <dimension ref="A1:J558"/>
   <sheetViews>
-    <sheetView topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="C302" sqref="C302"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A321" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C344" sqref="C344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -38166,120 +38183,176 @@
       <c r="A335" s="22" t="s">
         <v>2837</v>
       </c>
-      <c r="B335" s="22"/>
-      <c r="C335" s="22"/>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="B335" s="22" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C335" s="22" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
       <c r="A336" s="22" t="s">
         <v>2800</v>
       </c>
-      <c r="B336" s="22"/>
-      <c r="C336" s="22"/>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="B336" s="22" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C336" s="22" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E336" s="11" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="22" t="s">
         <v>2802</v>
       </c>
       <c r="B337" s="22"/>
       <c r="C337" s="22"/>
+      <c r="E337" s="11" t="s">
+        <v>2803</v>
+      </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="22" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="B338" s="22"/>
       <c r="C338" s="22"/>
     </row>
-    <row r="339" spans="1:3">
+    <row r="339" spans="1:5">
       <c r="A339" s="22" t="s">
         <v>2806</v>
       </c>
-      <c r="B339" s="22"/>
-      <c r="C339" s="22"/>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="B339" s="22" t="s">
+        <v>2841</v>
+      </c>
+      <c r="C339" s="22" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E339" s="11" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
       <c r="A340" s="22" t="s">
         <v>2808</v>
       </c>
       <c r="B340" s="22"/>
       <c r="C340" s="22"/>
+      <c r="E340" s="11" t="s">
+        <v>2809</v>
+      </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="22" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="B341" s="22"/>
       <c r="C341" s="22"/>
     </row>
-    <row r="342" spans="1:3">
+    <row r="342" spans="1:5">
       <c r="A342" s="22" t="s">
         <v>2812</v>
       </c>
-      <c r="B342" s="22"/>
-      <c r="C342" s="22"/>
-    </row>
-    <row r="343" spans="1:3">
+      <c r="B342" s="22" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C342" s="22" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E342" s="11" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" s="22" t="s">
         <v>2814</v>
       </c>
-      <c r="B343" s="22"/>
-      <c r="C343" s="22"/>
-    </row>
-    <row r="344" spans="1:3">
+      <c r="B343" s="22" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C343" s="22" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" s="22" t="s">
         <v>2816</v>
       </c>
       <c r="B344" s="22"/>
       <c r="C344" s="22"/>
+      <c r="E344" s="11" t="s">
+        <v>2817</v>
+      </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="22" t="s">
-        <v>2840</v>
+        <v>2845</v>
       </c>
       <c r="B345" s="22"/>
       <c r="C345" s="22"/>
     </row>
-    <row r="346" spans="1:3">
+    <row r="346" spans="1:5">
       <c r="A346" s="22" t="s">
         <v>2820</v>
       </c>
       <c r="B346" s="22"/>
       <c r="C346" s="22"/>
-    </row>
-    <row r="347" spans="1:3">
+      <c r="E346" s="11" t="s">
+        <v>2821</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
       <c r="A347" s="22" t="s">
         <v>2822</v>
       </c>
       <c r="B347" s="22"/>
       <c r="C347" s="22"/>
-    </row>
-    <row r="348" spans="1:3">
+      <c r="E347" s="11" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
       <c r="A348" s="22" t="s">
         <v>2824</v>
       </c>
       <c r="B348" s="22"/>
       <c r="C348" s="22"/>
+      <c r="E348" s="11" t="s">
+        <v>2825</v>
+      </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="22" t="s">
-        <v>2841</v>
+        <v>2846</v>
       </c>
       <c r="B349" s="22"/>
       <c r="C349" s="22"/>
     </row>
-    <row r="350" spans="1:3">
+    <row r="350" spans="1:5">
       <c r="A350" s="22" t="s">
         <v>2828</v>
       </c>
       <c r="B350" s="22"/>
       <c r="C350" s="22"/>
-    </row>
-    <row r="351" spans="1:3">
+      <c r="E350" s="11" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" s="22" t="s">
         <v>2830</v>
       </c>
       <c r="B351" s="22"/>
       <c r="C351" s="22"/>
+      <c r="E351" s="11" t="s">
+        <v>2831</v>
+      </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="22"/>
@@ -38288,12 +38361,12 @@
     </row>
     <row r="353" spans="1:6">
       <c r="A353" s="22" t="s">
-        <v>2842</v>
+        <v>2847</v>
       </c>
       <c r="B353" s="22"/>
       <c r="C353" s="22"/>
       <c r="E353" s="11" t="s">
-        <v>2842</v>
+        <v>2847</v>
       </c>
       <c r="F353" s="11" t="s">
         <v>2423</v>
@@ -38301,52 +38374,52 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="22" t="s">
-        <v>2843</v>
+        <v>2848</v>
       </c>
       <c r="B354" s="22"/>
       <c r="C354" s="22"/>
       <c r="E354" s="11" t="s">
-        <v>2844</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="22" t="s">
-        <v>2845</v>
+        <v>2850</v>
       </c>
       <c r="B355" s="22"/>
       <c r="C355" s="22"/>
       <c r="E355" s="11" t="s">
-        <v>2846</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="22" t="s">
-        <v>2847</v>
+        <v>2852</v>
       </c>
       <c r="B356" s="22"/>
       <c r="C356" s="22"/>
       <c r="E356" s="11" t="s">
-        <v>2848</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="22" t="s">
-        <v>2849</v>
+        <v>2854</v>
       </c>
       <c r="B357" s="22"/>
       <c r="C357" s="22"/>
       <c r="E357" s="11" t="s">
-        <v>2850</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="22" t="s">
-        <v>2851</v>
+        <v>2856</v>
       </c>
       <c r="B358" s="22"/>
       <c r="C358" s="22"/>
       <c r="E358" s="11" t="s">
-        <v>2852</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -38356,12 +38429,12 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" s="22" t="s">
-        <v>2853</v>
+        <v>2858</v>
       </c>
       <c r="B360" s="22"/>
       <c r="C360" s="22"/>
       <c r="E360" s="11" t="s">
-        <v>2853</v>
+        <v>2858</v>
       </c>
       <c r="F360" s="11" t="s">
         <v>2423</v>
@@ -38369,52 +38442,52 @@
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="22" t="s">
-        <v>2854</v>
+        <v>2859</v>
       </c>
       <c r="B361" s="22"/>
       <c r="C361" s="22"/>
       <c r="E361" s="11" t="s">
-        <v>2855</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="22" t="s">
-        <v>2856</v>
+        <v>2861</v>
       </c>
       <c r="B362" s="22"/>
       <c r="C362" s="22"/>
       <c r="E362" s="11" t="s">
-        <v>2857</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="22" t="s">
-        <v>2858</v>
+        <v>2863</v>
       </c>
       <c r="B363" s="22"/>
       <c r="C363" s="22"/>
       <c r="E363" s="11" t="s">
-        <v>2859</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="22" t="s">
-        <v>2860</v>
+        <v>2865</v>
       </c>
       <c r="B364" s="22"/>
       <c r="C364" s="22"/>
       <c r="E364" s="11" t="s">
-        <v>2861</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="22" t="s">
-        <v>2862</v>
+        <v>2867</v>
       </c>
       <c r="B365" s="22"/>
       <c r="C365" s="22"/>
       <c r="E365" s="11" t="s">
-        <v>2863</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -38424,22 +38497,22 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="22" t="s">
-        <v>2864</v>
+        <v>2869</v>
       </c>
       <c r="B367" s="22"/>
       <c r="C367" s="22"/>
       <c r="E367" s="11" t="s">
-        <v>2865</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" s="22" t="s">
-        <v>2866</v>
+        <v>2871</v>
       </c>
       <c r="B368" s="22"/>
       <c r="C368" s="22"/>
       <c r="E368" s="11" t="s">
-        <v>2866</v>
+        <v>2871</v>
       </c>
       <c r="F368" s="11" t="s">
         <v>2423</v>
@@ -38447,52 +38520,52 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="22" t="s">
-        <v>2867</v>
+        <v>2872</v>
       </c>
       <c r="B369" s="22"/>
       <c r="C369" s="22"/>
       <c r="E369" s="11" t="s">
-        <v>2868</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="22" t="s">
-        <v>2869</v>
+        <v>2874</v>
       </c>
       <c r="B370" s="22"/>
       <c r="C370" s="22"/>
       <c r="E370" s="11" t="s">
-        <v>2870</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="22" t="s">
-        <v>2871</v>
+        <v>2876</v>
       </c>
       <c r="B371" s="22"/>
       <c r="C371" s="22"/>
       <c r="E371" s="11" t="s">
-        <v>2872</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="22" t="s">
-        <v>2873</v>
+        <v>2878</v>
       </c>
       <c r="B372" s="22"/>
       <c r="C372" s="22"/>
       <c r="E372" s="11" t="s">
-        <v>2874</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="22" t="s">
-        <v>2875</v>
+        <v>2880</v>
       </c>
       <c r="B373" s="22"/>
       <c r="C373" s="22"/>
       <c r="E373" s="11" t="s">
-        <v>2876</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -38502,12 +38575,12 @@
     </row>
     <row r="375" spans="1:6">
       <c r="A375" s="22" t="s">
-        <v>2877</v>
+        <v>2882</v>
       </c>
       <c r="B375" s="22"/>
       <c r="C375" s="22"/>
       <c r="E375" s="11" t="s">
-        <v>2877</v>
+        <v>2882</v>
       </c>
       <c r="F375" s="11" t="s">
         <v>2423</v>
@@ -38515,42 +38588,42 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="22" t="s">
-        <v>2878</v>
+        <v>2883</v>
       </c>
       <c r="B376" s="22"/>
       <c r="C376" s="22"/>
       <c r="E376" s="11" t="s">
-        <v>2879</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="22" t="s">
-        <v>2880</v>
+        <v>2885</v>
       </c>
       <c r="B377" s="22"/>
       <c r="C377" s="22"/>
       <c r="E377" s="11" t="s">
-        <v>2881</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="22" t="s">
-        <v>2882</v>
+        <v>2887</v>
       </c>
       <c r="B378" s="22"/>
       <c r="C378" s="22"/>
       <c r="E378" s="11" t="s">
-        <v>2883</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="22" t="s">
-        <v>2884</v>
+        <v>2889</v>
       </c>
       <c r="B379" s="22"/>
       <c r="C379" s="22"/>
       <c r="E379" s="11" t="s">
-        <v>2885</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -38560,12 +38633,12 @@
     </row>
     <row r="381" spans="1:6">
       <c r="A381" s="22" t="s">
-        <v>2886</v>
+        <v>2891</v>
       </c>
       <c r="B381" s="22"/>
       <c r="C381" s="22"/>
       <c r="E381" s="11" t="s">
-        <v>2886</v>
+        <v>2891</v>
       </c>
       <c r="F381" s="11" t="s">
         <v>2423</v>
@@ -38573,42 +38646,42 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="22" t="s">
-        <v>2887</v>
+        <v>2892</v>
       </c>
       <c r="B382" s="22"/>
       <c r="C382" s="22"/>
       <c r="E382" s="11" t="s">
-        <v>2888</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="22" t="s">
-        <v>2889</v>
+        <v>2894</v>
       </c>
       <c r="B383" s="22"/>
       <c r="C383" s="22"/>
       <c r="E383" s="11" t="s">
-        <v>2890</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="22" t="s">
-        <v>2891</v>
+        <v>2896</v>
       </c>
       <c r="B384" s="22"/>
       <c r="C384" s="22"/>
       <c r="E384" s="11" t="s">
-        <v>2892</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="22" t="s">
-        <v>2893</v>
+        <v>2898</v>
       </c>
       <c r="B385" s="22"/>
       <c r="C385" s="22"/>
       <c r="E385" s="11" t="s">
-        <v>2894</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -38618,12 +38691,12 @@
     </row>
     <row r="387" spans="1:6">
       <c r="A387" s="22" t="s">
-        <v>2895</v>
+        <v>2900</v>
       </c>
       <c r="B387" s="22"/>
       <c r="C387" s="22"/>
       <c r="E387" s="11" t="s">
-        <v>2895</v>
+        <v>2900</v>
       </c>
       <c r="F387" s="11" t="s">
         <v>2423</v>
@@ -38631,52 +38704,52 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="22" t="s">
-        <v>2896</v>
+        <v>2901</v>
       </c>
       <c r="B388" s="22"/>
       <c r="C388" s="22"/>
       <c r="E388" s="11" t="s">
-        <v>2897</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="22" t="s">
-        <v>2898</v>
+        <v>2903</v>
       </c>
       <c r="B389" s="22"/>
       <c r="C389" s="22"/>
       <c r="E389" s="11" t="s">
-        <v>2899</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="22" t="s">
-        <v>2900</v>
+        <v>2905</v>
       </c>
       <c r="B390" s="22"/>
       <c r="C390" s="22"/>
       <c r="E390" s="11" t="s">
-        <v>2901</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="22" t="s">
-        <v>2902</v>
+        <v>2907</v>
       </c>
       <c r="B391" s="22"/>
       <c r="C391" s="22"/>
       <c r="E391" s="11" t="s">
-        <v>2903</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="22" t="s">
-        <v>2904</v>
+        <v>2909</v>
       </c>
       <c r="B392" s="22"/>
       <c r="C392" s="22"/>
       <c r="E392" s="11" t="s">
-        <v>2905</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -38686,12 +38759,12 @@
     </row>
     <row r="394" spans="1:6">
       <c r="A394" s="22" t="s">
-        <v>2906</v>
+        <v>2911</v>
       </c>
       <c r="B394" s="22"/>
       <c r="C394" s="22"/>
       <c r="E394" s="11" t="s">
-        <v>2906</v>
+        <v>2911</v>
       </c>
       <c r="F394" s="11" t="s">
         <v>2423</v>
@@ -38699,52 +38772,52 @@
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="22" t="s">
-        <v>2907</v>
+        <v>2912</v>
       </c>
       <c r="B395" s="22"/>
       <c r="C395" s="22"/>
       <c r="E395" s="11" t="s">
-        <v>2908</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="22" t="s">
-        <v>2909</v>
+        <v>2914</v>
       </c>
       <c r="B396" s="22"/>
       <c r="C396" s="22"/>
       <c r="E396" s="11" t="s">
-        <v>2910</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="22" t="s">
-        <v>2911</v>
+        <v>2916</v>
       </c>
       <c r="B397" s="22"/>
       <c r="C397" s="22"/>
       <c r="E397" s="11" t="s">
-        <v>2912</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="22" t="s">
-        <v>2913</v>
+        <v>2918</v>
       </c>
       <c r="B398" s="22"/>
       <c r="C398" s="22"/>
       <c r="E398" s="11" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="22" t="s">
-        <v>2915</v>
+        <v>2920</v>
       </c>
       <c r="B399" s="22"/>
       <c r="C399" s="22"/>
       <c r="E399" s="11" t="s">
-        <v>2916</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -38759,12 +38832,12 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="22" t="s">
-        <v>2917</v>
+        <v>2922</v>
       </c>
       <c r="B402" s="22"/>
       <c r="C402" s="22"/>
       <c r="E402" s="11" t="s">
-        <v>2918</v>
+        <v>2923</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -38779,17 +38852,17 @@
       <c r="B404" s="22"/>
       <c r="C404" s="22"/>
       <c r="E404" s="11" t="s">
-        <v>2919</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="22" t="s">
-        <v>2920</v>
+        <v>2925</v>
       </c>
       <c r="B405" s="22"/>
       <c r="C405" s="22"/>
       <c r="E405" s="11" t="s">
-        <v>2920</v>
+        <v>2925</v>
       </c>
       <c r="F405" s="11" t="s">
         <v>2423</v>
@@ -38798,13 +38871,13 @@
         <v>2836</v>
       </c>
       <c r="H405" s="11" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="I405" s="11" t="s">
-        <v>2922</v>
+        <v>2927</v>
       </c>
       <c r="J405" s="11" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -38814,13 +38887,13 @@
       <c r="B406" s="22"/>
       <c r="C406" s="22"/>
       <c r="E406" s="11" t="s">
-        <v>2924</v>
+        <v>2929</v>
       </c>
       <c r="G406" s="11" t="s">
-        <v>2925</v>
+        <v>2930</v>
       </c>
       <c r="I406" s="11" t="s">
-        <v>2926</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -38833,10 +38906,10 @@
         <v>2801</v>
       </c>
       <c r="G407" s="11" t="s">
-        <v>2927</v>
+        <v>2932</v>
       </c>
       <c r="I407" s="11" t="s">
-        <v>2928</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -38849,29 +38922,29 @@
         <v>2803</v>
       </c>
       <c r="G408" s="11" t="s">
-        <v>2929</v>
+        <v>2934</v>
       </c>
       <c r="I408" s="11" t="s">
-        <v>2930</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="409" spans="1:8">
       <c r="A409" s="22" t="s">
-        <v>2931</v>
+        <v>2936</v>
       </c>
       <c r="B409" s="22"/>
       <c r="C409" s="22"/>
       <c r="E409" s="11" t="s">
-        <v>2838</v>
+        <v>2840</v>
       </c>
       <c r="F409" s="11" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="G409" s="11" t="s">
-        <v>2932</v>
+        <v>2937</v>
       </c>
       <c r="H409" s="11" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -38881,7 +38954,7 @@
       <c r="B410" s="22"/>
       <c r="C410" s="22"/>
       <c r="E410" s="11" t="s">
-        <v>2933</v>
+        <v>2938</v>
       </c>
       <c r="G410" s="11" t="s">
         <v>2807</v>
@@ -38894,29 +38967,29 @@
       <c r="B411" s="22"/>
       <c r="C411" s="22"/>
       <c r="E411" s="11" t="s">
-        <v>2934</v>
+        <v>2939</v>
       </c>
       <c r="G411" s="11" t="s">
-        <v>2935</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="412" spans="1:8">
       <c r="A412" s="22" t="s">
-        <v>2936</v>
+        <v>2941</v>
       </c>
       <c r="B412" s="22"/>
       <c r="C412" s="22"/>
       <c r="E412" s="11" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="F412" s="11" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="G412" s="11" t="s">
-        <v>2937</v>
+        <v>2942</v>
       </c>
       <c r="H412" s="11" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -38926,10 +38999,10 @@
       <c r="B413" s="22"/>
       <c r="C413" s="22"/>
       <c r="E413" s="11" t="s">
-        <v>2938</v>
+        <v>2943</v>
       </c>
       <c r="G413" s="11" t="s">
-        <v>2939</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -38939,10 +39012,10 @@
       <c r="B414" s="22"/>
       <c r="C414" s="22"/>
       <c r="E414" s="11" t="s">
-        <v>2940</v>
+        <v>2945</v>
       </c>
       <c r="G414" s="11" t="s">
-        <v>2941</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -38952,29 +39025,29 @@
       <c r="B415" s="22"/>
       <c r="C415" s="22"/>
       <c r="E415" s="11" t="s">
-        <v>2942</v>
+        <v>2947</v>
       </c>
       <c r="G415" s="11" t="s">
-        <v>2943</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="416" spans="1:8">
       <c r="A416" s="22" t="s">
-        <v>2944</v>
+        <v>2949</v>
       </c>
       <c r="B416" s="22"/>
       <c r="C416" s="22"/>
       <c r="E416" s="11" t="s">
-        <v>2840</v>
+        <v>2845</v>
       </c>
       <c r="F416" s="11" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="G416" s="11" t="s">
-        <v>2945</v>
+        <v>2950</v>
       </c>
       <c r="H416" s="11" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -38984,10 +39057,10 @@
       <c r="B417" s="22"/>
       <c r="C417" s="22"/>
       <c r="E417" s="11" t="s">
-        <v>2946</v>
+        <v>2951</v>
       </c>
       <c r="G417" s="11" t="s">
-        <v>2947</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -38997,10 +39070,10 @@
       <c r="B418" s="22"/>
       <c r="C418" s="22"/>
       <c r="E418" s="11" t="s">
-        <v>2948</v>
+        <v>2953</v>
       </c>
       <c r="G418" s="11" t="s">
-        <v>2949</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -39010,29 +39083,29 @@
       <c r="B419" s="22"/>
       <c r="C419" s="22"/>
       <c r="E419" s="11" t="s">
-        <v>2950</v>
+        <v>2955</v>
       </c>
       <c r="G419" s="11" t="s">
-        <v>2951</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="420" spans="1:8">
       <c r="A420" s="22" t="s">
-        <v>2952</v>
+        <v>2957</v>
       </c>
       <c r="B420" s="22"/>
       <c r="C420" s="22"/>
       <c r="E420" s="11" t="s">
-        <v>2841</v>
+        <v>2846</v>
       </c>
       <c r="F420" s="11" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="G420" s="11" t="s">
-        <v>2953</v>
+        <v>2958</v>
       </c>
       <c r="H420" s="11" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -39042,10 +39115,10 @@
       <c r="B421" s="22"/>
       <c r="C421" s="22"/>
       <c r="E421" s="11" t="s">
-        <v>2954</v>
+        <v>2959</v>
       </c>
       <c r="G421" s="11" t="s">
-        <v>2955</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -39055,10 +39128,10 @@
       <c r="B422" s="22"/>
       <c r="C422" s="22"/>
       <c r="E422" s="11" t="s">
-        <v>2956</v>
+        <v>2961</v>
       </c>
       <c r="G422" s="11" t="s">
-        <v>2957</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -39068,12 +39141,12 @@
     </row>
     <row r="424" spans="1:6">
       <c r="A424" s="22" t="s">
-        <v>2958</v>
+        <v>2963</v>
       </c>
       <c r="B424" s="22"/>
       <c r="C424" s="22"/>
       <c r="E424" s="11" t="s">
-        <v>2958</v>
+        <v>2963</v>
       </c>
       <c r="F424" s="11" t="s">
         <v>2423</v>
@@ -39081,52 +39154,52 @@
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="22" t="s">
-        <v>2959</v>
+        <v>2964</v>
       </c>
       <c r="B425" s="22"/>
       <c r="C425" s="22"/>
       <c r="E425" s="11" t="s">
-        <v>2960</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="22" t="s">
-        <v>2961</v>
+        <v>2966</v>
       </c>
       <c r="B426" s="22"/>
       <c r="C426" s="22"/>
       <c r="E426" s="11" t="s">
-        <v>2962</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="22" t="s">
-        <v>2963</v>
+        <v>2968</v>
       </c>
       <c r="B427" s="22"/>
       <c r="C427" s="22"/>
       <c r="E427" s="11" t="s">
-        <v>2964</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="22" t="s">
-        <v>2965</v>
+        <v>2970</v>
       </c>
       <c r="B428" s="22"/>
       <c r="C428" s="22"/>
       <c r="E428" s="11" t="s">
-        <v>2966</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="22" t="s">
-        <v>2967</v>
+        <v>2972</v>
       </c>
       <c r="B429" s="22"/>
       <c r="C429" s="22"/>
       <c r="E429" s="11" t="s">
-        <v>2968</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="430" spans="1:3">
@@ -39136,12 +39209,12 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" s="22" t="s">
-        <v>2969</v>
+        <v>2974</v>
       </c>
       <c r="B431" s="22"/>
       <c r="C431" s="22"/>
       <c r="E431" s="11" t="s">
-        <v>2969</v>
+        <v>2974</v>
       </c>
       <c r="F431" s="11" t="s">
         <v>2423</v>
@@ -39149,52 +39222,52 @@
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="22" t="s">
-        <v>2970</v>
+        <v>2975</v>
       </c>
       <c r="B432" s="22"/>
       <c r="C432" s="22"/>
       <c r="E432" s="11" t="s">
-        <v>2971</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="22" t="s">
-        <v>2972</v>
+        <v>2977</v>
       </c>
       <c r="B433" s="22"/>
       <c r="C433" s="22"/>
       <c r="E433" s="11" t="s">
-        <v>2973</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="22" t="s">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="B434" s="22"/>
       <c r="C434" s="22"/>
       <c r="E434" s="11" t="s">
-        <v>2975</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="22" t="s">
-        <v>2976</v>
+        <v>2981</v>
       </c>
       <c r="B435" s="22"/>
       <c r="C435" s="22"/>
       <c r="E435" s="11" t="s">
-        <v>2977</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="22" t="s">
-        <v>2978</v>
+        <v>2983</v>
       </c>
       <c r="B436" s="22"/>
       <c r="C436" s="22"/>
       <c r="E436" s="11" t="s">
-        <v>2979</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -39204,12 +39277,12 @@
     </row>
     <row r="438" spans="1:6">
       <c r="A438" s="22" t="s">
-        <v>2980</v>
+        <v>2985</v>
       </c>
       <c r="B438" s="22"/>
       <c r="C438" s="22"/>
       <c r="E438" s="11" t="s">
-        <v>2980</v>
+        <v>2985</v>
       </c>
       <c r="F438" s="11" t="s">
         <v>2423</v>
@@ -39217,52 +39290,52 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="22" t="s">
-        <v>2981</v>
+        <v>2986</v>
       </c>
       <c r="B439" s="22"/>
       <c r="C439" s="22"/>
       <c r="E439" s="11" t="s">
-        <v>2982</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="22" t="s">
-        <v>2983</v>
+        <v>2988</v>
       </c>
       <c r="B440" s="22"/>
       <c r="C440" s="22"/>
       <c r="E440" s="11" t="s">
-        <v>2984</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="22" t="s">
-        <v>2985</v>
+        <v>2990</v>
       </c>
       <c r="B441" s="22"/>
       <c r="C441" s="22"/>
       <c r="E441" s="11" t="s">
-        <v>2986</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="22" t="s">
-        <v>2987</v>
+        <v>2992</v>
       </c>
       <c r="B442" s="22"/>
       <c r="C442" s="22"/>
       <c r="E442" s="11" t="s">
-        <v>2988</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="22" t="s">
-        <v>2989</v>
+        <v>2994</v>
       </c>
       <c r="B443" s="22"/>
       <c r="C443" s="22"/>
       <c r="E443" s="11" t="s">
-        <v>2990</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -39272,12 +39345,12 @@
     </row>
     <row r="445" spans="1:6">
       <c r="A445" s="22" t="s">
-        <v>2991</v>
+        <v>2996</v>
       </c>
       <c r="B445" s="22"/>
       <c r="C445" s="22"/>
       <c r="E445" s="11" t="s">
-        <v>2991</v>
+        <v>2996</v>
       </c>
       <c r="F445" s="11" t="s">
         <v>2423</v>
@@ -39285,52 +39358,52 @@
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="22" t="s">
-        <v>2992</v>
+        <v>2997</v>
       </c>
       <c r="B446" s="22"/>
       <c r="C446" s="22"/>
       <c r="E446" s="11" t="s">
-        <v>2993</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="22" t="s">
-        <v>2994</v>
+        <v>2999</v>
       </c>
       <c r="B447" s="22"/>
       <c r="C447" s="22"/>
       <c r="E447" s="11" t="s">
-        <v>2995</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="22" t="s">
-        <v>2996</v>
+        <v>3001</v>
       </c>
       <c r="B448" s="22"/>
       <c r="C448" s="22"/>
       <c r="E448" s="11" t="s">
-        <v>2997</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="22" t="s">
-        <v>2998</v>
+        <v>3003</v>
       </c>
       <c r="B449" s="22"/>
       <c r="C449" s="22"/>
       <c r="E449" s="11" t="s">
-        <v>2999</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="22" t="s">
-        <v>3000</v>
+        <v>3005</v>
       </c>
       <c r="B450" s="22"/>
       <c r="C450" s="22"/>
       <c r="E450" s="11" t="s">
-        <v>3001</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -39340,12 +39413,12 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="22" t="s">
-        <v>3002</v>
+        <v>3007</v>
       </c>
       <c r="B452" s="22"/>
       <c r="C452" s="22"/>
       <c r="E452" s="11" t="s">
-        <v>3002</v>
+        <v>3007</v>
       </c>
       <c r="F452" s="11" t="s">
         <v>2423</v>
@@ -39353,42 +39426,42 @@
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="22" t="s">
-        <v>3003</v>
+        <v>3008</v>
       </c>
       <c r="B453" s="22"/>
       <c r="C453" s="22"/>
       <c r="E453" s="11" t="s">
-        <v>3004</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="22" t="s">
-        <v>3005</v>
+        <v>3010</v>
       </c>
       <c r="B454" s="22"/>
       <c r="C454" s="22"/>
       <c r="E454" s="11" t="s">
-        <v>3006</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="22" t="s">
-        <v>3007</v>
+        <v>3012</v>
       </c>
       <c r="B455" s="22"/>
       <c r="C455" s="22"/>
       <c r="E455" s="11" t="s">
-        <v>3008</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="22" t="s">
-        <v>3009</v>
+        <v>3014</v>
       </c>
       <c r="B456" s="22"/>
       <c r="C456" s="22"/>
       <c r="E456" s="11" t="s">
-        <v>3010</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -39398,12 +39471,12 @@
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="22" t="s">
-        <v>3011</v>
+        <v>3016</v>
       </c>
       <c r="B458" s="22"/>
       <c r="C458" s="22"/>
       <c r="E458" s="11" t="s">
-        <v>3011</v>
+        <v>3016</v>
       </c>
       <c r="F458" s="11" t="s">
         <v>2423</v>
@@ -39411,32 +39484,32 @@
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="22" t="s">
-        <v>3012</v>
+        <v>3017</v>
       </c>
       <c r="B459" s="22"/>
       <c r="C459" s="22"/>
       <c r="E459" s="11" t="s">
-        <v>3013</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="22" t="s">
-        <v>3014</v>
+        <v>3019</v>
       </c>
       <c r="B460" s="22"/>
       <c r="C460" s="22"/>
       <c r="E460" s="11" t="s">
-        <v>3015</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="22" t="s">
-        <v>3016</v>
+        <v>3021</v>
       </c>
       <c r="B461" s="22"/>
       <c r="C461" s="22"/>
       <c r="E461" s="11" t="s">
-        <v>3017</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -39446,12 +39519,12 @@
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="22" t="s">
-        <v>3018</v>
+        <v>3023</v>
       </c>
       <c r="B463" s="22"/>
       <c r="C463" s="22"/>
       <c r="E463" s="11" t="s">
-        <v>3018</v>
+        <v>3023</v>
       </c>
       <c r="F463" s="11" t="s">
         <v>2423</v>
@@ -39459,42 +39532,42 @@
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="22" t="s">
-        <v>3019</v>
+        <v>3024</v>
       </c>
       <c r="B464" s="22"/>
       <c r="C464" s="22"/>
       <c r="E464" s="11" t="s">
-        <v>3020</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="22" t="s">
-        <v>3021</v>
+        <v>3026</v>
       </c>
       <c r="B465" s="22"/>
       <c r="C465" s="22"/>
       <c r="E465" s="11" t="s">
-        <v>3022</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="22" t="s">
-        <v>3023</v>
+        <v>3028</v>
       </c>
       <c r="B466" s="22"/>
       <c r="C466" s="22"/>
       <c r="E466" s="11" t="s">
-        <v>3024</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="22" t="s">
-        <v>3025</v>
+        <v>3030</v>
       </c>
       <c r="B467" s="22"/>
       <c r="C467" s="22"/>
       <c r="E467" s="11" t="s">
-        <v>3026</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -39504,12 +39577,12 @@
     </row>
     <row r="469" spans="1:6">
       <c r="A469" s="22" t="s">
-        <v>3027</v>
+        <v>3032</v>
       </c>
       <c r="B469" s="22"/>
       <c r="C469" s="22"/>
       <c r="E469" s="11" t="s">
-        <v>3027</v>
+        <v>3032</v>
       </c>
       <c r="F469" s="11" t="s">
         <v>2423</v>
@@ -39517,52 +39590,52 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="22" t="s">
-        <v>3028</v>
+        <v>3033</v>
       </c>
       <c r="B470" s="22"/>
       <c r="C470" s="22"/>
       <c r="E470" s="11" t="s">
-        <v>3029</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="22" t="s">
-        <v>3030</v>
+        <v>3035</v>
       </c>
       <c r="B471" s="22"/>
       <c r="C471" s="22"/>
       <c r="E471" s="11" t="s">
-        <v>3031</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="472" spans="1:5">
       <c r="A472" s="22" t="s">
-        <v>3032</v>
+        <v>3037</v>
       </c>
       <c r="B472" s="22"/>
       <c r="C472" s="22"/>
       <c r="E472" s="11" t="s">
-        <v>3033</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="473" spans="1:5">
       <c r="A473" s="22" t="s">
-        <v>3034</v>
+        <v>3039</v>
       </c>
       <c r="B473" s="22"/>
       <c r="C473" s="22"/>
       <c r="E473" s="11" t="s">
-        <v>3035</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="474" spans="1:5">
       <c r="A474" s="22" t="s">
-        <v>3036</v>
+        <v>3041</v>
       </c>
       <c r="B474" s="22"/>
       <c r="C474" s="22"/>
       <c r="E474" s="11" t="s">
-        <v>3037</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -39572,32 +39645,32 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="22" t="s">
-        <v>3038</v>
+        <v>3043</v>
       </c>
       <c r="B476" s="22"/>
       <c r="C476" s="22"/>
       <c r="E476" s="11" t="s">
-        <v>3038</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="22" t="s">
-        <v>3039</v>
+        <v>3044</v>
       </c>
       <c r="B477" s="22"/>
       <c r="C477" s="22"/>
       <c r="E477" s="11" t="s">
-        <v>3040</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="22" t="s">
-        <v>3038</v>
+        <v>3043</v>
       </c>
       <c r="B478" s="22"/>
       <c r="C478" s="22"/>
       <c r="E478" s="11" t="s">
-        <v>3038</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -39607,12 +39680,12 @@
     </row>
     <row r="480" spans="1:6">
       <c r="A480" s="22" t="s">
-        <v>3041</v>
+        <v>3046</v>
       </c>
       <c r="B480" s="22"/>
       <c r="C480" s="22"/>
       <c r="E480" s="11" t="s">
-        <v>3041</v>
+        <v>3046</v>
       </c>
       <c r="F480" s="11" t="s">
         <v>2423</v>
@@ -39620,52 +39693,52 @@
     </row>
     <row r="481" spans="1:5">
       <c r="A481" s="22" t="s">
-        <v>3042</v>
+        <v>3047</v>
       </c>
       <c r="B481" s="22"/>
       <c r="C481" s="22"/>
       <c r="E481" s="11" t="s">
-        <v>3043</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="482" spans="1:5">
       <c r="A482" s="22" t="s">
-        <v>3044</v>
+        <v>3049</v>
       </c>
       <c r="B482" s="22"/>
       <c r="C482" s="22"/>
       <c r="E482" s="11" t="s">
-        <v>3045</v>
+        <v>3050</v>
       </c>
     </row>
     <row r="483" spans="1:5">
       <c r="A483" s="22" t="s">
-        <v>3046</v>
+        <v>3051</v>
       </c>
       <c r="B483" s="22"/>
       <c r="C483" s="22"/>
       <c r="E483" s="11" t="s">
-        <v>3047</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="484" spans="1:5">
       <c r="A484" s="22" t="s">
-        <v>3048</v>
+        <v>3053</v>
       </c>
       <c r="B484" s="22"/>
       <c r="C484" s="22"/>
       <c r="E484" s="11" t="s">
-        <v>3049</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="485" spans="1:5">
       <c r="A485" s="22" t="s">
-        <v>3050</v>
+        <v>3055</v>
       </c>
       <c r="B485" s="22"/>
       <c r="C485" s="22"/>
       <c r="E485" s="11" t="s">
-        <v>3051</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="486" spans="1:3">
@@ -39675,12 +39748,12 @@
     </row>
     <row r="487" spans="1:6">
       <c r="A487" s="22" t="s">
-        <v>3052</v>
+        <v>3057</v>
       </c>
       <c r="B487" s="22"/>
       <c r="C487" s="22"/>
       <c r="E487" s="11" t="s">
-        <v>3052</v>
+        <v>3057</v>
       </c>
       <c r="F487" s="11" t="s">
         <v>2423</v>
@@ -39688,62 +39761,62 @@
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="22" t="s">
-        <v>3053</v>
+        <v>3058</v>
       </c>
       <c r="B488" s="22"/>
       <c r="C488" s="22"/>
       <c r="E488" s="11" t="s">
-        <v>3054</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="22" t="s">
-        <v>3055</v>
+        <v>3060</v>
       </c>
       <c r="B489" s="22"/>
       <c r="C489" s="22"/>
       <c r="E489" s="11" t="s">
-        <v>3056</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="490" spans="1:5">
       <c r="A490" s="22" t="s">
-        <v>3057</v>
+        <v>3062</v>
       </c>
       <c r="B490" s="22"/>
       <c r="C490" s="22"/>
       <c r="E490" s="11" t="s">
-        <v>3058</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="491" spans="1:5">
       <c r="A491" s="22" t="s">
-        <v>3059</v>
+        <v>3064</v>
       </c>
       <c r="B491" s="22"/>
       <c r="C491" s="22"/>
       <c r="E491" s="11" t="s">
-        <v>3060</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="492" spans="1:5">
       <c r="A492" s="22" t="s">
-        <v>3061</v>
+        <v>3066</v>
       </c>
       <c r="B492" s="22"/>
       <c r="C492" s="22"/>
       <c r="E492" s="11" t="s">
-        <v>3062</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="493" spans="1:5">
       <c r="A493" s="22" t="s">
-        <v>3063</v>
+        <v>3068</v>
       </c>
       <c r="B493" s="22"/>
       <c r="C493" s="22"/>
       <c r="E493" s="11" t="s">
-        <v>3064</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -39753,12 +39826,12 @@
     </row>
     <row r="495" spans="1:6">
       <c r="A495" s="22" t="s">
-        <v>3065</v>
+        <v>3070</v>
       </c>
       <c r="B495" s="22"/>
       <c r="C495" s="22"/>
       <c r="E495" s="11" t="s">
-        <v>3065</v>
+        <v>3070</v>
       </c>
       <c r="F495" s="11" t="s">
         <v>2423</v>
@@ -39766,62 +39839,62 @@
     </row>
     <row r="496" spans="1:5">
       <c r="A496" s="22" t="s">
-        <v>3066</v>
+        <v>3071</v>
       </c>
       <c r="B496" s="22"/>
       <c r="C496" s="22"/>
       <c r="E496" s="11" t="s">
-        <v>3067</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="497" spans="1:5">
       <c r="A497" s="22" t="s">
-        <v>3068</v>
+        <v>3073</v>
       </c>
       <c r="B497" s="22"/>
       <c r="C497" s="22"/>
       <c r="E497" s="11" t="s">
-        <v>3069</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="22" t="s">
-        <v>3070</v>
+        <v>3075</v>
       </c>
       <c r="B498" s="22"/>
       <c r="C498" s="22"/>
       <c r="E498" s="11" t="s">
-        <v>3071</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="499" spans="1:5">
       <c r="A499" s="22" t="s">
-        <v>3072</v>
+        <v>3077</v>
       </c>
       <c r="B499" s="22"/>
       <c r="C499" s="22"/>
       <c r="E499" s="11" t="s">
-        <v>3073</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="500" spans="1:5">
       <c r="A500" s="22" t="s">
-        <v>3074</v>
+        <v>3079</v>
       </c>
       <c r="B500" s="22"/>
       <c r="C500" s="22"/>
       <c r="E500" s="11" t="s">
-        <v>3075</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="501" spans="1:5">
       <c r="A501" s="22" t="s">
-        <v>3076</v>
+        <v>3081</v>
       </c>
       <c r="B501" s="22"/>
       <c r="C501" s="22"/>
       <c r="E501" s="11" t="s">
-        <v>3077</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="502" spans="1:3">
@@ -39831,12 +39904,12 @@
     </row>
     <row r="503" spans="1:6">
       <c r="A503" s="22" t="s">
-        <v>3078</v>
+        <v>3083</v>
       </c>
       <c r="B503" s="22"/>
       <c r="C503" s="22"/>
       <c r="E503" s="11" t="s">
-        <v>3078</v>
+        <v>3083</v>
       </c>
       <c r="F503" s="11" t="s">
         <v>2423</v>
@@ -39844,52 +39917,52 @@
     </row>
     <row r="504" spans="1:5">
       <c r="A504" s="22" t="s">
-        <v>3079</v>
+        <v>3084</v>
       </c>
       <c r="B504" s="22"/>
       <c r="C504" s="22"/>
       <c r="E504" s="11" t="s">
-        <v>3080</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="505" spans="1:5">
       <c r="A505" s="22" t="s">
-        <v>3081</v>
+        <v>3086</v>
       </c>
       <c r="B505" s="22"/>
       <c r="C505" s="22"/>
       <c r="E505" s="11" t="s">
-        <v>3082</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="506" spans="1:5">
       <c r="A506" s="22" t="s">
-        <v>3083</v>
+        <v>3088</v>
       </c>
       <c r="B506" s="22"/>
       <c r="C506" s="22"/>
       <c r="E506" s="11" t="s">
-        <v>3084</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="507" spans="1:5">
       <c r="A507" s="22" t="s">
-        <v>3085</v>
+        <v>3090</v>
       </c>
       <c r="B507" s="22"/>
       <c r="C507" s="22"/>
       <c r="E507" s="11" t="s">
-        <v>3086</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="508" spans="1:5">
       <c r="A508" s="22" t="s">
-        <v>3087</v>
+        <v>3092</v>
       </c>
       <c r="B508" s="22"/>
       <c r="C508" s="22"/>
       <c r="E508" s="11" t="s">
-        <v>3088</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -39899,32 +39972,32 @@
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="22" t="s">
-        <v>3038</v>
+        <v>3043</v>
       </c>
       <c r="B510" s="22"/>
       <c r="C510" s="22"/>
       <c r="E510" s="11" t="s">
-        <v>3038</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="22" t="s">
-        <v>3089</v>
+        <v>3094</v>
       </c>
       <c r="B511" s="22"/>
       <c r="C511" s="22"/>
       <c r="E511" s="11" t="s">
-        <v>3090</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="22" t="s">
-        <v>3038</v>
+        <v>3043</v>
       </c>
       <c r="B512" s="22"/>
       <c r="C512" s="22"/>
       <c r="E512" s="11" t="s">
-        <v>3038</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -39934,60 +40007,60 @@
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="22" t="s">
-        <v>3091</v>
+        <v>3096</v>
       </c>
       <c r="B514" s="22"/>
       <c r="C514" s="22"/>
       <c r="E514" s="11" t="s">
-        <v>3091</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="22" t="s">
-        <v>3092</v>
+        <v>3097</v>
       </c>
       <c r="B515" s="22"/>
       <c r="C515" s="22"/>
       <c r="E515" s="11" t="s">
-        <v>3092</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="516" spans="1:6">
       <c r="A516" s="22" t="s">
-        <v>3093</v>
+        <v>3098</v>
       </c>
       <c r="B516" s="22"/>
       <c r="C516" s="22"/>
       <c r="E516" s="11" t="s">
-        <v>3094</v>
+        <v>3099</v>
       </c>
       <c r="F516" s="11" t="s">
-        <v>3095</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="22" t="s">
-        <v>3096</v>
+        <v>3101</v>
       </c>
       <c r="B517" s="22"/>
       <c r="C517" s="22"/>
       <c r="E517" s="11" t="s">
-        <v>3097</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="22" t="s">
-        <v>3098</v>
+        <v>3103</v>
       </c>
       <c r="B518" s="22"/>
       <c r="C518" s="22"/>
       <c r="E518" s="11" t="s">
-        <v>3099</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="22" t="s">
-        <v>3100</v>
+        <v>3105</v>
       </c>
       <c r="B519" s="22"/>
       <c r="C519" s="22"/>
@@ -39999,60 +40072,60 @@
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="22" t="s">
-        <v>3101</v>
+        <v>3106</v>
       </c>
       <c r="B521" s="22"/>
       <c r="C521" s="22"/>
       <c r="E521" s="11" t="s">
-        <v>3101</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="22" t="s">
-        <v>3102</v>
+        <v>3107</v>
       </c>
       <c r="B522" s="22"/>
       <c r="C522" s="22"/>
       <c r="E522" s="11" t="s">
-        <v>3102</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="523" spans="1:6">
       <c r="A523" s="22" t="s">
-        <v>3103</v>
+        <v>3108</v>
       </c>
       <c r="B523" s="22"/>
       <c r="C523" s="22"/>
       <c r="E523" s="11" t="s">
-        <v>3104</v>
+        <v>3109</v>
       </c>
       <c r="F523" s="11" t="s">
-        <v>3095</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="22" t="s">
-        <v>3105</v>
+        <v>3110</v>
       </c>
       <c r="B524" s="22"/>
       <c r="C524" s="22"/>
       <c r="E524" s="11" t="s">
-        <v>3106</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="22" t="s">
-        <v>3107</v>
+        <v>3112</v>
       </c>
       <c r="B525" s="22"/>
       <c r="C525" s="22"/>
       <c r="E525" s="11" t="s">
-        <v>3108</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="22" t="s">
-        <v>3109</v>
+        <v>3114</v>
       </c>
       <c r="B526" s="22"/>
       <c r="C526" s="22"/>
@@ -40064,60 +40137,60 @@
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="22" t="s">
-        <v>3110</v>
+        <v>3115</v>
       </c>
       <c r="B528" s="22"/>
       <c r="C528" s="22"/>
       <c r="E528" s="11" t="s">
-        <v>3110</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="22" t="s">
-        <v>3111</v>
+        <v>3116</v>
       </c>
       <c r="B529" s="22"/>
       <c r="C529" s="22"/>
       <c r="E529" s="11" t="s">
-        <v>3111</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="530" spans="1:6">
       <c r="A530" s="22" t="s">
-        <v>3112</v>
+        <v>3117</v>
       </c>
       <c r="B530" s="22"/>
       <c r="C530" s="22"/>
       <c r="E530" s="11" t="s">
-        <v>3113</v>
+        <v>3118</v>
       </c>
       <c r="F530" s="11" t="s">
-        <v>3095</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="22" t="s">
-        <v>3114</v>
+        <v>3119</v>
       </c>
       <c r="B531" s="22"/>
       <c r="C531" s="22"/>
       <c r="E531" s="11" t="s">
-        <v>3115</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="22" t="s">
-        <v>3116</v>
+        <v>3121</v>
       </c>
       <c r="B532" s="22"/>
       <c r="C532" s="22"/>
       <c r="E532" s="11" t="s">
-        <v>3117</v>
+        <v>3122</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="22" t="s">
-        <v>3118</v>
+        <v>3123</v>
       </c>
       <c r="B533" s="22"/>
       <c r="C533" s="22"/>
@@ -40129,148 +40202,148 @@
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="22" t="s">
-        <v>2864</v>
+        <v>2869</v>
       </c>
       <c r="B535" s="22"/>
       <c r="C535" s="22"/>
       <c r="E535" s="11" t="s">
-        <v>3119</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="536" spans="1:8">
       <c r="A536" s="22" t="s">
-        <v>3120</v>
+        <v>3125</v>
       </c>
       <c r="B536" s="22"/>
       <c r="C536" s="22"/>
       <c r="E536" s="11" t="s">
-        <v>3120</v>
+        <v>3125</v>
       </c>
       <c r="F536" s="11" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="G536" s="11" t="s">
-        <v>3121</v>
+        <v>3126</v>
       </c>
       <c r="H536" s="11" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="22" t="s">
-        <v>3122</v>
+        <v>3127</v>
       </c>
       <c r="B537" s="22"/>
       <c r="C537" s="22"/>
       <c r="E537" s="11" t="s">
-        <v>3123</v>
+        <v>3128</v>
       </c>
       <c r="G537" s="11" t="s">
-        <v>3124</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="538" spans="1:7">
       <c r="A538" s="22" t="s">
-        <v>3125</v>
+        <v>3130</v>
       </c>
       <c r="B538" s="22"/>
       <c r="C538" s="22"/>
       <c r="E538" s="11" t="s">
-        <v>3126</v>
+        <v>3131</v>
       </c>
       <c r="G538" s="11" t="s">
-        <v>3127</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="22" t="s">
-        <v>3128</v>
+        <v>3133</v>
       </c>
       <c r="B539" s="22"/>
       <c r="C539" s="22"/>
       <c r="E539" s="11" t="s">
-        <v>3129</v>
+        <v>3134</v>
       </c>
       <c r="G539" s="11" t="s">
-        <v>3130</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="540" spans="1:7">
       <c r="A540" s="22" t="s">
-        <v>3131</v>
+        <v>3136</v>
       </c>
       <c r="B540" s="22"/>
       <c r="C540" s="22"/>
       <c r="E540" s="11" t="s">
-        <v>3132</v>
+        <v>3137</v>
       </c>
       <c r="G540" s="11" t="s">
-        <v>3133</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="541" spans="1:7">
       <c r="A541" s="22" t="s">
-        <v>3134</v>
+        <v>3139</v>
       </c>
       <c r="B541" s="22"/>
       <c r="C541" s="22"/>
       <c r="E541" s="11" t="s">
-        <v>3135</v>
+        <v>3140</v>
       </c>
       <c r="G541" s="11" t="s">
-        <v>3136</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="542" spans="1:7">
       <c r="A542" s="22" t="s">
-        <v>3137</v>
+        <v>3142</v>
       </c>
       <c r="B542" s="22"/>
       <c r="C542" s="22"/>
       <c r="E542" s="11" t="s">
-        <v>3138</v>
+        <v>3143</v>
       </c>
       <c r="G542" s="11" t="s">
-        <v>3139</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="543" spans="1:7">
       <c r="A543" s="22" t="s">
-        <v>3140</v>
+        <v>3145</v>
       </c>
       <c r="B543" s="22"/>
       <c r="C543" s="22"/>
       <c r="E543" s="11" t="s">
-        <v>3140</v>
+        <v>3145</v>
       </c>
       <c r="G543" s="11" t="s">
-        <v>3141</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="544" spans="1:7">
       <c r="A544" s="22" t="s">
-        <v>3142</v>
+        <v>3147</v>
       </c>
       <c r="B544" s="22"/>
       <c r="C544" s="22"/>
       <c r="E544" s="11" t="s">
-        <v>3143</v>
+        <v>3148</v>
       </c>
       <c r="G544" s="11" t="s">
-        <v>3144</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="545" spans="1:7">
       <c r="A545" s="22" t="s">
-        <v>3145</v>
+        <v>3150</v>
       </c>
       <c r="B545" s="22"/>
       <c r="C545" s="22"/>
       <c r="E545" s="11" t="s">
-        <v>3146</v>
+        <v>3151</v>
       </c>
       <c r="G545" s="11" t="s">
-        <v>3147</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -40280,86 +40353,86 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" s="22" t="s">
-        <v>3148</v>
+        <v>3153</v>
       </c>
       <c r="B547" s="22"/>
       <c r="C547" s="22"/>
       <c r="E547" s="11" t="s">
-        <v>3148</v>
+        <v>3153</v>
       </c>
       <c r="F547" s="11" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="G547" s="11" t="s">
-        <v>3149</v>
+        <v>3154</v>
       </c>
       <c r="H547" s="11" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="548" spans="1:7">
       <c r="A548" s="22" t="s">
-        <v>3150</v>
+        <v>3155</v>
       </c>
       <c r="B548" s="22"/>
       <c r="C548" s="22"/>
       <c r="E548" s="11" t="s">
-        <v>3151</v>
+        <v>3156</v>
       </c>
       <c r="G548" s="11" t="s">
-        <v>3152</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="549" spans="1:7">
       <c r="A549" s="22" t="s">
-        <v>3153</v>
+        <v>3158</v>
       </c>
       <c r="B549" s="22"/>
       <c r="C549" s="22"/>
       <c r="E549" s="11" t="s">
-        <v>3154</v>
+        <v>3159</v>
       </c>
       <c r="G549" s="11" t="s">
-        <v>3155</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="550" spans="1:7">
       <c r="A550" s="22" t="s">
-        <v>3156</v>
+        <v>3161</v>
       </c>
       <c r="B550" s="22"/>
       <c r="C550" s="22"/>
       <c r="E550" s="11" t="s">
-        <v>3157</v>
+        <v>3162</v>
       </c>
       <c r="G550" s="11" t="s">
-        <v>3158</v>
+        <v>3163</v>
       </c>
     </row>
     <row r="551" spans="1:7">
       <c r="A551" s="22" t="s">
-        <v>3159</v>
+        <v>3164</v>
       </c>
       <c r="B551" s="22"/>
       <c r="C551" s="22"/>
       <c r="E551" s="11" t="s">
-        <v>3160</v>
+        <v>3165</v>
       </c>
       <c r="G551" s="11" t="s">
-        <v>3161</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="552" spans="1:7">
       <c r="A552" s="22" t="s">
-        <v>3162</v>
+        <v>3167</v>
       </c>
       <c r="B552" s="22"/>
       <c r="C552" s="22"/>
       <c r="E552" s="11" t="s">
-        <v>3163</v>
+        <v>3168</v>
       </c>
       <c r="G552" s="11" t="s">
-        <v>3164</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -40369,73 +40442,73 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="22" t="s">
-        <v>3165</v>
+        <v>3170</v>
       </c>
       <c r="B554" s="22"/>
       <c r="C554" s="22"/>
       <c r="E554" s="11" t="s">
-        <v>3165</v>
+        <v>3170</v>
       </c>
       <c r="F554" s="11" t="s">
-        <v>2921</v>
+        <v>2926</v>
       </c>
       <c r="G554" s="11" t="s">
-        <v>3166</v>
+        <v>3171</v>
       </c>
       <c r="H554" s="11" t="s">
-        <v>2923</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="555" spans="1:7">
       <c r="A555" s="22" t="s">
-        <v>3167</v>
+        <v>3172</v>
       </c>
       <c r="B555" s="22"/>
       <c r="C555" s="22"/>
       <c r="E555" s="11" t="s">
-        <v>3168</v>
+        <v>3173</v>
       </c>
       <c r="G555" s="11" t="s">
-        <v>3169</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="556" spans="1:7">
       <c r="A556" s="22" t="s">
-        <v>3170</v>
+        <v>3175</v>
       </c>
       <c r="B556" s="22"/>
       <c r="C556" s="22"/>
       <c r="E556" s="11" t="s">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="G556" s="11" t="s">
-        <v>3172</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="557" spans="1:7">
       <c r="A557" s="22" t="s">
-        <v>3173</v>
+        <v>3178</v>
       </c>
       <c r="B557" s="22"/>
       <c r="C557" s="22"/>
       <c r="E557" s="11" t="s">
-        <v>3174</v>
+        <v>3179</v>
       </c>
       <c r="G557" s="11" t="s">
-        <v>3175</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="558" spans="1:7">
       <c r="A558" s="22" t="s">
-        <v>3176</v>
+        <v>3181</v>
       </c>
       <c r="B558" s="22"/>
       <c r="C558" s="22"/>
       <c r="E558" s="11" t="s">
-        <v>3177</v>
+        <v>3182</v>
       </c>
       <c r="G558" s="11" t="s">
-        <v>3178</v>
+        <v>3183</v>
       </c>
     </row>
   </sheetData>
@@ -40498,25 +40571,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3179</v>
+        <v>3184</v>
       </c>
       <c r="D1" t="s">
-        <v>3180</v>
+        <v>3185</v>
       </c>
       <c r="E1" t="s">
-        <v>3181</v>
+        <v>3186</v>
       </c>
       <c r="F1" t="s">
-        <v>3182</v>
+        <v>3187</v>
       </c>
       <c r="G1" t="s">
-        <v>3183</v>
+        <v>3188</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3184</v>
+        <v>3189</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3185</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
@@ -40528,13 +40601,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -40565,7 +40638,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3187</v>
+        <v>3192</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>1553</v>
@@ -40603,7 +40676,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3188</v>
+        <v>3193</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1768</v>
@@ -40622,7 +40695,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>3189</v>
+        <v>3194</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1334</v>
@@ -40678,7 +40751,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>3190</v>
+        <v>3195</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>1338</v>
@@ -40697,10 +40770,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -40712,10 +40785,10 @@
         <v>A</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -40727,10 +40800,10 @@
         <v>B</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -40742,10 +40815,10 @@
         <v>C</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -40757,10 +40830,10 @@
         <v>D</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -41042,10 +41115,10 @@
         <v>20</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>3186</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -41057,7 +41130,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3191</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -41069,7 +41142,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3192</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -41081,7 +41154,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3193</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -41093,7 +41166,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3194</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -41105,7 +41178,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3195</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -41117,7 +41190,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3196</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -41129,7 +41202,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="58" t="s">
-        <v>3197</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -41141,7 +41214,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3198</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -41153,7 +41226,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>3199</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -41165,7 +41238,7 @@
         <v>2A</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>3200</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -41177,7 +41250,7 @@
         <v>2B</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3201</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -41189,7 +41262,7 @@
         <v>2C</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3202</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -41201,7 +41274,7 @@
         <v>2D</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>3203</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -41213,7 +41286,7 @@
         <v>2E</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>3204</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -41225,7 +41298,7 @@
         <v>2F</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3205</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -41237,7 +41310,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>3206</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -41249,7 +41322,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>3207</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -41357,7 +41430,7 @@
         <v>3A</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3208</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -41369,7 +41442,7 @@
         <v>3B</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3209</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -41393,7 +41466,7 @@
         <v>3D</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3210</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -41429,7 +41502,7 @@
         <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>3211</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -41441,7 +41514,7 @@
         <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>3212</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -41453,7 +41526,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>3213</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -41465,7 +41538,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>3214</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -41477,7 +41550,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>3215</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -41489,7 +41562,7 @@
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>3216</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -41501,7 +41574,7 @@
         <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3217</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -41513,7 +41586,7 @@
         <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>3218</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -41525,7 +41598,7 @@
         <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>3219</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -41537,7 +41610,7 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>3220</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -41549,7 +41622,7 @@
         <v>4A</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>3221</v>
+        <v>3226</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -41561,7 +41634,7 @@
         <v>4B</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>3222</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -41573,7 +41646,7 @@
         <v>4C</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>3223</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -41585,7 +41658,7 @@
         <v>4D</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3224</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -41597,7 +41670,7 @@
         <v>4E</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>3225</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -41609,7 +41682,7 @@
         <v>4F</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>3226</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -41621,7 +41694,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>3227</v>
+        <v>3232</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -41633,7 +41706,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>3228</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -41645,7 +41718,7 @@
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>3229</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -41657,7 +41730,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>3230</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -41669,7 +41742,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>3231</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -41681,7 +41754,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>3232</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -41693,7 +41766,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>3233</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -41705,7 +41778,7 @@
         <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3234</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -41717,7 +41790,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>3235</v>
+        <v>3240</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -41729,7 +41802,7 @@
         <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>3236</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -41741,7 +41814,7 @@
         <v>5A</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>3237</v>
+        <v>3242</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -41753,7 +41826,7 @@
         <v>5B</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>3238</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -41765,7 +41838,7 @@
         <v>5C</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>3239</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -41777,7 +41850,7 @@
         <v>5D</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>3240</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -41801,7 +41874,7 @@
         <v>5F</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>3241</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -41813,7 +41886,7 @@
         <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>3242</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -41825,7 +41898,7 @@
         <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>3243</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -41837,7 +41910,7 @@
         <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>3244</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -41849,7 +41922,7 @@
         <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>3245</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -41861,7 +41934,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>3246</v>
+        <v>3251</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -41873,7 +41946,7 @@
         <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>3247</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -41885,7 +41958,7 @@
         <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>3248</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -41897,7 +41970,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>3249</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -41909,7 +41982,7 @@
         <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>3250</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -41921,7 +41994,7 @@
         <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>3251</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -41933,7 +42006,7 @@
         <v>6A</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>3252</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -41945,7 +42018,7 @@
         <v>6B</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>3253</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -41957,7 +42030,7 @@
         <v>6C</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>3254</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -41969,7 +42042,7 @@
         <v>6D</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>3255</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -41981,7 +42054,7 @@
         <v>6E</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>3256</v>
+        <v>3261</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -41993,7 +42066,7 @@
         <v>6F</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>3257</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -42005,7 +42078,7 @@
         <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>3258</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -42017,7 +42090,7 @@
         <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>3259</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -42029,7 +42102,7 @@
         <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>3260</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -42041,7 +42114,7 @@
         <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>3261</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -42053,7 +42126,7 @@
         <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>3262</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -42065,7 +42138,7 @@
         <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>3263</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -42089,7 +42162,7 @@
         <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>3264</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -42101,7 +42174,7 @@
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>3265</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -42113,7 +42186,7 @@
         <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>3266</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -42125,7 +42198,7 @@
         <v>7A</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>3267</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -42137,7 +42210,7 @@
         <v>7B</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>3268</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -42149,7 +42222,7 @@
         <v>7C</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>3269</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -42161,7 +42234,7 @@
         <v>7D</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>3270</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -42173,7 +42246,7 @@
         <v>7E</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>3271</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -42185,10 +42258,10 @@
         <v>7F</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>3272</v>
+        <v>3277</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>3272</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -42218,13 +42291,13 @@
         <v>81</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>3273</v>
+        <v>3278</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>3273</v>
+        <v>3278</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>3274</v>
+        <v>3279</v>
       </c>
       <c r="I131" t="s">
         <v>256</v>
@@ -42245,7 +42318,7 @@
         <v>2151</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>3275</v>
+        <v>3280</v>
       </c>
       <c r="I132" t="s">
         <v>259</v>
@@ -42260,7 +42333,7 @@
         <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>3276</v>
+        <v>3281</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>1611</v>
@@ -42269,7 +42342,7 @@
         <v>1611</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>3277</v>
+        <v>3282</v>
       </c>
       <c r="I133" t="s">
         <v>261</v>
@@ -42287,13 +42360,13 @@
         <v>163</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>3278</v>
+        <v>3283</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>3278</v>
+        <v>3283</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>3279</v>
+        <v>3284</v>
       </c>
       <c r="I134" t="s">
         <v>263</v>
@@ -42311,13 +42384,13 @@
         <v>167</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>3280</v>
+        <v>3285</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>3280</v>
+        <v>3285</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>3281</v>
+        <v>3286</v>
       </c>
       <c r="I135" t="s">
         <v>266</v>
@@ -42332,16 +42405,16 @@
         <v>86</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>3282</v>
+        <v>3287</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>3283</v>
+        <v>3288</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>3283</v>
+        <v>3288</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>3284</v>
+        <v>3289</v>
       </c>
       <c r="I136" t="s">
         <v>269</v>
@@ -42401,13 +42474,13 @@
         <v>89</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>3285</v>
+        <v>3290</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>3286</v>
+        <v>3291</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>3286</v>
+        <v>3291</v>
       </c>
       <c r="I139" t="s">
         <v>280</v>
@@ -42422,7 +42495,7 @@
         <v>8A</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>3287</v>
+        <v>3292</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>1919</v>
@@ -42443,7 +42516,7 @@
         <v>8B</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>3288</v>
+        <v>3293</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>1929</v>
@@ -42467,13 +42540,13 @@
         <v>747</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>3289</v>
+        <v>3294</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>3289</v>
+        <v>3294</v>
       </c>
       <c r="I142" t="s">
-        <v>3290</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -42488,10 +42561,10 @@
         <v>751</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>3291</v>
+        <v>3296</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>3291</v>
+        <v>3296</v>
       </c>
       <c r="I143" t="s">
         <v>298</v>
@@ -42506,7 +42579,7 @@
         <v>8E</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>3292</v>
+        <v>3297</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>2384</v>
@@ -42515,7 +42588,7 @@
         <v>2384</v>
       </c>
       <c r="I144" t="s">
-        <v>3293</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -42527,13 +42600,13 @@
         <v>8F</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>3294</v>
+        <v>3299</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>3295</v>
+        <v>3300</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>3295</v>
+        <v>3300</v>
       </c>
       <c r="I145" t="s">
         <v>310</v>
@@ -42621,7 +42694,7 @@
         <v>2400</v>
       </c>
       <c r="I149" t="s">
-        <v>3296</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -42636,10 +42709,10 @@
         <v>231</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>3297</v>
+        <v>3302</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>3297</v>
+        <v>3302</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>330</v>
@@ -42657,10 +42730,10 @@
         <v>647</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>3298</v>
+        <v>3303</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>3298</v>
+        <v>3303</v>
       </c>
       <c r="I151" t="s">
         <v>333</v>
@@ -42705,7 +42778,7 @@
         <v>1608</v>
       </c>
       <c r="I153" t="s">
-        <v>3299</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -42741,10 +42814,10 @@
         <v>84</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>3300</v>
+        <v>3305</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>3300</v>
+        <v>3305</v>
       </c>
       <c r="I155" t="s">
         <v>351</v>
@@ -42759,7 +42832,7 @@
         <v>9A</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>3301</v>
+        <v>3306</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>1622</v>
@@ -42780,7 +42853,7 @@
         <v>9B</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>1626</v>
@@ -42822,7 +42895,7 @@
         <v>9D</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>3303</v>
+        <v>3308</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>1634</v>
@@ -42843,7 +42916,7 @@
         <v>9E</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>3304</v>
+        <v>3309</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>1638</v>
@@ -42969,13 +43042,13 @@
         <v>A4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>3305</v>
+        <v>3310</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>3306</v>
+        <v>3311</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>3306</v>
+        <v>3311</v>
       </c>
       <c r="I166" t="s">
         <v>400</v>
@@ -42990,7 +43063,7 @@
         <v>A5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>3307</v>
+        <v>3312</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>1853</v>
@@ -43020,7 +43093,7 @@
         <v>1793</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>3308</v>
+        <v>3313</v>
       </c>
       <c r="I168" t="s">
         <v>514</v>
@@ -43044,7 +43117,7 @@
         <v>1360</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>3309</v>
+        <v>3314</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>519</v>
@@ -43059,7 +43132,7 @@
         <v>A8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>3310</v>
+        <v>3315</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1670</v>
@@ -43068,7 +43141,7 @@
         <v>1670</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>3311</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -43080,7 +43153,7 @@
         <v>A9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>3312</v>
+        <v>3317</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>1233</v>
@@ -43143,7 +43216,7 @@
         <v>AC</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>3313</v>
+        <v>3318</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>1237</v>
@@ -43164,7 +43237,7 @@
         <v>AD</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>3314</v>
+        <v>3319</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>1809</v>
@@ -43185,7 +43258,7 @@
         <v>AE</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>3315</v>
+        <v>3320</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>1443</v>
@@ -43227,7 +43300,7 @@
         <v>B0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>3316</v>
+        <v>3321</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>1438</v>
@@ -43248,7 +43321,7 @@
         <v>B1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>3317</v>
+        <v>3322</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>1679</v>
@@ -43278,7 +43351,7 @@
         <v>1240</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>3318</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -43290,7 +43363,7 @@
         <v>B3</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>3319</v>
+        <v>3324</v>
       </c>
       <c r="E181" t="s">
         <v>1448</v>
@@ -43311,7 +43384,7 @@
         <v>B4</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>3320</v>
+        <v>3325</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>1856</v>
@@ -43353,7 +43426,7 @@
         <v>B6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>3321</v>
+        <v>3326</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>1243</v>
@@ -43374,7 +43447,7 @@
         <v>B7</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>3322</v>
+        <v>3327</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>1817</v>
@@ -43416,7 +43489,7 @@
         <v>B9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>3323</v>
+        <v>3328</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>1687</v>
@@ -43437,7 +43510,7 @@
         <v>BA</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>3324</v>
+        <v>3329</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>1246</v>
@@ -43458,7 +43531,7 @@
         <v>BB</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>3325</v>
+        <v>3330</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>1867</v>
@@ -43479,7 +43552,7 @@
         <v>BC</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>3326</v>
+        <v>3331</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>1463</v>
@@ -43563,7 +43636,7 @@
         <v>C0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>3327</v>
+        <v>3332</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>1250</v>
@@ -43584,7 +43657,7 @@
         <v>C1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>3328</v>
+        <v>3333</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>1467</v>
@@ -43605,7 +43678,7 @@
         <v>C2</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>3329</v>
+        <v>3334</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>1859</v>
@@ -43941,7 +44014,7 @@
         <v>D8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>3330</v>
+        <v>3335</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>1724</v>
@@ -43968,7 +44041,7 @@
         <v>1285</v>
       </c>
       <c r="H219" t="s">
-        <v>3331</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -43989,7 +44062,7 @@
         <v>1728</v>
       </c>
       <c r="H220" t="s">
-        <v>3331</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -44001,7 +44074,7 @@
         <v>DB</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>3332</v>
+        <v>3337</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>1290</v>
@@ -44010,7 +44083,7 @@
         <v>1290</v>
       </c>
       <c r="H221" t="s">
-        <v>3331</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -44022,7 +44095,7 @@
         <v>DC</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>3333</v>
+        <v>3338</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>1504</v>
@@ -44043,7 +44116,7 @@
         <v>DD</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>3334</v>
+        <v>3339</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>1732</v>
@@ -44064,7 +44137,7 @@
         <v>DE</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>3335</v>
+        <v>3340</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>1294</v>
@@ -44073,7 +44146,7 @@
         <v>1294</v>
       </c>
       <c r="H224" t="s">
-        <v>3336</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -44085,7 +44158,7 @@
         <v>DF</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>3337</v>
+        <v>3342</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>1834</v>
@@ -44094,7 +44167,7 @@
         <v>1834</v>
       </c>
       <c r="H225" t="s">
-        <v>3336</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -44106,7 +44179,7 @@
         <v>E0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>3338</v>
+        <v>3343</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>1923</v>
@@ -44115,7 +44188,7 @@
         <v>1923</v>
       </c>
       <c r="H226" t="s">
-        <v>3336</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -44136,7 +44209,7 @@
         <v>1740</v>
       </c>
       <c r="H227" t="s">
-        <v>3339</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -44151,13 +44224,13 @@
         <v>2567</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>3340</v>
+        <v>3345</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>3340</v>
+        <v>3345</v>
       </c>
       <c r="H228" t="s">
-        <v>3339</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:8">
@@ -44169,7 +44242,7 @@
         <v>E3</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>3341</v>
+        <v>3346</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>1306</v>
@@ -44193,10 +44266,10 @@
         <v>2555</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>3342</v>
+        <v>3347</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>3342</v>
+        <v>3347</v>
       </c>
       <c r="H230" t="s">
         <v>2550</v>
@@ -44214,10 +44287,10 @@
         <v>2558</v>
       </c>
       <c r="E231" s="15" t="s">
-        <v>3343</v>
+        <v>3348</v>
       </c>
       <c r="F231" s="15" t="s">
-        <v>3343</v>
+        <v>3348</v>
       </c>
       <c r="H231" t="s">
         <v>2550</v>
@@ -44241,7 +44314,7 @@
         <v>1523</v>
       </c>
       <c r="H232" t="s">
-        <v>3344</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -44256,13 +44329,13 @@
         <v>2545</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>3345</v>
+        <v>3350</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>3345</v>
+        <v>3350</v>
       </c>
       <c r="H233" t="s">
-        <v>3344</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -44277,10 +44350,10 @@
         <v>2530</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>3346</v>
+        <v>3351</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>3346</v>
+        <v>3351</v>
       </c>
       <c r="H234" t="s">
         <v>2528</v>
@@ -44430,7 +44503,7 @@
         <v>1872</v>
       </c>
       <c r="H241" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -44451,7 +44524,7 @@
         <v>1537</v>
       </c>
       <c r="H242" t="s">
-        <v>3347</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -44472,10 +44545,10 @@
         <v>1748</v>
       </c>
       <c r="H243" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -44487,7 +44560,7 @@
         <v>F2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>3349</v>
+        <v>3354</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>1315</v>
@@ -44496,10 +44569,10 @@
         <v>1315</v>
       </c>
       <c r="H244" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -44511,7 +44584,7 @@
         <v>F3</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>3350</v>
+        <v>3355</v>
       </c>
       <c r="E245" s="11" t="s">
         <v>1541</v>
@@ -44520,10 +44593,10 @@
         <v>1541</v>
       </c>
       <c r="H245" t="s">
-        <v>3348</v>
+        <v>3353</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -44544,10 +44617,10 @@
         <v>1880</v>
       </c>
       <c r="H246" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -44568,10 +44641,10 @@
         <v>1545</v>
       </c>
       <c r="H247" t="s">
-        <v>3351</v>
+        <v>3356</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -44592,10 +44665,10 @@
         <v>1752</v>
       </c>
       <c r="H248" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -44616,10 +44689,10 @@
         <v>1319</v>
       </c>
       <c r="H249" t="s">
-        <v>3352</v>
+        <v>3357</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -44640,10 +44713,10 @@
         <v>1846</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -44664,10 +44737,10 @@
         <v>1549</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>3353</v>
+        <v>3358</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -44679,7 +44752,7 @@
         <v>FA</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>3354</v>
+        <v>3359</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>1764</v>
@@ -44688,10 +44761,10 @@
         <v>1764</v>
       </c>
       <c r="H252" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -44703,7 +44776,7 @@
         <v>FB</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>3356</v>
+        <v>3361</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>1330</v>
@@ -44712,10 +44785,10 @@
         <v>1330</v>
       </c>
       <c r="H253" t="s">
-        <v>3355</v>
+        <v>3360</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -44723,10 +44796,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>3357</v>
+        <v>3362</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>3358</v>
+        <v>3363</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>1884</v>
@@ -44735,10 +44808,10 @@
         <v>1884</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>3359</v>
+        <v>3364</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>3302</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -44750,7 +44823,7 @@
         <v>FD</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>3360</v>
+        <v>3365</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>1760</v>
@@ -44759,10 +44832,10 @@
         <v>1760</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>3361</v>
+        <v>3366</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>3362</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -44783,10 +44856,10 @@
         <v>1326</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>3361</v>
+        <v>3366</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>3363</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -44798,13 +44871,13 @@
         <v>FF</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>3364</v>
+        <v>3369</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>3364</v>
+        <v>3369</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>3364</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="260" spans="4:4">

--- a/ccchi/字符串表.xlsx
+++ b/ccchi/字符串表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449">
   <si>
     <t>编号</t>
   </si>
@@ -8535,411 +8535,426 @@
     <t>恐龙乐园行动</t>
   </si>
   <si>
+    <t>收到了些奇异生物报告,去调查.</t>
+  </si>
+  <si>
+    <t>[SCG20EB]</t>
+  </si>
+  <si>
+    <t>一座基地失联.前去保护,消除威胁.</t>
+  </si>
+  <si>
+    <t>[SCG20EC]</t>
+  </si>
+  <si>
+    <t>很多人在丛林里遇险,清除威胁,以便安全通过.</t>
+  </si>
+  <si>
+    <t>科学家表示这些恐龙似乎拥有智慧.</t>
+  </si>
+  <si>
+    <t>[SCG20ED]</t>
+  </si>
+  <si>
+    <t>建立基地,此地为野兽迁徙必经之路,警惕.</t>
+  </si>
+  <si>
+    <t>[SCG20EE]</t>
+  </si>
+  <si>
+    <t>诺德基地威胁到了我们的生存,采取必要的行动.</t>
+  </si>
+  <si>
+    <t>[SCG21EA]</t>
+  </si>
+  <si>
+    <t>Name=Blackout</t>
+  </si>
+  <si>
+    <t>断电</t>
+  </si>
+  <si>
+    <t>名称=迷失</t>
+  </si>
+  <si>
+    <t>1=We need to establish a base in this area. Unfortunately, so does Nod.</t>
+  </si>
+  <si>
+    <t>切断光明方尖碑的供电,</t>
+  </si>
+  <si>
+    <t>f6&amp;MCV</t>
+  </si>
+  <si>
+    <t>1=我们需要在这个区域建立一座基地。 不幸的是，NOD也如此。</t>
+  </si>
+  <si>
+    <t>2=They have already put up Obelisks to guard the only way in. We need you</t>
+  </si>
+  <si>
+    <t>到达后,建立基地&amp;全歼敌人</t>
+  </si>
+  <si>
+    <t>c5&amp;d8</t>
+  </si>
+  <si>
+    <t>2=他们早已将光明石碑拿来守卫唯一的进入途径。 我们需要你</t>
+  </si>
+  <si>
+    <t>3=to cut the power to the Obelisks before our MCV arrives. With the MCV,</t>
+  </si>
+  <si>
+    <t>3=在MCV到达之前切断给光明石碑供电的发电厂。 和MCV一起，</t>
+  </si>
+  <si>
+    <t>4=set up a base and eliminate the Nod forces.</t>
+  </si>
+  <si>
+    <t>4=建立一座基地并且消灭NOD军队。</t>
+  </si>
+  <si>
+    <t>[SCG22EA]</t>
+  </si>
+  <si>
+    <t>Name=Hell's Fury</t>
+  </si>
+  <si>
+    <t>地狱之怒</t>
+  </si>
+  <si>
+    <t>名称=地狱之怒</t>
+  </si>
+  <si>
+    <t>1=Nod is attempting to rebuild their Temple with its Nuclear missile.</t>
+  </si>
+  <si>
+    <t>诺德试图重建神庙及核弹,建立基地,等候德尔菲</t>
+  </si>
+  <si>
+    <t>1=NOD试图重建他们的神殿与核弹。</t>
+  </si>
+  <si>
+    <t>2=Establish a base and wait for contact with Agent Delphi.</t>
+  </si>
+  <si>
+    <t>窃取到攻击的最佳线路,阻止兄弟会.</t>
+  </si>
+  <si>
+    <t>2=建立一座基地， 并等待与德尔斐特工联络。</t>
+  </si>
+  <si>
+    <t>3=He will show you the best way to their base.</t>
+  </si>
+  <si>
+    <t>3=他将会告诉你去他们基地的最佳路线。</t>
+  </si>
+  <si>
+    <t>4=Use everything at your disposal to stop The Brotherhood.</t>
+  </si>
+  <si>
+    <t>4=利用你所能支配的一切来阻止兄弟会。</t>
+  </si>
+  <si>
+    <t>; Note: "##" at the end of a line forces the game to go to a new line. Keep these in.</t>
+  </si>
+  <si>
+    <t>; Note: "##" at the end of a line forces the game to go to a new line. Keep these in. （不知道什么意思……）</t>
+  </si>
+  <si>
+    <t>[SCG23EA]</t>
+  </si>
+  <si>
+    <t>Name=Infiltrated!</t>
+  </si>
+  <si>
+    <t>渗透</t>
+  </si>
+  <si>
+    <t>名称=渗透！</t>
+  </si>
+  <si>
+    <t>1=Infiltration!##</t>
+  </si>
+  <si>
+    <t>诺德夺取了我们在南苏丹的基地,夺回来!</t>
+  </si>
+  <si>
+    <t>1=我们被渗透了！##</t>
+  </si>
+  <si>
+    <t>2=Nod has breached our base in Eastern Sudan and has begun taking it</t>
+  </si>
+  <si>
+    <t>2=NOD已经突破了我们在南苏丹的基地并拿下</t>
+  </si>
+  <si>
+    <t>3=over! Recapture the base and reestablish our military dominance</t>
+  </si>
+  <si>
+    <t>3=了它! 夺回基地，并重建我们在该区域的</t>
+  </si>
+  <si>
+    <t>4=in the area.</t>
+  </si>
+  <si>
+    <t>4=军事优势。</t>
+  </si>
+  <si>
+    <t>[SCG24EA]</t>
+  </si>
+  <si>
+    <t>Name=Elemental Imperative</t>
+  </si>
+  <si>
+    <t>势在必行</t>
+  </si>
+  <si>
+    <t>名称=势在必行</t>
+  </si>
+  <si>
+    <t>1=Nod has stolen some key components to our Tiberium research. Retrieve</t>
+  </si>
+  <si>
+    <t>诺德偷走了我们对泰矿最新研究成果,必须夺回</t>
+  </si>
+  <si>
+    <t>1=NOD偷走了我们研究泰伯利亚的一些关键组件。 夺回</t>
+  </si>
+  <si>
+    <t>2=them. A local civilian is willing to help clear the way and</t>
+  </si>
+  <si>
+    <t>如果我们救回一位平民的妻子,他会帮助我们.</t>
+  </si>
+  <si>
+    <t>2=它们。 当地的一位平民愿意帮我们清理道路</t>
+  </si>
+  <si>
+    <t>3=take us to the site, if we free his wife and return her to safety.</t>
+  </si>
+  <si>
+    <t>3=并把我们带到战场， 前提是我们就下他的妻子并把她安全带回他身旁。</t>
+  </si>
+  <si>
+    <t>[SCG25EA]</t>
+  </si>
+  <si>
+    <t>Name=Ground Zero</t>
+  </si>
+  <si>
+    <t>零之领域</t>
+  </si>
+  <si>
+    <t>名称=零之领域</t>
+  </si>
+  <si>
+    <t>1=NOD has launched a missile which is aimed at the global peace</t>
+  </si>
+  <si>
+    <t>诺德向全球和平会议地点发射了核弹,尽快让代</t>
+  </si>
+  <si>
+    <t>1=NOD发射了一枚针对全球和平会议</t>
+  </si>
+  <si>
+    <t>2=conference. Get the delegates from the conference to the evac</t>
+  </si>
+  <si>
+    <t>表们撤离.</t>
+  </si>
+  <si>
+    <t>2=的导弹。 让代表们尽快从会议</t>
+  </si>
+  <si>
+    <t>3=point as quickly as possible. Time is critical -- good luck.</t>
+  </si>
+  <si>
+    <t>3 =赶到撤离点。时间是金――祝你好运。</t>
+  </si>
+  <si>
+    <t>[SCG26EA]</t>
+  </si>
+  <si>
+    <t>Name=Twist of Fate</t>
+  </si>
+  <si>
+    <t>转折点</t>
+  </si>
+  <si>
+    <t>名称=命运转折点</t>
+  </si>
+  <si>
+    <t>1=We had set up a small recon post in NOD territory, but they captured</t>
+  </si>
+  <si>
+    <t>一座前沿侦查站被诺德占领,夺回它意味着战略</t>
+  </si>
+  <si>
+    <t>1=我们在NOD领域建设了一个小侦查站， 但是他们占领</t>
+  </si>
+  <si>
+    <t>2=and reinforced it. Getting that post back would be a major coup. An</t>
+  </si>
+  <si>
+    <t>转折,MCV和护送队正在前往,建立武装&amp;全歼敌军</t>
+  </si>
+  <si>
+    <t>e8&amp;d8</t>
+  </si>
+  <si>
+    <t>2=并加固了它。 夺回那个站点将会是一个转折点。 一辆</t>
+  </si>
+  <si>
+    <t>3=MCV and armed convoy are on their way to aid you in establishing a new</t>
+  </si>
+  <si>
+    <t>3=MCV 和护卫车队正在赶来以帮助你建立一个新的</t>
+  </si>
+  <si>
+    <t>4=base. Once established, eliminate all NOD forces in the area.</t>
+  </si>
+  <si>
+    <t>4=基地。一旦它建立了， 消灭该地区的所有NOD部队。</t>
+  </si>
+  <si>
+    <t>[SCG27EA]</t>
+  </si>
+  <si>
+    <t>Name=Blindsided</t>
+  </si>
+  <si>
+    <t>奇袭</t>
+  </si>
+  <si>
+    <t>名称=无路可退</t>
+  </si>
+  <si>
+    <t>1=Your mission: Use your commando to establish control on our side of</t>
+  </si>
+  <si>
+    <t>让突击队控制河岸,摧毁全部防空导弹后,会有援</t>
+  </si>
+  <si>
+    <t>1=你的任务: 使用你的突击队建立与河这一边的我们</t>
+  </si>
+  <si>
+    <t>2=the river. We will send some help when all SAM sites are taken out.</t>
+  </si>
+  <si>
+    <t>军,绕过河,从背后击溃诺德.要快!</t>
+  </si>
+  <si>
+    <t>2=的联系。 当所有防空导弹塔被摧毁时我们将送来援助。</t>
+  </si>
+  <si>
+    <t>3=Then send your forces across the river and attack Nod from the rear.</t>
+  </si>
+  <si>
+    <t>3=然后派遣你的军队过河，从后方攻击NOD。</t>
+  </si>
+  <si>
+    <t>4=Destroy them all. They won't be surprised for long, so act quickly.</t>
+  </si>
+  <si>
+    <t>4=摧毁他们。 他们不会惊讶太久，所以赶快行动。</t>
+  </si>
+  <si>
+    <t>;; Nod Covert Ops briefings</t>
+  </si>
+  <si>
+    <t>;; Nod 隐秘行动</t>
+  </si>
+  <si>
+    <t>; 恐龙关卡简报</t>
+  </si>
+  <si>
+    <t>[SCB20EA]</t>
+  </si>
+  <si>
+    <t>david_honey</t>
+  </si>
+  <si>
+    <t>[ scg20ea ]</t>
+  </si>
+  <si>
+    <t>skyfully93</t>
+  </si>
+  <si>
+    <t>名称=娱乐公园恐龙行动</t>
+  </si>
+  <si>
+    <t>Name=恐龙乐园战役</t>
+  </si>
+  <si>
+    <t>名称= 奇趣公园恐龙活动</t>
+  </si>
+  <si>
     <t>本地有些奇异生物的报告,调查并报告你的发现.</t>
   </si>
   <si>
-    <t>[SCG20EB]</t>
+    <t>1=该区域有异常动物的报告。</t>
+  </si>
+  <si>
+    <t>1 =在这个地区有一些关于奇怪动物的报道。</t>
+  </si>
+  <si>
+    <t>2=派你的部队前去调查，并汇报你的发现。</t>
+  </si>
+  <si>
+    <t>2 =带你的部队进行调查并报告发现。</t>
+  </si>
+  <si>
+    <t>[SCB20EB]</t>
+  </si>
+  <si>
+    <t>[ scg20eb ]</t>
   </si>
   <si>
     <t>一座基地失去了联系.前去保护,消除威胁.</t>
   </si>
   <si>
-    <t>[SCG20EC]</t>
-  </si>
-  <si>
-    <t>很多人在丛林里遇险,清除威胁,以便安全通过.</t>
-  </si>
-  <si>
-    <t>科学家表示这些恐龙似乎拥有智慧.</t>
-  </si>
-  <si>
-    <t>[SCG20ED]</t>
+    <t>1=我们与该区域的基地失联了。找到基地</t>
+  </si>
+  <si>
+    <t>2=并确认此区域的安全。消灭你发现的所有威胁。</t>
+  </si>
+  <si>
+    <t>2 =基地，并确保该地区。消除你发现的任何威胁。</t>
+  </si>
+  <si>
+    <t>[SCB20EC]</t>
+  </si>
+  <si>
+    <t>[ scg20ec ]</t>
+  </si>
+  <si>
+    <t>1=我们的很多队员在这片树林里失踪了。</t>
+  </si>
+  <si>
+    <t>1 =我们在树林里失去了很多人。你必须清除那条路。</t>
+  </si>
+  <si>
+    <t>2=你必须为进入此区域的后续部队开路。</t>
+  </si>
+  <si>
+    <t>2 =为后续部队确保该地安全。我们的科学家</t>
+  </si>
+  <si>
+    <t>3=科学家表示这些恐龙的智慧超出了他们以往的认知。</t>
+  </si>
+  <si>
+    <t>3 =表明这些恐龙并不像以前的理论认为的那样蠢。</t>
+  </si>
+  <si>
+    <t>[SCB20ED]</t>
+  </si>
+  <si>
+    <t>[ scg20ed ]</t>
   </si>
   <si>
     <t>建立一座基地,此地为野兽迁徙必经之路,警惕.</t>
   </si>
   <si>
-    <t>[SCG20EE]</t>
-  </si>
-  <si>
-    <t>诺德基地威胁到了我们的生存,采取必要的行动.</t>
-  </si>
-  <si>
-    <t>[SCG21EA]</t>
-  </si>
-  <si>
-    <t>Name=Blackout</t>
-  </si>
-  <si>
-    <t>断电</t>
-  </si>
-  <si>
-    <t>名称=迷失</t>
-  </si>
-  <si>
-    <t>1=We need to establish a base in this area. Unfortunately, so does Nod.</t>
-  </si>
-  <si>
-    <t>切断光明方尖碑的供电,MVC到达后,建立基地&amp;全歼敌人</t>
-  </si>
-  <si>
-    <t>f6&amp;d8</t>
-  </si>
-  <si>
-    <t>1=我们需要在这个区域建立一座基地。 不幸的是，NOD也如此。</t>
-  </si>
-  <si>
-    <t>2=They have already put up Obelisks to guard the only way in. We need you</t>
-  </si>
-  <si>
-    <t>2=他们早已将光明石碑拿来守卫唯一的进入途径。 我们需要你</t>
-  </si>
-  <si>
-    <t>3=to cut the power to the Obelisks before our MCV arrives. With the MCV,</t>
-  </si>
-  <si>
-    <t>3=在MCV到达之前切断给光明石碑供电的发电厂。 和MCV一起，</t>
-  </si>
-  <si>
-    <t>4=set up a base and eliminate the Nod forces.</t>
-  </si>
-  <si>
-    <t>4=建立一座基地并且消灭NOD军队。</t>
-  </si>
-  <si>
-    <t>[SCG22EA]</t>
-  </si>
-  <si>
-    <t>Name=Hell's Fury</t>
-  </si>
-  <si>
-    <t>地狱之怒</t>
-  </si>
-  <si>
-    <t>名称=地狱之怒</t>
-  </si>
-  <si>
-    <t>1=Nod is attempting to rebuild their Temple with its Nuclear missile.</t>
-  </si>
-  <si>
-    <t>诺德试图重建神庙及核弹,建立基地,等候德尔菲</t>
-  </si>
-  <si>
-    <t>1=NOD试图重建他们的神殿与核弹。</t>
-  </si>
-  <si>
-    <t>2=Establish a base and wait for contact with Agent Delphi.</t>
-  </si>
-  <si>
-    <t>窃取到攻击的最佳线路,阻止兄弟会.</t>
-  </si>
-  <si>
-    <t>2=建立一座基地， 并等待与德尔斐特工联络。</t>
-  </si>
-  <si>
-    <t>3=He will show you the best way to their base.</t>
-  </si>
-  <si>
-    <t>3=他将会告诉你去他们基地的最佳路线。</t>
-  </si>
-  <si>
-    <t>4=Use everything at your disposal to stop The Brotherhood.</t>
-  </si>
-  <si>
-    <t>4=利用你所能支配的一切来阻止兄弟会。</t>
-  </si>
-  <si>
-    <t>; Note: "##" at the end of a line forces the game to go to a new line. Keep these in.</t>
-  </si>
-  <si>
-    <t>; Note: "##" at the end of a line forces the game to go to a new line. Keep these in. （不知道什么意思……）</t>
-  </si>
-  <si>
-    <t>[SCG23EA]</t>
-  </si>
-  <si>
-    <t>Name=Infiltrated!</t>
-  </si>
-  <si>
-    <t>渗透</t>
-  </si>
-  <si>
-    <t>名称=渗透！</t>
-  </si>
-  <si>
-    <t>1=Infiltration!##</t>
-  </si>
-  <si>
-    <t>诺德夺取了我们在南苏丹的基地,夺回来!</t>
-  </si>
-  <si>
-    <t>1=我们被渗透了！##</t>
-  </si>
-  <si>
-    <t>2=Nod has breached our base in Eastern Sudan and has begun taking it</t>
-  </si>
-  <si>
-    <t>2=NOD已经突破了我们在南苏丹的基地并拿下</t>
-  </si>
-  <si>
-    <t>3=over! Recapture the base and reestablish our military dominance</t>
-  </si>
-  <si>
-    <t>3=了它! 夺回基地，并重建我们在该区域的</t>
-  </si>
-  <si>
-    <t>4=in the area.</t>
-  </si>
-  <si>
-    <t>4=军事优势。</t>
-  </si>
-  <si>
-    <t>[SCG24EA]</t>
-  </si>
-  <si>
-    <t>Name=Elemental Imperative</t>
-  </si>
-  <si>
-    <t>势在必行</t>
-  </si>
-  <si>
-    <t>名称=势在必行</t>
-  </si>
-  <si>
-    <t>1=Nod has stolen some key components to our Tiberium research. Retrieve</t>
-  </si>
-  <si>
-    <t>诺德偷走了我们对泰矿最新研究成果,必须夺回</t>
-  </si>
-  <si>
-    <t>1=NOD偷走了我们研究泰伯利亚的一些关键组件。 夺回</t>
-  </si>
-  <si>
-    <t>2=them. A local civilian is willing to help clear the way and</t>
-  </si>
-  <si>
-    <t>如果我们救回一位平民的妻子,他会帮助我们.</t>
-  </si>
-  <si>
-    <t>2=它们。 当地的一位平民愿意帮我们清理道路</t>
-  </si>
-  <si>
-    <t>3=take us to the site, if we free his wife and return her to safety.</t>
-  </si>
-  <si>
-    <t>3=并把我们带到战场， 前提是我们就下他的妻子并把她安全带回他身旁。</t>
-  </si>
-  <si>
-    <t>[SCG25EA]</t>
-  </si>
-  <si>
-    <t>Name=Ground Zero</t>
-  </si>
-  <si>
-    <t>零之领域</t>
-  </si>
-  <si>
-    <t>名称=零之领域</t>
-  </si>
-  <si>
-    <t>1=NOD has launched a missile which is aimed at the global peace</t>
-  </si>
-  <si>
-    <t>诺德向全球和平会议地点发射了核弹,尽快让代</t>
-  </si>
-  <si>
-    <t>1=NOD发射了一枚针对全球和平会议</t>
-  </si>
-  <si>
-    <t>2=conference. Get the delegates from the conference to the evac</t>
-  </si>
-  <si>
-    <t>表们撤离.</t>
-  </si>
-  <si>
-    <t>2=的导弹。 让代表们尽快从会议</t>
-  </si>
-  <si>
-    <t>3=point as quickly as possible. Time is critical -- good luck.</t>
-  </si>
-  <si>
-    <t>3 =赶到撤离点。时间是金――祝你好运。</t>
-  </si>
-  <si>
-    <t>[SCG26EA]</t>
-  </si>
-  <si>
-    <t>Name=Twist of Fate</t>
-  </si>
-  <si>
-    <t>转折点</t>
-  </si>
-  <si>
-    <t>名称=命运转折点</t>
-  </si>
-  <si>
-    <t>1=We had set up a small recon post in NOD territory, but they captured</t>
-  </si>
-  <si>
-    <t>一座前沿侦查站被诺德占领,夺回它意味着战略</t>
-  </si>
-  <si>
-    <t>1=我们在NOD领域建设了一个小侦查站， 但是他们占领</t>
-  </si>
-  <si>
-    <t>2=and reinforced it. Getting that post back would be a major coup. An</t>
-  </si>
-  <si>
-    <t>转折,MCV和护送队正在前往,建立武装&amp;全歼敌军</t>
-  </si>
-  <si>
-    <t>e8&amp;d8</t>
-  </si>
-  <si>
-    <t>2=并加固了它。 夺回那个站点将会是一个转折点。 一辆</t>
-  </si>
-  <si>
-    <t>3=MCV and armed convoy are on their way to aid you in establishing a new</t>
-  </si>
-  <si>
-    <t>3=MCV 和护卫车队正在赶来以帮助你建立一个新的</t>
-  </si>
-  <si>
-    <t>4=base. Once established, eliminate all NOD forces in the area.</t>
-  </si>
-  <si>
-    <t>4=基地。一旦它建立了， 消灭该地区的所有NOD部队。</t>
-  </si>
-  <si>
-    <t>[SCG27EA]</t>
-  </si>
-  <si>
-    <t>Name=Blindsided</t>
-  </si>
-  <si>
-    <t>奇袭</t>
-  </si>
-  <si>
-    <t>名称=无路可退</t>
-  </si>
-  <si>
-    <t>1=Your mission: Use your commando to establish control on our side of</t>
-  </si>
-  <si>
-    <t>让突击队控制河岸,摧毁全部防空导弹后,会有援</t>
-  </si>
-  <si>
-    <t>1=你的任务: 使用你的突击队建立与河这一边的我们</t>
-  </si>
-  <si>
-    <t>2=the river. We will send some help when all SAM sites are taken out.</t>
-  </si>
-  <si>
-    <t>军,绕过河,从背后击溃诺德.要快!</t>
-  </si>
-  <si>
-    <t>2=的联系。 当所有防空导弹塔被摧毁时我们将送来援助。</t>
-  </si>
-  <si>
-    <t>3=Then send your forces across the river and attack Nod from the rear.</t>
-  </si>
-  <si>
-    <t>3=然后派遣你的军队过河，从后方攻击NOD。</t>
-  </si>
-  <si>
-    <t>4=Destroy them all. They won't be surprised for long, so act quickly.</t>
-  </si>
-  <si>
-    <t>4=摧毁他们。 他们不会惊讶太久，所以赶快行动。</t>
-  </si>
-  <si>
-    <t>;; Nod Covert Ops briefings</t>
-  </si>
-  <si>
-    <t>;; Nod 隐秘行动</t>
-  </si>
-  <si>
-    <t>; 恐龙关卡简报</t>
-  </si>
-  <si>
-    <t>[SCB20EA]</t>
-  </si>
-  <si>
-    <t>david_honey</t>
-  </si>
-  <si>
-    <t>[ scg20ea ]</t>
-  </si>
-  <si>
-    <t>skyfully93</t>
-  </si>
-  <si>
-    <t>名称=娱乐公园恐龙行动</t>
-  </si>
-  <si>
-    <t>Name=恐龙乐园战役</t>
-  </si>
-  <si>
-    <t>名称= 奇趣公园恐龙活动</t>
-  </si>
-  <si>
-    <t>1=该区域有异常动物的报告。</t>
-  </si>
-  <si>
-    <t>1 =在这个地区有一些关于奇怪动物的报道。</t>
-  </si>
-  <si>
-    <t>2=派你的部队前去调查，并汇报你的发现。</t>
-  </si>
-  <si>
-    <t>2 =带你的部队进行调查并报告发现。</t>
-  </si>
-  <si>
-    <t>[SCB20EB]</t>
-  </si>
-  <si>
-    <t>[ scg20eb ]</t>
-  </si>
-  <si>
-    <t>1=我们与该区域的基地失联了。找到基地</t>
-  </si>
-  <si>
-    <t>2=并确认此区域的安全。消灭你发现的所有威胁。</t>
-  </si>
-  <si>
-    <t>2 =基地，并确保该地区。消除你发现的任何威胁。</t>
-  </si>
-  <si>
-    <t>[SCB20EC]</t>
-  </si>
-  <si>
-    <t>[ scg20ec ]</t>
-  </si>
-  <si>
-    <t>1=我们的很多队员在这片树林里失踪了。</t>
-  </si>
-  <si>
-    <t>1 =我们在树林里失去了很多人。你必须清除那条路。</t>
-  </si>
-  <si>
-    <t>2=你必须为进入此区域的后续部队开路。</t>
-  </si>
-  <si>
-    <t>2 =为后续部队确保该地安全。我们的科学家</t>
-  </si>
-  <si>
-    <t>3=科学家表示这些恐龙的智慧超出了他们以往的认知。</t>
-  </si>
-  <si>
-    <t>3 =表明这些恐龙并不像以前的理论认为的那样蠢。</t>
-  </si>
-  <si>
-    <t>[SCB20ED]</t>
-  </si>
-  <si>
-    <t>[ scg20ed ]</t>
-  </si>
-  <si>
     <t>1=你必须在此区域建立基地。</t>
   </si>
   <si>
@@ -8964,6 +8979,12 @@
     <t>[ scg20ee ]</t>
   </si>
   <si>
+    <t>诺德&amp;基地&amp;威胁到了我们的生存,采取必要的行动.</t>
+  </si>
+  <si>
+    <t>c3 b7 f8</t>
+  </si>
+  <si>
     <t>1=此区域的NOD基地正严重威胁到你的生存！</t>
   </si>
   <si>
@@ -9078,10 +9099,10 @@
     <t>1=GDI influence in this area is running rampant. Establish a well</t>
   </si>
   <si>
-    <t>建立基地,&amp;全歼敌军&amp;</t>
-  </si>
-  <si>
-    <t>dd&amp;d8</t>
+    <t>建立&amp;基地,&amp;全歼敌军&amp;</t>
+  </si>
+  <si>
+    <t>dd&amp;c3,&amp;d8</t>
   </si>
   <si>
     <t>1=GDI 在这个地区的影响力正在蔓延。建立一座</t>
@@ -9330,18 +9351,30 @@
     <t>Name=N64 Special Ops - GDI 1</t>
   </si>
   <si>
+    <t>N64&amp;游戏机独占&amp;任务 - GDI 1</t>
+  </si>
+  <si>
+    <t>n64&amp;cd&amp;02-GDI 1</t>
+  </si>
+  <si>
     <t>名称=N64特别行动 - GDI 1</t>
   </si>
   <si>
     <t>1=Nod is experimenting on civilians with Tiberium. Use the commando to</t>
   </si>
   <si>
+    <t>诺德在做人体试验,使用特种兵炸掉防空导弹,用</t>
+  </si>
+  <si>
     <t>1=Nod正在用平民实验泰伯利亚。 使用突击队员来</t>
   </si>
   <si>
     <t>2=take out the SAM sites surrounding the dropoff area. With the SAM's</t>
   </si>
   <si>
+    <t>空袭炸掉光明方尖碑,MCV将会帮助摧毁生化设施</t>
+  </si>
+  <si>
     <t>2=拿下空投区周围的防空导弹塔。 当防空导弹塔</t>
   </si>
   <si>
@@ -9363,12 +9396,21 @@
     <t>Name=N64 Special Ops - GDI 2</t>
   </si>
   <si>
+    <t>N64&amp;游戏机独占&amp;任务 - GDI 2</t>
+  </si>
+  <si>
+    <t>n64&amp;cd&amp;02-GDI 2</t>
+  </si>
+  <si>
     <t>名称=N64特别行动 - GDI 2</t>
   </si>
   <si>
     <t>1=Our top Commando has been intercepted by Nod forces with information</t>
   </si>
   <si>
+    <t>特种兵关押在科技中心,使用工程师占领</t>
+  </si>
+  <si>
     <t>1=我们的最高突击队员已经被NOD俘虏，情报</t>
   </si>
   <si>
@@ -9402,18 +9444,30 @@
     <t>Name=N64 Special Ops - Nod 1</t>
   </si>
   <si>
+    <t>N64&amp;游戏机独占&amp;任务 - NOD 1</t>
+  </si>
+  <si>
+    <t>n64&amp;cd&amp;02-NOD 1</t>
+  </si>
+  <si>
     <t>名称=N64特别行动 - Nod 1</t>
   </si>
   <si>
     <t>1=GDI is gathering to launch a heavy strike against us. Use the</t>
   </si>
   <si>
+    <t>使用特种兵收集位于工具箱中的核组件,其他援</t>
+  </si>
+  <si>
     <t>1=GDI 正在集结准备对我们发动重大打击。 使用</t>
   </si>
   <si>
     <t>2=Commando to infiltrate the base in this area and gather some</t>
   </si>
   <si>
+    <t>军则攻击西边的村庄,让特种兵有机可乘</t>
+  </si>
+  <si>
     <t>2=突击队员渗透该区域的基地并</t>
   </si>
   <si>
@@ -9441,18 +9495,30 @@
     <t>Name=N64 Special Ops - Nod 2</t>
   </si>
   <si>
+    <t>Name=N64&amp;游戏机独占&amp;任务 - Nod 2</t>
+  </si>
+  <si>
+    <t>n64&amp;cd&amp;02-NOD 2</t>
+  </si>
+  <si>
     <t>名称=N64特别行动 - Nod 2</t>
   </si>
   <si>
     <t>1=GDI has a prisoners-of-war camp in the area, which is using a nearby village</t>
   </si>
   <si>
+    <t>摧毁此地的GDI及平民,如果有可能释放战俘,否</t>
+  </si>
+  <si>
     <t>1=GDI 在该地区有一个战俘营，它利用附近的村庄来</t>
   </si>
   <si>
     <t>2=to support it. Destroy the GDI base, the civilian village - everything.</t>
   </si>
   <si>
+    <t>则就替他们报,我们拥有了核能力.</t>
+  </si>
+  <si>
     <t>2=支援它。 摧毁一切――GDI基地，平民村庄。</t>
   </si>
   <si>
@@ -10189,6 +10255,9 @@
   </si>
   <si>
     <t>降</t>
+  </si>
+  <si>
+    <t>诺德</t>
   </si>
   <si>
     <t>全歼敌军</t>
@@ -10302,11 +10371,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -10341,14 +10410,6 @@
       <color theme="7" tint="-0.5"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10443,9 +10504,33 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -10459,22 +10544,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -10510,12 +10579,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10641,6 +10704,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10654,24 +10741,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10761,21 +10830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -10824,6 +10878,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -10843,21 +10927,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10866,10 +10935,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10878,19 +10947,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10899,112 +10968,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -34650,16 +34719,16 @@
   <dimension ref="A1:J558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A469" sqref="$A469:$XFD474"/>
+      <selection pane="bottomLeft" activeCell="A508" sqref="$A480:$XFD508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="94.875" style="22" customWidth="1"/>
     <col min="2" max="2" width="50.875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="16" style="22" customWidth="1"/>
     <col min="4" max="4" width="8" style="11" customWidth="1"/>
     <col min="5" max="5" width="69.625" style="11" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="11" customWidth="1"/>
@@ -38686,30 +38755,34 @@
       <c r="A356" s="19" t="s">
         <v>2857</v>
       </c>
-      <c r="B356" s="19"/>
-      <c r="C356" s="19"/>
+      <c r="B356" s="19" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C356" s="19" t="s">
+        <v>2859</v>
+      </c>
       <c r="E356" s="20" t="s">
-        <v>2858</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="357" s="20" customFormat="1" spans="1:5">
       <c r="A357" s="19" t="s">
-        <v>2859</v>
+        <v>2861</v>
       </c>
       <c r="B357" s="19"/>
       <c r="C357" s="19"/>
       <c r="E357" s="20" t="s">
-        <v>2860</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="358" s="20" customFormat="1" spans="1:5">
       <c r="A358" s="19" t="s">
-        <v>2861</v>
+        <v>2863</v>
       </c>
       <c r="B358" s="19"/>
       <c r="C358" s="19"/>
       <c r="E358" s="20" t="s">
-        <v>2862</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -38719,12 +38792,12 @@
     </row>
     <row r="360" s="20" customFormat="1" spans="1:6">
       <c r="A360" s="19" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="B360" s="19"/>
       <c r="C360" s="19"/>
       <c r="E360" s="20" t="s">
-        <v>2863</v>
+        <v>2865</v>
       </c>
       <c r="F360" s="20" t="s">
         <v>2423</v>
@@ -38732,64 +38805,64 @@
     </row>
     <row r="361" s="20" customFormat="1" spans="1:5">
       <c r="A361" s="19" t="s">
-        <v>2864</v>
+        <v>2866</v>
       </c>
       <c r="B361" s="19" t="s">
-        <v>2865</v>
+        <v>2867</v>
       </c>
       <c r="C361" s="19" t="s">
         <v>1548</v>
       </c>
       <c r="E361" s="20" t="s">
-        <v>2866</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="362" s="20" customFormat="1" spans="1:5">
       <c r="A362" s="19" t="s">
-        <v>2867</v>
+        <v>2869</v>
       </c>
       <c r="B362" s="19" t="s">
-        <v>2868</v>
+        <v>2870</v>
       </c>
       <c r="C362" s="19" t="s">
         <v>1882</v>
       </c>
       <c r="E362" s="20" t="s">
-        <v>2869</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="363" s="20" customFormat="1" spans="1:5">
       <c r="A363" s="19" t="s">
-        <v>2870</v>
+        <v>2872</v>
       </c>
       <c r="B363" s="19" t="s">
-        <v>2871</v>
+        <v>2873</v>
       </c>
       <c r="C363" s="19" t="s">
         <v>1544</v>
       </c>
       <c r="E363" s="20" t="s">
-        <v>2872</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="364" s="20" customFormat="1" spans="1:5">
       <c r="A364" s="19" t="s">
-        <v>2873</v>
+        <v>2875</v>
       </c>
       <c r="B364" s="19"/>
       <c r="C364" s="19"/>
       <c r="E364" s="20" t="s">
-        <v>2874</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="365" s="20" customFormat="1" spans="1:5">
       <c r="A365" s="19" t="s">
-        <v>2875</v>
+        <v>2877</v>
       </c>
       <c r="B365" s="19"/>
       <c r="C365" s="19"/>
       <c r="E365" s="20" t="s">
-        <v>2876</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="366" spans="1:3">
@@ -38799,22 +38872,22 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="23" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="B367" s="23"/>
       <c r="C367" s="23"/>
       <c r="E367" s="11" t="s">
-        <v>2878</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="368" s="20" customFormat="1" spans="1:6">
       <c r="A368" s="19" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="B368" s="19"/>
       <c r="C368" s="19"/>
       <c r="E368" s="20" t="s">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="F368" s="20" t="s">
         <v>2423</v>
@@ -38822,60 +38895,60 @@
     </row>
     <row r="369" s="20" customFormat="1" spans="1:5">
       <c r="A369" s="19" t="s">
-        <v>2880</v>
+        <v>2882</v>
       </c>
       <c r="B369" s="19" t="s">
-        <v>2881</v>
+        <v>2883</v>
       </c>
       <c r="C369" s="19" t="s">
         <v>1318</v>
       </c>
       <c r="E369" s="20" t="s">
-        <v>2882</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="370" s="20" customFormat="1" spans="1:5">
       <c r="A370" s="19" t="s">
-        <v>2883</v>
+        <v>2885</v>
       </c>
       <c r="B370" s="19" t="s">
-        <v>2884</v>
+        <v>2886</v>
       </c>
       <c r="C370" s="19" t="s">
         <v>1750</v>
       </c>
       <c r="E370" s="20" t="s">
-        <v>2885</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="371" s="20" customFormat="1" spans="1:5">
       <c r="A371" s="19" t="s">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="B371" s="19"/>
       <c r="C371" s="19"/>
       <c r="E371" s="20" t="s">
-        <v>2887</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="372" s="20" customFormat="1" spans="1:5">
       <c r="A372" s="19" t="s">
-        <v>2888</v>
+        <v>2890</v>
       </c>
       <c r="B372" s="19"/>
       <c r="C372" s="19"/>
       <c r="E372" s="20" t="s">
-        <v>2889</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="373" s="20" customFormat="1" spans="1:5">
       <c r="A373" s="19" t="s">
-        <v>2890</v>
+        <v>2892</v>
       </c>
       <c r="B373" s="19"/>
       <c r="C373" s="19"/>
       <c r="E373" s="20" t="s">
-        <v>2891</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -38885,12 +38958,12 @@
     </row>
     <row r="375" s="20" customFormat="1" spans="1:6">
       <c r="A375" s="19" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="B375" s="19"/>
       <c r="C375" s="19"/>
       <c r="E375" s="20" t="s">
-        <v>2892</v>
+        <v>2894</v>
       </c>
       <c r="F375" s="20" t="s">
         <v>2423</v>
@@ -38898,54 +38971,54 @@
     </row>
     <row r="376" s="20" customFormat="1" spans="1:5">
       <c r="A376" s="19" t="s">
-        <v>2893</v>
+        <v>2895</v>
       </c>
       <c r="B376" s="19" t="s">
-        <v>2894</v>
+        <v>2896</v>
       </c>
       <c r="C376" s="19" t="s">
         <v>1540</v>
       </c>
       <c r="E376" s="20" t="s">
-        <v>2895</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="377" s="20" customFormat="1" spans="1:5">
       <c r="A377" s="19" t="s">
-        <v>2896</v>
+        <v>2898</v>
       </c>
       <c r="B377" s="19" t="s">
-        <v>2897</v>
+        <v>2899</v>
       </c>
       <c r="C377" s="19" t="s">
         <v>1874</v>
       </c>
       <c r="E377" s="20" t="s">
-        <v>2898</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="378" s="20" customFormat="1" spans="1:5">
       <c r="A378" s="19" t="s">
-        <v>2899</v>
+        <v>2901</v>
       </c>
       <c r="B378" s="19" t="s">
-        <v>2900</v>
+        <v>2902</v>
       </c>
       <c r="C378" s="19" t="s">
         <v>1536</v>
       </c>
       <c r="E378" s="20" t="s">
-        <v>2901</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="379" s="20" customFormat="1" spans="1:5">
       <c r="A379" s="19" t="s">
-        <v>2902</v>
+        <v>2904</v>
       </c>
       <c r="B379" s="19"/>
       <c r="C379" s="19"/>
       <c r="E379" s="20" t="s">
-        <v>2903</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -38955,12 +39028,12 @@
     </row>
     <row r="381" s="20" customFormat="1" spans="1:6">
       <c r="A381" s="19" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="B381" s="19"/>
       <c r="C381" s="19"/>
       <c r="E381" s="20" t="s">
-        <v>2904</v>
+        <v>2906</v>
       </c>
       <c r="F381" s="20" t="s">
         <v>2423</v>
@@ -38968,54 +39041,54 @@
     </row>
     <row r="382" s="20" customFormat="1" spans="1:5">
       <c r="A382" s="19" t="s">
-        <v>2905</v>
+        <v>2907</v>
       </c>
       <c r="B382" s="19" t="s">
-        <v>2906</v>
+        <v>2908</v>
       </c>
       <c r="C382" s="19" t="s">
         <v>1843</v>
       </c>
       <c r="E382" s="20" t="s">
-        <v>2907</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="383" s="20" customFormat="1" spans="1:5">
       <c r="A383" s="19" t="s">
-        <v>2908</v>
+        <v>2910</v>
       </c>
       <c r="B383" s="19" t="s">
-        <v>2909</v>
+        <v>2911</v>
       </c>
       <c r="C383" s="19" t="s">
         <v>1314</v>
       </c>
       <c r="E383" s="20" t="s">
-        <v>2910</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="384" s="20" customFormat="1" spans="1:5">
       <c r="A384" s="19" t="s">
-        <v>2911</v>
+        <v>2913</v>
       </c>
       <c r="B384" s="19" t="s">
-        <v>2912</v>
+        <v>2914</v>
       </c>
       <c r="C384" s="19" t="s">
         <v>1746</v>
       </c>
       <c r="E384" s="20" t="s">
-        <v>2913</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="385" s="20" customFormat="1" spans="1:5">
       <c r="A385" s="19" t="s">
-        <v>2914</v>
+        <v>2916</v>
       </c>
       <c r="B385" s="19"/>
       <c r="C385" s="19"/>
       <c r="E385" s="20" t="s">
-        <v>2915</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -39025,12 +39098,12 @@
     </row>
     <row r="387" s="20" customFormat="1" spans="1:6">
       <c r="A387" s="19" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="B387" s="19"/>
       <c r="C387" s="19"/>
       <c r="E387" s="20" t="s">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="F387" s="20" t="s">
         <v>2423</v>
@@ -39038,64 +39111,64 @@
     </row>
     <row r="388" s="20" customFormat="1" spans="1:5">
       <c r="A388" s="19" t="s">
-        <v>2917</v>
+        <v>2919</v>
       </c>
       <c r="B388" s="19" t="s">
-        <v>2918</v>
+        <v>2920</v>
       </c>
       <c r="C388" s="19" t="s">
         <v>1532</v>
       </c>
       <c r="E388" s="20" t="s">
-        <v>2919</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="389" s="20" customFormat="1" spans="1:5">
       <c r="A389" s="19" t="s">
-        <v>2920</v>
+        <v>2922</v>
       </c>
       <c r="B389" s="19" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="C389" s="19" t="s">
         <v>1878</v>
       </c>
       <c r="E389" s="20" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="390" s="20" customFormat="1" spans="1:5">
       <c r="A390" s="19" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="B390" s="19" t="s">
-        <v>2924</v>
+        <v>2926</v>
       </c>
       <c r="C390" s="19" t="s">
-        <v>2925</v>
+        <v>2927</v>
       </c>
       <c r="E390" s="20" t="s">
-        <v>2926</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="391" s="20" customFormat="1" spans="1:5">
       <c r="A391" s="19" t="s">
-        <v>2927</v>
+        <v>2929</v>
       </c>
       <c r="B391" s="19"/>
       <c r="C391" s="19"/>
       <c r="E391" s="20" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="392" s="20" customFormat="1" spans="1:5">
       <c r="A392" s="19" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="B392" s="19"/>
       <c r="C392" s="19"/>
       <c r="E392" s="20" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="393" spans="1:3">
@@ -39105,12 +39178,12 @@
     </row>
     <row r="394" s="20" customFormat="1" spans="1:6">
       <c r="A394" s="19" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="B394" s="19"/>
       <c r="C394" s="19"/>
       <c r="E394" s="20" t="s">
-        <v>2931</v>
+        <v>2933</v>
       </c>
       <c r="F394" s="20" t="s">
         <v>2423</v>
@@ -39118,64 +39191,64 @@
     </row>
     <row r="395" s="20" customFormat="1" spans="1:5">
       <c r="A395" s="19" t="s">
-        <v>2932</v>
+        <v>2934</v>
       </c>
       <c r="B395" s="19" t="s">
-        <v>2933</v>
+        <v>2935</v>
       </c>
       <c r="C395" s="19" t="s">
         <v>2744</v>
       </c>
       <c r="E395" s="20" t="s">
-        <v>2934</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="396" s="20" customFormat="1" spans="1:5">
       <c r="A396" s="19" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="B396" s="19" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="C396" s="19" t="s">
         <v>2751</v>
       </c>
       <c r="E396" s="20" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="397" s="20" customFormat="1" spans="1:5">
       <c r="A397" s="19" t="s">
-        <v>2938</v>
+        <v>2940</v>
       </c>
       <c r="B397" s="19" t="s">
-        <v>2939</v>
+        <v>2941</v>
       </c>
       <c r="C397" s="19" t="s">
         <v>2755</v>
       </c>
       <c r="E397" s="20" t="s">
-        <v>2940</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="398" s="20" customFormat="1" spans="1:5">
       <c r="A398" s="19" t="s">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="B398" s="19"/>
       <c r="C398" s="19"/>
       <c r="E398" s="20" t="s">
-        <v>2942</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="399" s="20" customFormat="1" spans="1:5">
       <c r="A399" s="19" t="s">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="B399" s="19"/>
       <c r="C399" s="19"/>
       <c r="E399" s="20" t="s">
-        <v>2944</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="400" spans="1:3">
@@ -39190,12 +39263,12 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="23" t="s">
-        <v>2945</v>
+        <v>2947</v>
       </c>
       <c r="B402" s="23"/>
       <c r="C402" s="23"/>
       <c r="E402" s="11" t="s">
-        <v>2946</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="403" spans="1:3">
@@ -39210,17 +39283,17 @@
       <c r="B404" s="23"/>
       <c r="C404" s="23"/>
       <c r="E404" s="11" t="s">
-        <v>2947</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="405" s="20" customFormat="1" spans="1:10">
       <c r="A405" s="19" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="B405" s="19"/>
       <c r="C405" s="19"/>
       <c r="E405" s="20" t="s">
-        <v>2948</v>
+        <v>2950</v>
       </c>
       <c r="F405" s="20" t="s">
         <v>2423</v>
@@ -39229,13 +39302,13 @@
         <v>2836</v>
       </c>
       <c r="H405" s="20" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="I405" s="20" t="s">
-        <v>2950</v>
+        <v>2952</v>
       </c>
       <c r="J405" s="20" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="406" s="20" customFormat="1" spans="1:9">
@@ -39249,13 +39322,13 @@
         <v>1329</v>
       </c>
       <c r="E406" s="20" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="G406" s="20" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="I406" s="20" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="407" s="20" customFormat="1" spans="1:9">
@@ -39263,7 +39336,7 @@
         <v>2800</v>
       </c>
       <c r="B407" s="19" t="s">
-        <v>2839</v>
+        <v>2957</v>
       </c>
       <c r="C407" s="19" t="s">
         <v>1762</v>
@@ -39272,10 +39345,10 @@
         <v>2801</v>
       </c>
       <c r="G407" s="20" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="I407" s="20" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="408" s="20" customFormat="1" spans="1:9">
@@ -39288,15 +39361,15 @@
         <v>2803</v>
       </c>
       <c r="G408" s="20" t="s">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="I408" s="20" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="409" s="20" customFormat="1" spans="1:8">
       <c r="A409" s="19" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="B409" s="19"/>
       <c r="C409" s="19"/>
@@ -39304,13 +39377,13 @@
         <v>2840</v>
       </c>
       <c r="F409" s="20" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="G409" s="20" t="s">
-        <v>2960</v>
+        <v>2963</v>
       </c>
       <c r="H409" s="20" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="410" s="20" customFormat="1" spans="1:7">
@@ -39318,13 +39391,13 @@
         <v>2806</v>
       </c>
       <c r="B410" s="19" t="s">
-        <v>2841</v>
+        <v>2964</v>
       </c>
       <c r="C410" s="19" t="s">
         <v>1886</v>
       </c>
       <c r="E410" s="20" t="s">
-        <v>2961</v>
+        <v>2965</v>
       </c>
       <c r="G410" s="20" t="s">
         <v>2807</v>
@@ -39337,15 +39410,15 @@
       <c r="B411" s="19"/>
       <c r="C411" s="19"/>
       <c r="E411" s="20" t="s">
-        <v>2962</v>
+        <v>2966</v>
       </c>
       <c r="G411" s="20" t="s">
-        <v>2963</v>
+        <v>2967</v>
       </c>
     </row>
     <row r="412" s="20" customFormat="1" spans="1:8">
       <c r="A412" s="19" t="s">
-        <v>2964</v>
+        <v>2968</v>
       </c>
       <c r="B412" s="19"/>
       <c r="C412" s="19"/>
@@ -39353,13 +39426,13 @@
         <v>2842</v>
       </c>
       <c r="F412" s="20" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="G412" s="20" t="s">
-        <v>2965</v>
+        <v>2969</v>
       </c>
       <c r="H412" s="20" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="413" s="20" customFormat="1" spans="1:7">
@@ -39373,10 +39446,10 @@
         <v>1333</v>
       </c>
       <c r="E413" s="20" t="s">
-        <v>2966</v>
+        <v>2970</v>
       </c>
       <c r="G413" s="20" t="s">
-        <v>2967</v>
+        <v>2971</v>
       </c>
     </row>
     <row r="414" s="20" customFormat="1" spans="1:7">
@@ -39390,10 +39463,10 @@
         <v>1766</v>
       </c>
       <c r="E414" s="20" t="s">
-        <v>2968</v>
+        <v>2972</v>
       </c>
       <c r="G414" s="20" t="s">
-        <v>2969</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="415" s="20" customFormat="1" spans="1:7">
@@ -39403,15 +39476,15 @@
       <c r="B415" s="19"/>
       <c r="C415" s="19"/>
       <c r="E415" s="20" t="s">
-        <v>2970</v>
+        <v>2974</v>
       </c>
       <c r="G415" s="20" t="s">
-        <v>2971</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="416" s="20" customFormat="1" spans="1:8">
       <c r="A416" s="19" t="s">
-        <v>2972</v>
+        <v>2976</v>
       </c>
       <c r="B416" s="19"/>
       <c r="C416" s="19"/>
@@ -39419,13 +39492,13 @@
         <v>2845</v>
       </c>
       <c r="F416" s="20" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="G416" s="20" t="s">
-        <v>2973</v>
+        <v>2977</v>
       </c>
       <c r="H416" s="20" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="417" s="20" customFormat="1" spans="1:7">
@@ -39433,16 +39506,16 @@
         <v>2820</v>
       </c>
       <c r="B417" s="19" t="s">
-        <v>2846</v>
+        <v>2978</v>
       </c>
       <c r="C417" s="19" t="s">
         <v>1552</v>
       </c>
       <c r="E417" s="20" t="s">
-        <v>2974</v>
+        <v>2979</v>
       </c>
       <c r="G417" s="20" t="s">
-        <v>2975</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="418" s="20" customFormat="1" spans="1:7">
@@ -39452,10 +39525,10 @@
       <c r="B418" s="19"/>
       <c r="C418" s="19"/>
       <c r="E418" s="20" t="s">
-        <v>2976</v>
+        <v>2981</v>
       </c>
       <c r="G418" s="20" t="s">
-        <v>2977</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="419" s="20" customFormat="1" spans="1:7">
@@ -39465,15 +39538,15 @@
       <c r="B419" s="19"/>
       <c r="C419" s="19"/>
       <c r="E419" s="20" t="s">
-        <v>2978</v>
+        <v>2983</v>
       </c>
       <c r="G419" s="20" t="s">
-        <v>2979</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="420" s="20" customFormat="1" spans="1:8">
       <c r="A420" s="19" t="s">
-        <v>2980</v>
+        <v>2985</v>
       </c>
       <c r="B420" s="19"/>
       <c r="C420" s="19"/>
@@ -39481,13 +39554,13 @@
         <v>2847</v>
       </c>
       <c r="F420" s="20" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="G420" s="20" t="s">
-        <v>2981</v>
+        <v>2986</v>
       </c>
       <c r="H420" s="20" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="421" s="20" customFormat="1" spans="1:7">
@@ -39495,16 +39568,16 @@
         <v>2828</v>
       </c>
       <c r="B421" s="19" t="s">
-        <v>2848</v>
+        <v>2987</v>
       </c>
       <c r="C421" s="19" t="s">
-        <v>1848</v>
+        <v>2988</v>
       </c>
       <c r="E421" s="20" t="s">
-        <v>2982</v>
+        <v>2989</v>
       </c>
       <c r="G421" s="20" t="s">
-        <v>2983</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="422" s="20" customFormat="1" spans="1:7">
@@ -39514,10 +39587,10 @@
       <c r="B422" s="19"/>
       <c r="C422" s="19"/>
       <c r="E422" s="20" t="s">
-        <v>2984</v>
+        <v>2991</v>
       </c>
       <c r="G422" s="20" t="s">
-        <v>2985</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="423" spans="1:3">
@@ -39527,12 +39600,12 @@
     </row>
     <row r="424" s="20" customFormat="1" spans="1:6">
       <c r="A424" s="19" t="s">
-        <v>2986</v>
+        <v>2993</v>
       </c>
       <c r="B424" s="19"/>
       <c r="C424" s="19"/>
       <c r="E424" s="20" t="s">
-        <v>2986</v>
+        <v>2993</v>
       </c>
       <c r="F424" s="20" t="s">
         <v>2423</v>
@@ -39540,64 +39613,64 @@
     </row>
     <row r="425" s="20" customFormat="1" spans="1:5">
       <c r="A425" s="19" t="s">
-        <v>2987</v>
+        <v>2994</v>
       </c>
       <c r="B425" s="19" t="s">
-        <v>2988</v>
+        <v>2995</v>
       </c>
       <c r="C425" s="19" t="s">
         <v>2762</v>
       </c>
       <c r="E425" s="20" t="s">
-        <v>2989</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="426" s="20" customFormat="1" spans="1:5">
       <c r="A426" s="19" t="s">
-        <v>2990</v>
+        <v>2997</v>
       </c>
       <c r="B426" s="19" t="s">
-        <v>2991</v>
+        <v>2998</v>
       </c>
       <c r="C426" s="19" t="s">
         <v>1309</v>
       </c>
       <c r="E426" s="20" t="s">
-        <v>2992</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="427" s="20" customFormat="1" spans="1:5">
       <c r="A427" s="19" t="s">
-        <v>2993</v>
+        <v>3000</v>
       </c>
       <c r="B427" s="19" t="s">
-        <v>2994</v>
+        <v>3001</v>
       </c>
       <c r="C427" s="19" t="s">
         <v>2775</v>
       </c>
       <c r="E427" s="20" t="s">
-        <v>2995</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="428" s="20" customFormat="1" spans="1:5">
       <c r="A428" s="19" t="s">
-        <v>2996</v>
+        <v>3003</v>
       </c>
       <c r="B428" s="19"/>
       <c r="C428" s="19"/>
       <c r="E428" s="20" t="s">
-        <v>2997</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="429" s="20" customFormat="1" spans="1:5">
       <c r="A429" s="19" t="s">
-        <v>2998</v>
+        <v>3005</v>
       </c>
       <c r="B429" s="19"/>
       <c r="C429" s="19"/>
       <c r="E429" s="20" t="s">
-        <v>2999</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="430" s="20" customFormat="1" spans="1:3">
@@ -39607,12 +39680,12 @@
     </row>
     <row r="431" s="20" customFormat="1" spans="1:6">
       <c r="A431" s="19" t="s">
-        <v>3000</v>
+        <v>3007</v>
       </c>
       <c r="B431" s="19"/>
       <c r="C431" s="19"/>
       <c r="E431" s="20" t="s">
-        <v>3000</v>
+        <v>3007</v>
       </c>
       <c r="F431" s="20" t="s">
         <v>2423</v>
@@ -39620,64 +39693,64 @@
     </row>
     <row r="432" s="20" customFormat="1" spans="1:5">
       <c r="A432" s="19" t="s">
-        <v>3001</v>
+        <v>3008</v>
       </c>
       <c r="B432" s="19" t="s">
-        <v>3002</v>
+        <v>3009</v>
       </c>
       <c r="C432" s="19" t="s">
         <v>1742</v>
       </c>
       <c r="E432" s="20" t="s">
-        <v>3003</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="433" s="20" customFormat="1" spans="1:5">
       <c r="A433" s="19" t="s">
-        <v>3004</v>
+        <v>3011</v>
       </c>
       <c r="B433" s="19" t="s">
-        <v>3005</v>
+        <v>3012</v>
       </c>
       <c r="C433" s="19" t="s">
         <v>2787</v>
       </c>
       <c r="E433" s="20" t="s">
-        <v>3006</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="434" s="20" customFormat="1" spans="1:5">
       <c r="A434" s="19" t="s">
-        <v>3007</v>
+        <v>3014</v>
       </c>
       <c r="B434" s="19" t="s">
-        <v>3008</v>
+        <v>3015</v>
       </c>
       <c r="C434" s="19" t="s">
-        <v>3009</v>
+        <v>3016</v>
       </c>
       <c r="E434" s="20" t="s">
-        <v>3010</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="435" s="20" customFormat="1" spans="1:5">
       <c r="A435" s="19" t="s">
-        <v>3011</v>
+        <v>3018</v>
       </c>
       <c r="B435" s="19"/>
       <c r="C435" s="19"/>
       <c r="E435" s="20" t="s">
-        <v>3012</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="436" s="20" customFormat="1" spans="1:5">
       <c r="A436" s="19" t="s">
-        <v>3013</v>
+        <v>3020</v>
       </c>
       <c r="B436" s="19"/>
       <c r="C436" s="19"/>
       <c r="E436" s="20" t="s">
-        <v>3014</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="437" spans="1:3">
@@ -39687,12 +39760,12 @@
     </row>
     <row r="438" s="20" customFormat="1" spans="1:6">
       <c r="A438" s="19" t="s">
-        <v>3015</v>
+        <v>3022</v>
       </c>
       <c r="B438" s="19"/>
       <c r="C438" s="19"/>
       <c r="E438" s="20" t="s">
-        <v>3015</v>
+        <v>3022</v>
       </c>
       <c r="F438" s="20" t="s">
         <v>2423</v>
@@ -39700,68 +39773,68 @@
     </row>
     <row r="439" s="20" customFormat="1" spans="1:5">
       <c r="A439" s="19" t="s">
-        <v>3016</v>
+        <v>3023</v>
       </c>
       <c r="B439" s="19" t="s">
-        <v>3017</v>
+        <v>3024</v>
       </c>
       <c r="C439" s="19" t="s">
         <v>1297</v>
       </c>
       <c r="E439" s="20" t="s">
-        <v>3018</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="440" s="20" customFormat="1" spans="1:5">
       <c r="A440" s="19" t="s">
-        <v>3019</v>
+        <v>3026</v>
       </c>
       <c r="B440" s="19" t="s">
-        <v>3020</v>
+        <v>3027</v>
       </c>
       <c r="C440" s="19" t="s">
-        <v>3021</v>
+        <v>3028</v>
       </c>
       <c r="E440" s="20" t="s">
-        <v>3022</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="441" s="20" customFormat="1" spans="1:5">
       <c r="A441" s="19" t="s">
-        <v>3023</v>
+        <v>3030</v>
       </c>
       <c r="B441" s="27" t="s">
-        <v>3024</v>
+        <v>3031</v>
       </c>
       <c r="C441" s="19" t="s">
-        <v>3025</v>
+        <v>3032</v>
       </c>
       <c r="E441" s="20" t="s">
-        <v>3026</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="442" s="20" customFormat="1" spans="1:5">
       <c r="A442" s="19" t="s">
-        <v>3027</v>
+        <v>3034</v>
       </c>
       <c r="B442" s="19" t="s">
-        <v>3028</v>
+        <v>3035</v>
       </c>
       <c r="C442" s="19" t="s">
-        <v>3029</v>
+        <v>3036</v>
       </c>
       <c r="E442" s="20" t="s">
-        <v>3030</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="443" s="20" customFormat="1" spans="1:5">
       <c r="A443" s="19" t="s">
-        <v>3031</v>
+        <v>3038</v>
       </c>
       <c r="B443" s="19"/>
       <c r="C443" s="19"/>
       <c r="E443" s="20" t="s">
-        <v>3032</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="444" spans="1:3">
@@ -39771,12 +39844,12 @@
     </row>
     <row r="445" s="20" customFormat="1" spans="1:6">
       <c r="A445" s="19" t="s">
-        <v>3033</v>
+        <v>3040</v>
       </c>
       <c r="B445" s="19"/>
       <c r="C445" s="19"/>
       <c r="E445" s="20" t="s">
-        <v>3033</v>
+        <v>3040</v>
       </c>
       <c r="F445" s="20" t="s">
         <v>2423</v>
@@ -39784,64 +39857,64 @@
     </row>
     <row r="446" s="20" customFormat="1" spans="1:5">
       <c r="A446" s="19" t="s">
-        <v>3034</v>
+        <v>3041</v>
       </c>
       <c r="B446" s="19" t="s">
-        <v>3035</v>
+        <v>3042</v>
       </c>
       <c r="C446" s="19" t="s">
         <v>1730</v>
       </c>
       <c r="E446" s="20" t="s">
-        <v>3036</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="447" s="20" customFormat="1" spans="1:5">
       <c r="A447" s="19" t="s">
-        <v>3037</v>
+        <v>3044</v>
       </c>
       <c r="B447" s="19" t="s">
-        <v>3038</v>
+        <v>3045</v>
       </c>
       <c r="C447" s="19" t="s">
-        <v>3039</v>
+        <v>3046</v>
       </c>
       <c r="E447" s="20" t="s">
-        <v>3040</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="448" s="20" customFormat="1" spans="1:5">
       <c r="A448" s="19" t="s">
-        <v>3041</v>
+        <v>3048</v>
       </c>
       <c r="B448" s="19" t="s">
-        <v>3042</v>
+        <v>3049</v>
       </c>
       <c r="C448" s="19" t="s">
-        <v>3043</v>
+        <v>3050</v>
       </c>
       <c r="E448" s="20" t="s">
-        <v>3044</v>
+        <v>3051</v>
       </c>
     </row>
     <row r="449" s="20" customFormat="1" spans="1:5">
       <c r="A449" s="19" t="s">
-        <v>3045</v>
+        <v>3052</v>
       </c>
       <c r="B449" s="19"/>
       <c r="C449" s="19"/>
       <c r="E449" s="20" t="s">
-        <v>3046</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="450" s="20" customFormat="1" spans="1:5">
       <c r="A450" s="19" t="s">
-        <v>3047</v>
+        <v>3054</v>
       </c>
       <c r="B450" s="19"/>
       <c r="C450" s="19"/>
       <c r="E450" s="20" t="s">
-        <v>3048</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -39851,12 +39924,12 @@
     </row>
     <row r="452" s="20" customFormat="1" spans="1:6">
       <c r="A452" s="19" t="s">
-        <v>3049</v>
+        <v>3056</v>
       </c>
       <c r="B452" s="19"/>
       <c r="C452" s="19"/>
       <c r="E452" s="20" t="s">
-        <v>3049</v>
+        <v>3056</v>
       </c>
       <c r="F452" s="20" t="s">
         <v>2423</v>
@@ -39864,50 +39937,50 @@
     </row>
     <row r="453" s="20" customFormat="1" spans="1:5">
       <c r="A453" s="19" t="s">
-        <v>3050</v>
+        <v>3057</v>
       </c>
       <c r="B453" s="19" t="s">
-        <v>3051</v>
+        <v>3058</v>
       </c>
       <c r="C453" s="19" t="s">
         <v>1831</v>
       </c>
       <c r="E453" s="20" t="s">
-        <v>3052</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="454" s="20" customFormat="1" spans="1:5">
       <c r="A454" s="19" t="s">
-        <v>3053</v>
+        <v>3060</v>
       </c>
       <c r="B454" s="19" t="s">
-        <v>3054</v>
+        <v>3061</v>
       </c>
       <c r="C454" s="19" t="s">
-        <v>3055</v>
+        <v>3062</v>
       </c>
       <c r="E454" s="20" t="s">
-        <v>3056</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="455" s="20" customFormat="1" spans="1:5">
       <c r="A455" s="19" t="s">
-        <v>3057</v>
+        <v>3064</v>
       </c>
       <c r="B455" s="19"/>
       <c r="C455" s="19"/>
       <c r="E455" s="20" t="s">
-        <v>3058</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="456" s="20" customFormat="1" spans="1:5">
       <c r="A456" s="19" t="s">
-        <v>3059</v>
+        <v>3066</v>
       </c>
       <c r="B456" s="19"/>
       <c r="C456" s="19"/>
       <c r="E456" s="20" t="s">
-        <v>3060</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -39917,12 +39990,12 @@
     </row>
     <row r="458" s="20" customFormat="1" spans="1:6">
       <c r="A458" s="19" t="s">
-        <v>3061</v>
+        <v>3068</v>
       </c>
       <c r="B458" s="19"/>
       <c r="C458" s="19"/>
       <c r="E458" s="20" t="s">
-        <v>3061</v>
+        <v>3068</v>
       </c>
       <c r="F458" s="20" t="s">
         <v>2423</v>
@@ -39930,40 +40003,40 @@
     </row>
     <row r="459" s="20" customFormat="1" spans="1:5">
       <c r="A459" s="19" t="s">
-        <v>3062</v>
+        <v>3069</v>
       </c>
       <c r="B459" s="19" t="s">
-        <v>3063</v>
+        <v>3070</v>
       </c>
       <c r="C459" s="19" t="s">
         <v>1722</v>
       </c>
       <c r="E459" s="20" t="s">
-        <v>3064</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="460" s="20" customFormat="1" spans="1:5">
       <c r="A460" s="19" t="s">
-        <v>3065</v>
+        <v>3072</v>
       </c>
       <c r="B460" s="19" t="s">
-        <v>3066</v>
+        <v>3073</v>
       </c>
       <c r="C460" s="19" t="s">
-        <v>3067</v>
+        <v>3074</v>
       </c>
       <c r="E460" s="20" t="s">
-        <v>3068</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="461" s="20" customFormat="1" spans="1:5">
       <c r="A461" s="19" t="s">
-        <v>3069</v>
+        <v>3076</v>
       </c>
       <c r="B461" s="19"/>
       <c r="C461" s="19"/>
       <c r="E461" s="20" t="s">
-        <v>3070</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="462" spans="1:3">
@@ -39973,12 +40046,12 @@
     </row>
     <row r="463" s="20" customFormat="1" spans="1:6">
       <c r="A463" s="19" t="s">
-        <v>3071</v>
+        <v>3078</v>
       </c>
       <c r="B463" s="19"/>
       <c r="C463" s="19"/>
       <c r="E463" s="20" t="s">
-        <v>3071</v>
+        <v>3078</v>
       </c>
       <c r="F463" s="20" t="s">
         <v>2423</v>
@@ -39986,50 +40059,50 @@
     </row>
     <row r="464" s="20" customFormat="1" spans="1:5">
       <c r="A464" s="19" t="s">
-        <v>3072</v>
+        <v>3079</v>
       </c>
       <c r="B464" s="19" t="s">
-        <v>3073</v>
+        <v>3080</v>
       </c>
       <c r="C464" s="19" t="s">
         <v>1827</v>
       </c>
       <c r="E464" s="20" t="s">
-        <v>3074</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="465" s="20" customFormat="1" spans="1:5">
       <c r="A465" s="19" t="s">
-        <v>3075</v>
+        <v>3082</v>
       </c>
       <c r="B465" s="19" t="s">
-        <v>3076</v>
+        <v>3083</v>
       </c>
       <c r="C465" s="19" t="s">
-        <v>3077</v>
+        <v>3084</v>
       </c>
       <c r="E465" s="20" t="s">
-        <v>3078</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="466" s="20" customFormat="1" spans="1:5">
       <c r="A466" s="19" t="s">
-        <v>3079</v>
+        <v>3086</v>
       </c>
       <c r="B466" s="19"/>
       <c r="C466" s="19"/>
       <c r="E466" s="20" t="s">
-        <v>3080</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="467" s="20" customFormat="1" spans="1:5">
       <c r="A467" s="19" t="s">
-        <v>3081</v>
+        <v>3088</v>
       </c>
       <c r="B467" s="19"/>
       <c r="C467" s="19"/>
       <c r="E467" s="20" t="s">
-        <v>3082</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="468" spans="1:3">
@@ -40039,12 +40112,12 @@
     </row>
     <row r="469" s="20" customFormat="1" spans="1:6">
       <c r="A469" s="19" t="s">
-        <v>3083</v>
+        <v>3090</v>
       </c>
       <c r="B469" s="19"/>
       <c r="C469" s="19"/>
       <c r="E469" s="20" t="s">
-        <v>3083</v>
+        <v>3090</v>
       </c>
       <c r="F469" s="20" t="s">
         <v>2423</v>
@@ -40052,64 +40125,64 @@
     </row>
     <row r="470" s="20" customFormat="1" spans="1:5">
       <c r="A470" s="19" t="s">
-        <v>3084</v>
+        <v>3091</v>
       </c>
       <c r="B470" s="19" t="s">
-        <v>3085</v>
+        <v>3092</v>
       </c>
       <c r="C470" s="19" t="s">
         <v>1280</v>
       </c>
       <c r="E470" s="20" t="s">
-        <v>3086</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="471" s="20" customFormat="1" spans="1:5">
       <c r="A471" s="19" t="s">
-        <v>3087</v>
+        <v>3094</v>
       </c>
       <c r="B471" s="19" t="s">
-        <v>3088</v>
+        <v>3095</v>
       </c>
       <c r="C471" s="19" t="s">
-        <v>3089</v>
+        <v>3096</v>
       </c>
       <c r="E471" s="20" t="s">
-        <v>3090</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="472" s="20" customFormat="1" spans="1:5">
       <c r="A472" s="19" t="s">
-        <v>3091</v>
+        <v>3098</v>
       </c>
       <c r="B472" s="19" t="s">
-        <v>3092</v>
+        <v>3099</v>
       </c>
       <c r="C472" s="19" t="s">
-        <v>3093</v>
+        <v>3100</v>
       </c>
       <c r="E472" s="20" t="s">
-        <v>3094</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="473" s="20" customFormat="1" spans="1:5">
       <c r="A473" s="19" t="s">
-        <v>3095</v>
+        <v>3102</v>
       </c>
       <c r="B473" s="19"/>
       <c r="C473" s="19"/>
       <c r="E473" s="20" t="s">
-        <v>3096</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="474" s="20" customFormat="1" spans="1:5">
       <c r="A474" s="19" t="s">
-        <v>3097</v>
+        <v>3104</v>
       </c>
       <c r="B474" s="19"/>
       <c r="C474" s="19"/>
       <c r="E474" s="20" t="s">
-        <v>3098</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -40119,32 +40192,32 @@
     </row>
     <row r="476" spans="1:5">
       <c r="A476" s="23" t="s">
-        <v>3099</v>
+        <v>3106</v>
       </c>
       <c r="B476" s="23"/>
       <c r="C476" s="23"/>
       <c r="E476" s="11" t="s">
-        <v>3099</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="477" spans="1:5">
       <c r="A477" s="23" t="s">
-        <v>3100</v>
+        <v>3107</v>
       </c>
       <c r="B477" s="23"/>
       <c r="C477" s="23"/>
       <c r="E477" s="11" t="s">
-        <v>3101</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="478" spans="1:5">
       <c r="A478" s="23" t="s">
-        <v>3099</v>
+        <v>3106</v>
       </c>
       <c r="B478" s="23"/>
       <c r="C478" s="23"/>
       <c r="E478" s="11" t="s">
-        <v>3099</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="479" spans="1:3">
@@ -40152,291 +40225,335 @@
       <c r="B479" s="23"/>
       <c r="C479" s="23"/>
     </row>
-    <row r="480" spans="1:6">
-      <c r="A480" s="23" t="s">
-        <v>3102</v>
-      </c>
-      <c r="B480" s="23"/>
-      <c r="C480" s="23"/>
-      <c r="E480" s="11" t="s">
-        <v>3102</v>
-      </c>
-      <c r="F480" s="11" t="s">
+    <row r="480" s="20" customFormat="1" spans="1:6">
+      <c r="A480" s="19" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B480" s="19"/>
+      <c r="C480" s="19"/>
+      <c r="E480" s="20" t="s">
+        <v>3109</v>
+      </c>
+      <c r="F480" s="20" t="s">
         <v>2423</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
-      <c r="A481" s="23" t="s">
-        <v>3103</v>
-      </c>
-      <c r="B481" s="23"/>
-      <c r="C481" s="23"/>
-      <c r="E481" s="11" t="s">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
-      <c r="A482" s="23" t="s">
-        <v>3105</v>
-      </c>
-      <c r="B482" s="23"/>
-      <c r="C482" s="23"/>
-      <c r="E482" s="11" t="s">
-        <v>3106</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
-      <c r="A483" s="23" t="s">
-        <v>3107</v>
-      </c>
-      <c r="B483" s="23"/>
-      <c r="C483" s="23"/>
-      <c r="E483" s="11" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
-      <c r="A484" s="23" t="s">
-        <v>3109</v>
-      </c>
-      <c r="B484" s="23"/>
-      <c r="C484" s="23"/>
-      <c r="E484" s="11" t="s">
+    <row r="481" s="20" customFormat="1" spans="1:5">
+      <c r="A481" s="19" t="s">
         <v>3110</v>
       </c>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="A485" s="23" t="s">
+      <c r="B481" s="19" t="s">
         <v>3111</v>
       </c>
-      <c r="B485" s="23"/>
-      <c r="C485" s="23"/>
-      <c r="E485" s="11" t="s">
+      <c r="C481" s="19" t="s">
         <v>3112</v>
       </c>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="A486" s="23"/>
-      <c r="B486" s="23"/>
-      <c r="C486" s="23"/>
-    </row>
-    <row r="487" spans="1:6">
-      <c r="A487" s="23" t="s">
+      <c r="E481" s="20" t="s">
         <v>3113</v>
       </c>
-      <c r="B487" s="23"/>
-      <c r="C487" s="23"/>
-      <c r="E487" s="11" t="s">
-        <v>3113</v>
-      </c>
-      <c r="F487" s="11" t="s">
+    </row>
+    <row r="482" s="20" customFormat="1" spans="1:5">
+      <c r="A482" s="19" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B482" s="19" t="s">
+        <v>3115</v>
+      </c>
+      <c r="C482" s="19" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E482" s="20" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="483" s="20" customFormat="1" spans="1:5">
+      <c r="A483" s="19" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B483" s="19" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C483" s="19" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E483" s="20" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="484" s="20" customFormat="1" spans="1:5">
+      <c r="A484" s="19" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B484" s="19"/>
+      <c r="C484" s="19"/>
+      <c r="E484" s="20" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="485" s="20" customFormat="1" spans="1:5">
+      <c r="A485" s="19" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B485" s="19"/>
+      <c r="C485" s="19"/>
+      <c r="E485" s="20" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="486" s="20" customFormat="1" spans="1:3">
+      <c r="A486" s="19"/>
+      <c r="B486" s="19"/>
+      <c r="C486" s="19"/>
+    </row>
+    <row r="487" s="20" customFormat="1" spans="1:6">
+      <c r="A487" s="19" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B487" s="19"/>
+      <c r="C487" s="19"/>
+      <c r="E487" s="20" t="s">
+        <v>3124</v>
+      </c>
+      <c r="F487" s="20" t="s">
         <v>2423</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
-      <c r="A488" s="23" t="s">
-        <v>3114</v>
-      </c>
-      <c r="B488" s="23"/>
-      <c r="C488" s="23"/>
-      <c r="E488" s="11" t="s">
-        <v>3115</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
-      <c r="A489" s="23" t="s">
-        <v>3116</v>
-      </c>
-      <c r="B489" s="23"/>
-      <c r="C489" s="23"/>
-      <c r="E489" s="11" t="s">
-        <v>3117</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
-      <c r="A490" s="23" t="s">
-        <v>3118</v>
-      </c>
-      <c r="B490" s="23"/>
-      <c r="C490" s="23"/>
-      <c r="E490" s="11" t="s">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
-      <c r="A491" s="23" t="s">
-        <v>3120</v>
-      </c>
-      <c r="B491" s="23"/>
-      <c r="C491" s="23"/>
-      <c r="E491" s="11" t="s">
-        <v>3121</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
-      <c r="A492" s="23" t="s">
-        <v>3122</v>
-      </c>
-      <c r="B492" s="23"/>
-      <c r="C492" s="23"/>
-      <c r="E492" s="11" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
-      <c r="A493" s="23" t="s">
-        <v>3124</v>
-      </c>
-      <c r="B493" s="23"/>
-      <c r="C493" s="23"/>
-      <c r="E493" s="11" t="s">
+    <row r="488" s="20" customFormat="1" spans="1:5">
+      <c r="A488" s="19" t="s">
         <v>3125</v>
       </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" s="23"/>
-      <c r="B494" s="23"/>
-      <c r="C494" s="23"/>
-    </row>
-    <row r="495" spans="1:6">
-      <c r="A495" s="23" t="s">
+      <c r="B488" s="19" t="s">
         <v>3126</v>
       </c>
-      <c r="B495" s="23"/>
-      <c r="C495" s="23"/>
-      <c r="E495" s="11" t="s">
-        <v>3126</v>
-      </c>
-      <c r="F495" s="11" t="s">
+      <c r="C488" s="19" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E488" s="20" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="489" s="20" customFormat="1" spans="1:5">
+      <c r="A489" s="19" t="s">
+        <v>3129</v>
+      </c>
+      <c r="B489" s="19" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C489" s="19" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E489" s="20" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="490" s="20" customFormat="1" spans="1:5">
+      <c r="A490" s="19" t="s">
+        <v>3132</v>
+      </c>
+      <c r="B490" s="19"/>
+      <c r="C490" s="19"/>
+      <c r="E490" s="20" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="491" s="20" customFormat="1" spans="1:5">
+      <c r="A491" s="19" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B491" s="19"/>
+      <c r="C491" s="19"/>
+      <c r="E491" s="20" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="492" s="20" customFormat="1" spans="1:5">
+      <c r="A492" s="19" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B492" s="19"/>
+      <c r="C492" s="19"/>
+      <c r="E492" s="20" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="493" s="20" customFormat="1" spans="1:5">
+      <c r="A493" s="19" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B493" s="19"/>
+      <c r="C493" s="19"/>
+      <c r="E493" s="20" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="494" s="20" customFormat="1" spans="1:3">
+      <c r="A494" s="19"/>
+      <c r="B494" s="19"/>
+      <c r="C494" s="19"/>
+    </row>
+    <row r="495" s="20" customFormat="1" spans="1:6">
+      <c r="A495" s="19" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B495" s="19"/>
+      <c r="C495" s="19"/>
+      <c r="E495" s="20" t="s">
+        <v>3140</v>
+      </c>
+      <c r="F495" s="20" t="s">
         <v>2423</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
-      <c r="A496" s="23" t="s">
-        <v>3127</v>
-      </c>
-      <c r="B496" s="23"/>
-      <c r="C496" s="23"/>
-      <c r="E496" s="11" t="s">
-        <v>3128</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
-      <c r="A497" s="23" t="s">
-        <v>3129</v>
-      </c>
-      <c r="B497" s="23"/>
-      <c r="C497" s="23"/>
-      <c r="E497" s="11" t="s">
-        <v>3130</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
-      <c r="A498" s="23" t="s">
-        <v>3131</v>
-      </c>
-      <c r="B498" s="23"/>
-      <c r="C498" s="23"/>
-      <c r="E498" s="11" t="s">
-        <v>3132</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
-      <c r="A499" s="23" t="s">
-        <v>3133</v>
-      </c>
-      <c r="B499" s="23"/>
-      <c r="C499" s="23"/>
-      <c r="E499" s="11" t="s">
-        <v>3134</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
-      <c r="A500" s="23" t="s">
-        <v>3135</v>
-      </c>
-      <c r="B500" s="23"/>
-      <c r="C500" s="23"/>
-      <c r="E500" s="11" t="s">
-        <v>3136</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
-      <c r="A501" s="23" t="s">
-        <v>3137</v>
-      </c>
-      <c r="B501" s="23"/>
-      <c r="C501" s="23"/>
-      <c r="E501" s="11" t="s">
-        <v>3138</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="A502" s="23"/>
-      <c r="B502" s="23"/>
-      <c r="C502" s="23"/>
-    </row>
-    <row r="503" spans="1:6">
-      <c r="A503" s="23" t="s">
-        <v>3139</v>
-      </c>
-      <c r="B503" s="23"/>
-      <c r="C503" s="23"/>
-      <c r="E503" s="11" t="s">
-        <v>3139</v>
-      </c>
-      <c r="F503" s="11" t="s">
+    <row r="496" s="20" customFormat="1" spans="1:5">
+      <c r="A496" s="19" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B496" s="19" t="s">
+        <v>3142</v>
+      </c>
+      <c r="C496" s="19" t="s">
+        <v>3143</v>
+      </c>
+      <c r="E496" s="20" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="497" s="20" customFormat="1" spans="1:5">
+      <c r="A497" s="19" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B497" s="19" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C497" s="19" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E497" s="20" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="498" s="20" customFormat="1" spans="1:5">
+      <c r="A498" s="19" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B498" s="19" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C498" s="19" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E498" s="20" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="499" s="20" customFormat="1" spans="1:5">
+      <c r="A499" s="19" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B499" s="19"/>
+      <c r="C499" s="19"/>
+      <c r="E499" s="20" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="500" s="20" customFormat="1" spans="1:5">
+      <c r="A500" s="19" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B500" s="19"/>
+      <c r="C500" s="19"/>
+      <c r="E500" s="20" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="501" s="20" customFormat="1" spans="1:5">
+      <c r="A501" s="19" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B501" s="19"/>
+      <c r="C501" s="19"/>
+      <c r="E501" s="20" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="502" s="20" customFormat="1" spans="1:3">
+      <c r="A502" s="19"/>
+      <c r="B502" s="19"/>
+      <c r="C502" s="19"/>
+    </row>
+    <row r="503" s="20" customFormat="1" spans="1:6">
+      <c r="A503" s="19" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B503" s="19"/>
+      <c r="C503" s="19"/>
+      <c r="E503" s="20" t="s">
+        <v>3157</v>
+      </c>
+      <c r="F503" s="20" t="s">
         <v>2423</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
-      <c r="A504" s="23" t="s">
-        <v>3140</v>
-      </c>
-      <c r="B504" s="23"/>
-      <c r="C504" s="23"/>
-      <c r="E504" s="11" t="s">
-        <v>3141</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
-      <c r="A505" s="23" t="s">
-        <v>3142</v>
-      </c>
-      <c r="B505" s="23"/>
-      <c r="C505" s="23"/>
-      <c r="E505" s="11" t="s">
-        <v>3143</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
-      <c r="A506" s="23" t="s">
-        <v>3144</v>
-      </c>
-      <c r="B506" s="23"/>
-      <c r="C506" s="23"/>
-      <c r="E506" s="11" t="s">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="507" spans="1:5">
-      <c r="A507" s="23" t="s">
-        <v>3146</v>
-      </c>
-      <c r="B507" s="23"/>
-      <c r="C507" s="23"/>
-      <c r="E507" s="11" t="s">
-        <v>3147</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
-      <c r="A508" s="23" t="s">
-        <v>3148</v>
-      </c>
-      <c r="B508" s="23"/>
-      <c r="C508" s="23"/>
-      <c r="E508" s="11" t="s">
-        <v>3149</v>
+    <row r="504" s="20" customFormat="1" spans="1:5">
+      <c r="A504" s="19" t="s">
+        <v>3158</v>
+      </c>
+      <c r="B504" s="19" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C504" s="19" t="s">
+        <v>3160</v>
+      </c>
+      <c r="E504" s="20" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="505" s="20" customFormat="1" spans="1:5">
+      <c r="A505" s="19" t="s">
+        <v>3162</v>
+      </c>
+      <c r="B505" s="19" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C505" s="19" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E505" s="20" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="506" s="20" customFormat="1" spans="1:5">
+      <c r="A506" s="19" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B506" s="19" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C506" s="19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E506" s="20" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="507" s="20" customFormat="1" spans="1:5">
+      <c r="A507" s="19" t="s">
+        <v>3168</v>
+      </c>
+      <c r="B507" s="19"/>
+      <c r="C507" s="19"/>
+      <c r="E507" s="20" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="508" s="20" customFormat="1" spans="1:5">
+      <c r="A508" s="19" t="s">
+        <v>3170</v>
+      </c>
+      <c r="B508" s="19"/>
+      <c r="C508" s="19"/>
+      <c r="E508" s="20" t="s">
+        <v>3171</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -40446,32 +40563,32 @@
     </row>
     <row r="510" spans="1:5">
       <c r="A510" s="23" t="s">
-        <v>3099</v>
+        <v>3106</v>
       </c>
       <c r="B510" s="23"/>
       <c r="C510" s="23"/>
       <c r="E510" s="11" t="s">
-        <v>3099</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="511" spans="1:5">
       <c r="A511" s="23" t="s">
-        <v>3150</v>
+        <v>3172</v>
       </c>
       <c r="B511" s="23"/>
       <c r="C511" s="23"/>
       <c r="E511" s="11" t="s">
-        <v>3151</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="512" spans="1:5">
       <c r="A512" s="23" t="s">
-        <v>3099</v>
+        <v>3106</v>
       </c>
       <c r="B512" s="23"/>
       <c r="C512" s="23"/>
       <c r="E512" s="11" t="s">
-        <v>3099</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -40481,60 +40598,60 @@
     </row>
     <row r="514" spans="1:5">
       <c r="A514" s="23" t="s">
-        <v>3152</v>
+        <v>3174</v>
       </c>
       <c r="B514" s="23"/>
       <c r="C514" s="23"/>
       <c r="E514" s="11" t="s">
-        <v>3152</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="515" spans="1:5">
       <c r="A515" s="23" t="s">
-        <v>3153</v>
+        <v>3175</v>
       </c>
       <c r="B515" s="23"/>
       <c r="C515" s="23"/>
       <c r="E515" s="11" t="s">
-        <v>3153</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="516" spans="1:6">
       <c r="A516" s="23" t="s">
-        <v>3154</v>
+        <v>3176</v>
       </c>
       <c r="B516" s="23"/>
       <c r="C516" s="23"/>
       <c r="E516" s="11" t="s">
-        <v>3155</v>
+        <v>3177</v>
       </c>
       <c r="F516" s="11" t="s">
-        <v>3156</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="517" spans="1:5">
       <c r="A517" s="23" t="s">
-        <v>3157</v>
+        <v>3179</v>
       </c>
       <c r="B517" s="23"/>
       <c r="C517" s="23"/>
       <c r="E517" s="11" t="s">
-        <v>3158</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="518" spans="1:5">
       <c r="A518" s="23" t="s">
-        <v>3159</v>
+        <v>3181</v>
       </c>
       <c r="B518" s="23"/>
       <c r="C518" s="23"/>
       <c r="E518" s="11" t="s">
-        <v>3160</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" s="23" t="s">
-        <v>3161</v>
+        <v>3183</v>
       </c>
       <c r="B519" s="23"/>
       <c r="C519" s="23"/>
@@ -40546,60 +40663,60 @@
     </row>
     <row r="521" spans="1:5">
       <c r="A521" s="23" t="s">
-        <v>3162</v>
+        <v>3184</v>
       </c>
       <c r="B521" s="23"/>
       <c r="C521" s="23"/>
       <c r="E521" s="11" t="s">
-        <v>3162</v>
+        <v>3184</v>
       </c>
     </row>
     <row r="522" spans="1:5">
       <c r="A522" s="23" t="s">
-        <v>3163</v>
+        <v>3185</v>
       </c>
       <c r="B522" s="23"/>
       <c r="C522" s="23"/>
       <c r="E522" s="11" t="s">
-        <v>3163</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="523" spans="1:6">
       <c r="A523" s="23" t="s">
-        <v>3164</v>
+        <v>3186</v>
       </c>
       <c r="B523" s="23"/>
       <c r="C523" s="23"/>
       <c r="E523" s="11" t="s">
-        <v>3165</v>
+        <v>3187</v>
       </c>
       <c r="F523" s="11" t="s">
-        <v>3156</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="524" spans="1:5">
       <c r="A524" s="23" t="s">
-        <v>3166</v>
+        <v>3188</v>
       </c>
       <c r="B524" s="23"/>
       <c r="C524" s="23"/>
       <c r="E524" s="11" t="s">
-        <v>3167</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="23" t="s">
-        <v>3168</v>
+        <v>3190</v>
       </c>
       <c r="B525" s="23"/>
       <c r="C525" s="23"/>
       <c r="E525" s="11" t="s">
-        <v>3169</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="526" spans="1:3">
       <c r="A526" s="23" t="s">
-        <v>3170</v>
+        <v>3192</v>
       </c>
       <c r="B526" s="23"/>
       <c r="C526" s="23"/>
@@ -40611,60 +40728,60 @@
     </row>
     <row r="528" spans="1:5">
       <c r="A528" s="23" t="s">
-        <v>3171</v>
+        <v>3193</v>
       </c>
       <c r="B528" s="23"/>
       <c r="C528" s="23"/>
       <c r="E528" s="11" t="s">
-        <v>3171</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="529" spans="1:5">
       <c r="A529" s="23" t="s">
-        <v>3172</v>
+        <v>3194</v>
       </c>
       <c r="B529" s="23"/>
       <c r="C529" s="23"/>
       <c r="E529" s="11" t="s">
-        <v>3172</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="530" spans="1:6">
       <c r="A530" s="23" t="s">
-        <v>3173</v>
+        <v>3195</v>
       </c>
       <c r="B530" s="23"/>
       <c r="C530" s="23"/>
       <c r="E530" s="11" t="s">
-        <v>3174</v>
+        <v>3196</v>
       </c>
       <c r="F530" s="11" t="s">
-        <v>3156</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="531" spans="1:5">
       <c r="A531" s="23" t="s">
-        <v>3175</v>
+        <v>3197</v>
       </c>
       <c r="B531" s="23"/>
       <c r="C531" s="23"/>
       <c r="E531" s="11" t="s">
-        <v>3176</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="532" spans="1:5">
       <c r="A532" s="23" t="s">
-        <v>3177</v>
+        <v>3199</v>
       </c>
       <c r="B532" s="23"/>
       <c r="C532" s="23"/>
       <c r="E532" s="11" t="s">
-        <v>3178</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="533" spans="1:3">
       <c r="A533" s="23" t="s">
-        <v>3179</v>
+        <v>3201</v>
       </c>
       <c r="B533" s="23"/>
       <c r="C533" s="23"/>
@@ -40676,148 +40793,148 @@
     </row>
     <row r="535" spans="1:5">
       <c r="A535" s="23" t="s">
-        <v>2877</v>
+        <v>2879</v>
       </c>
       <c r="B535" s="23"/>
       <c r="C535" s="23"/>
       <c r="E535" s="11" t="s">
-        <v>3180</v>
+        <v>3202</v>
       </c>
     </row>
     <row r="536" spans="1:8">
       <c r="A536" s="23" t="s">
-        <v>3181</v>
+        <v>3203</v>
       </c>
       <c r="B536" s="23"/>
       <c r="C536" s="23"/>
       <c r="E536" s="11" t="s">
-        <v>3181</v>
+        <v>3203</v>
       </c>
       <c r="F536" s="11" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="G536" s="11" t="s">
-        <v>3182</v>
+        <v>3204</v>
       </c>
       <c r="H536" s="11" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="23" t="s">
-        <v>3183</v>
+        <v>3205</v>
       </c>
       <c r="B537" s="23"/>
       <c r="C537" s="23"/>
       <c r="E537" s="11" t="s">
-        <v>3184</v>
+        <v>3206</v>
       </c>
       <c r="G537" s="11" t="s">
-        <v>3185</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="538" spans="1:7">
       <c r="A538" s="23" t="s">
-        <v>3186</v>
+        <v>3208</v>
       </c>
       <c r="B538" s="23"/>
       <c r="C538" s="23"/>
       <c r="E538" s="11" t="s">
-        <v>3187</v>
+        <v>3209</v>
       </c>
       <c r="G538" s="11" t="s">
-        <v>3188</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="23" t="s">
-        <v>3189</v>
+        <v>3211</v>
       </c>
       <c r="B539" s="23"/>
       <c r="C539" s="23"/>
       <c r="E539" s="11" t="s">
-        <v>3190</v>
+        <v>3212</v>
       </c>
       <c r="G539" s="11" t="s">
-        <v>3191</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="540" spans="1:7">
       <c r="A540" s="23" t="s">
-        <v>3192</v>
+        <v>3214</v>
       </c>
       <c r="B540" s="23"/>
       <c r="C540" s="23"/>
       <c r="E540" s="11" t="s">
-        <v>3193</v>
+        <v>3215</v>
       </c>
       <c r="G540" s="11" t="s">
-        <v>3194</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="541" spans="1:7">
       <c r="A541" s="23" t="s">
-        <v>3195</v>
+        <v>3217</v>
       </c>
       <c r="B541" s="23"/>
       <c r="C541" s="23"/>
       <c r="E541" s="11" t="s">
-        <v>3196</v>
+        <v>3218</v>
       </c>
       <c r="G541" s="11" t="s">
-        <v>3197</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="542" spans="1:7">
       <c r="A542" s="23" t="s">
-        <v>3198</v>
+        <v>3220</v>
       </c>
       <c r="B542" s="23"/>
       <c r="C542" s="23"/>
       <c r="E542" s="11" t="s">
-        <v>3199</v>
+        <v>3221</v>
       </c>
       <c r="G542" s="11" t="s">
-        <v>3200</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="543" spans="1:7">
       <c r="A543" s="23" t="s">
-        <v>3201</v>
+        <v>3223</v>
       </c>
       <c r="B543" s="23"/>
       <c r="C543" s="23"/>
       <c r="E543" s="11" t="s">
-        <v>3201</v>
+        <v>3223</v>
       </c>
       <c r="G543" s="11" t="s">
-        <v>3202</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="544" spans="1:7">
       <c r="A544" s="23" t="s">
-        <v>3203</v>
+        <v>3225</v>
       </c>
       <c r="B544" s="23"/>
       <c r="C544" s="23"/>
       <c r="E544" s="11" t="s">
-        <v>3204</v>
+        <v>3226</v>
       </c>
       <c r="G544" s="11" t="s">
-        <v>3205</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="545" spans="1:7">
       <c r="A545" s="23" t="s">
-        <v>3206</v>
+        <v>3228</v>
       </c>
       <c r="B545" s="23"/>
       <c r="C545" s="23"/>
       <c r="E545" s="11" t="s">
-        <v>3207</v>
+        <v>3229</v>
       </c>
       <c r="G545" s="11" t="s">
-        <v>3208</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -40827,86 +40944,86 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" s="23" t="s">
-        <v>3209</v>
+        <v>3231</v>
       </c>
       <c r="B547" s="23"/>
       <c r="C547" s="23"/>
       <c r="E547" s="11" t="s">
-        <v>3209</v>
+        <v>3231</v>
       </c>
       <c r="F547" s="11" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="G547" s="11" t="s">
-        <v>3210</v>
+        <v>3232</v>
       </c>
       <c r="H547" s="11" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="548" spans="1:7">
       <c r="A548" s="23" t="s">
-        <v>3211</v>
+        <v>3233</v>
       </c>
       <c r="B548" s="23"/>
       <c r="C548" s="23"/>
       <c r="E548" s="11" t="s">
-        <v>3212</v>
+        <v>3234</v>
       </c>
       <c r="G548" s="11" t="s">
-        <v>3213</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="549" spans="1:7">
       <c r="A549" s="23" t="s">
-        <v>3214</v>
+        <v>3236</v>
       </c>
       <c r="B549" s="23"/>
       <c r="C549" s="23"/>
       <c r="E549" s="11" t="s">
-        <v>3215</v>
+        <v>3237</v>
       </c>
       <c r="G549" s="11" t="s">
-        <v>3216</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="550" spans="1:7">
       <c r="A550" s="23" t="s">
-        <v>3217</v>
+        <v>3239</v>
       </c>
       <c r="B550" s="23"/>
       <c r="C550" s="23"/>
       <c r="E550" s="11" t="s">
-        <v>3218</v>
+        <v>3240</v>
       </c>
       <c r="G550" s="11" t="s">
-        <v>3219</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="551" spans="1:7">
       <c r="A551" s="23" t="s">
-        <v>3220</v>
+        <v>3242</v>
       </c>
       <c r="B551" s="23"/>
       <c r="C551" s="23"/>
       <c r="E551" s="11" t="s">
-        <v>3221</v>
+        <v>3243</v>
       </c>
       <c r="G551" s="11" t="s">
-        <v>3222</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="552" spans="1:7">
       <c r="A552" s="23" t="s">
-        <v>3223</v>
+        <v>3245</v>
       </c>
       <c r="B552" s="23"/>
       <c r="C552" s="23"/>
       <c r="E552" s="11" t="s">
-        <v>3224</v>
+        <v>3246</v>
       </c>
       <c r="G552" s="11" t="s">
-        <v>3225</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -40916,73 +41033,73 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="23" t="s">
-        <v>3226</v>
+        <v>3248</v>
       </c>
       <c r="B554" s="23"/>
       <c r="C554" s="23"/>
       <c r="E554" s="11" t="s">
-        <v>3226</v>
+        <v>3248</v>
       </c>
       <c r="F554" s="11" t="s">
-        <v>2949</v>
+        <v>2951</v>
       </c>
       <c r="G554" s="11" t="s">
-        <v>3227</v>
+        <v>3249</v>
       </c>
       <c r="H554" s="11" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="555" spans="1:7">
       <c r="A555" s="23" t="s">
-        <v>3228</v>
+        <v>3250</v>
       </c>
       <c r="B555" s="23"/>
       <c r="C555" s="23"/>
       <c r="E555" s="11" t="s">
-        <v>3229</v>
+        <v>3251</v>
       </c>
       <c r="G555" s="11" t="s">
-        <v>3230</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="556" spans="1:7">
       <c r="A556" s="23" t="s">
-        <v>3231</v>
+        <v>3253</v>
       </c>
       <c r="B556" s="23"/>
       <c r="C556" s="23"/>
       <c r="E556" s="11" t="s">
-        <v>3232</v>
+        <v>3254</v>
       </c>
       <c r="G556" s="11" t="s">
-        <v>3233</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="557" spans="1:7">
       <c r="A557" s="23" t="s">
-        <v>3234</v>
+        <v>3256</v>
       </c>
       <c r="B557" s="23"/>
       <c r="C557" s="23"/>
       <c r="E557" s="11" t="s">
-        <v>3235</v>
+        <v>3257</v>
       </c>
       <c r="G557" s="11" t="s">
-        <v>3236</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="558" spans="1:7">
       <c r="A558" s="23" t="s">
-        <v>3237</v>
+        <v>3259</v>
       </c>
       <c r="B558" s="23"/>
       <c r="C558" s="23"/>
       <c r="E558" s="11" t="s">
-        <v>3238</v>
+        <v>3260</v>
       </c>
       <c r="G558" s="11" t="s">
-        <v>3239</v>
+        <v>3261</v>
       </c>
     </row>
   </sheetData>
@@ -41019,9 +41136,9 @@
   <dimension ref="A1:J261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I197" sqref="I197"/>
+      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -41045,25 +41162,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3240</v>
+        <v>3262</v>
       </c>
       <c r="D1" t="s">
-        <v>3241</v>
+        <v>3263</v>
       </c>
       <c r="E1" t="s">
-        <v>3242</v>
+        <v>3264</v>
       </c>
       <c r="F1" t="s">
-        <v>3243</v>
+        <v>3265</v>
       </c>
       <c r="G1" t="s">
-        <v>3244</v>
+        <v>3266</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3245</v>
+        <v>3267</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3246</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
@@ -41075,13 +41192,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -41112,7 +41229,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3248</v>
+        <v>3270</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>1555</v>
@@ -41150,7 +41267,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3249</v>
+        <v>3271</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1769</v>
@@ -41169,7 +41286,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>3250</v>
+        <v>3272</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1336</v>
@@ -41225,7 +41342,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>3251</v>
+        <v>3273</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>1340</v>
@@ -41244,10 +41361,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -41259,10 +41376,10 @@
         <v>A</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -41274,10 +41391,10 @@
         <v>B</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -41289,10 +41406,10 @@
         <v>C</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -41304,10 +41421,10 @@
         <v>D</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -41589,10 +41706,10 @@
         <v>20</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>3247</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -41604,7 +41721,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3252</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -41616,7 +41733,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3253</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -41628,7 +41745,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3254</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -41640,7 +41757,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3255</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -41652,7 +41769,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3256</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -41664,7 +41781,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3257</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -41676,7 +41793,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>3258</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -41688,7 +41805,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3259</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -41700,7 +41817,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>3260</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -41712,7 +41829,7 @@
         <v>2A</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>3261</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -41724,7 +41841,7 @@
         <v>2B</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3262</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -41736,7 +41853,7 @@
         <v>2C</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3263</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -41748,7 +41865,7 @@
         <v>2D</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>3264</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -41760,7 +41877,7 @@
         <v>2E</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>3265</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -41772,7 +41889,7 @@
         <v>2F</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3266</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -41784,7 +41901,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>3267</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -41796,7 +41913,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>3268</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -41904,7 +42021,7 @@
         <v>3A</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3269</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -41916,7 +42033,7 @@
         <v>3B</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3270</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -41940,7 +42057,7 @@
         <v>3D</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3271</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -41976,7 +42093,7 @@
         <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>3272</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -41988,7 +42105,7 @@
         <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>3273</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -42000,7 +42117,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>3274</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -42012,7 +42129,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>3275</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -42024,7 +42141,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>3276</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -42036,7 +42153,7 @@
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>3277</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -42048,7 +42165,7 @@
         <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3278</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -42060,7 +42177,7 @@
         <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>3279</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -42072,7 +42189,7 @@
         <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>3280</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -42084,7 +42201,7 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>3281</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -42096,7 +42213,7 @@
         <v>4A</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>3282</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -42108,7 +42225,7 @@
         <v>4B</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>3283</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -42120,7 +42237,7 @@
         <v>4C</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>3284</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -42132,7 +42249,7 @@
         <v>4D</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3285</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -42144,7 +42261,7 @@
         <v>4E</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>3286</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -42156,7 +42273,7 @@
         <v>4F</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>3287</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -42168,7 +42285,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>3288</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -42180,7 +42297,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>3289</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -42192,7 +42309,7 @@
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>3290</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -42204,7 +42321,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>3291</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -42216,7 +42333,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>3292</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -42228,7 +42345,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>3293</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -42240,7 +42357,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>3294</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -42252,7 +42369,7 @@
         <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3295</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -42264,7 +42381,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>3296</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -42276,7 +42393,7 @@
         <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>3297</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -42288,7 +42405,7 @@
         <v>5A</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>3298</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -42300,7 +42417,7 @@
         <v>5B</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>3299</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -42312,7 +42429,7 @@
         <v>5C</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>3300</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -42324,7 +42441,7 @@
         <v>5D</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>3301</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -42348,7 +42465,7 @@
         <v>5F</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>3302</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -42360,7 +42477,7 @@
         <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>3303</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -42372,7 +42489,7 @@
         <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>3304</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -42384,7 +42501,7 @@
         <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>3305</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -42396,7 +42513,7 @@
         <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>3306</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -42408,7 +42525,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>3307</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -42420,7 +42537,7 @@
         <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>3308</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -42432,7 +42549,7 @@
         <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>3309</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -42444,7 +42561,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>3310</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -42456,7 +42573,7 @@
         <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>3311</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -42468,7 +42585,7 @@
         <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>3312</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -42480,7 +42597,7 @@
         <v>6A</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>3313</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -42492,7 +42609,7 @@
         <v>6B</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>3314</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -42504,7 +42621,7 @@
         <v>6C</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>3315</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -42516,7 +42633,7 @@
         <v>6D</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>3316</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -42528,7 +42645,7 @@
         <v>6E</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>3317</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -42540,7 +42657,7 @@
         <v>6F</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>3318</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -42552,7 +42669,7 @@
         <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>3319</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -42564,7 +42681,7 @@
         <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>3320</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -42576,7 +42693,7 @@
         <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>3321</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -42588,7 +42705,7 @@
         <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>3322</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -42600,7 +42717,7 @@
         <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>3323</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -42612,7 +42729,7 @@
         <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>3324</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -42636,7 +42753,7 @@
         <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>3325</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -42648,7 +42765,7 @@
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>3326</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -42660,7 +42777,7 @@
         <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>3327</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -42672,7 +42789,7 @@
         <v>7A</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>3328</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -42684,7 +42801,7 @@
         <v>7B</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>3329</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -42696,7 +42813,7 @@
         <v>7C</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>3330</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -42708,7 +42825,7 @@
         <v>7D</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>3331</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -42720,7 +42837,7 @@
         <v>7E</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>3332</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -42732,10 +42849,10 @@
         <v>7F</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>3333</v>
+        <v>3355</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>3333</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -42765,13 +42882,13 @@
         <v>81</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>3334</v>
+        <v>3356</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>3334</v>
+        <v>3356</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>3335</v>
+        <v>3357</v>
       </c>
       <c r="I131" t="s">
         <v>258</v>
@@ -42792,7 +42909,7 @@
         <v>2151</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>3336</v>
+        <v>3358</v>
       </c>
       <c r="I132" t="s">
         <v>261</v>
@@ -42807,7 +42924,7 @@
         <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>3337</v>
+        <v>3359</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>1613</v>
@@ -42816,7 +42933,7 @@
         <v>1613</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>3338</v>
+        <v>3360</v>
       </c>
       <c r="I133" t="s">
         <v>263</v>
@@ -42834,13 +42951,13 @@
         <v>165</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>3339</v>
+        <v>3361</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>3339</v>
+        <v>3361</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>3340</v>
+        <v>3362</v>
       </c>
       <c r="I134" t="s">
         <v>265</v>
@@ -42858,13 +42975,13 @@
         <v>169</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>3341</v>
+        <v>3363</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>3341</v>
+        <v>3363</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>3342</v>
+        <v>3364</v>
       </c>
       <c r="I135" t="s">
         <v>268</v>
@@ -42879,16 +42996,16 @@
         <v>86</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>3343</v>
+        <v>3365</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>3344</v>
+        <v>3366</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>3344</v>
+        <v>3366</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>3345</v>
+        <v>3367</v>
       </c>
       <c r="I136" t="s">
         <v>271</v>
@@ -42948,13 +43065,13 @@
         <v>89</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>3346</v>
+        <v>3368</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>3347</v>
+        <v>3369</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>3347</v>
+        <v>3369</v>
       </c>
       <c r="I139" t="s">
         <v>282</v>
@@ -42969,7 +43086,7 @@
         <v>8A</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>3348</v>
+        <v>3370</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>1920</v>
@@ -42990,7 +43107,7 @@
         <v>8B</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>3349</v>
+        <v>3371</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>1929</v>
@@ -43014,13 +43131,13 @@
         <v>749</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>3350</v>
+        <v>3372</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>3350</v>
+        <v>3372</v>
       </c>
       <c r="I142" t="s">
-        <v>3351</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -43035,10 +43152,10 @@
         <v>753</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>3352</v>
+        <v>3374</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>3352</v>
+        <v>3374</v>
       </c>
       <c r="I143" t="s">
         <v>300</v>
@@ -43053,7 +43170,7 @@
         <v>8E</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>3353</v>
+        <v>3375</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>2384</v>
@@ -43062,7 +43179,7 @@
         <v>2384</v>
       </c>
       <c r="I144" t="s">
-        <v>3354</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -43074,13 +43191,13 @@
         <v>8F</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>3355</v>
+        <v>3377</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>3356</v>
+        <v>3378</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>3356</v>
+        <v>3378</v>
       </c>
       <c r="I145" t="s">
         <v>312</v>
@@ -43168,7 +43285,7 @@
         <v>2400</v>
       </c>
       <c r="I149" t="s">
-        <v>3357</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -43183,10 +43300,10 @@
         <v>233</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>3358</v>
+        <v>3380</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>3358</v>
+        <v>3380</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>332</v>
@@ -43204,10 +43321,10 @@
         <v>649</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>3359</v>
+        <v>3381</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>3359</v>
+        <v>3381</v>
       </c>
       <c r="I151" t="s">
         <v>335</v>
@@ -43252,7 +43369,7 @@
         <v>1610</v>
       </c>
       <c r="I153" t="s">
-        <v>3360</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -43288,10 +43405,10 @@
         <v>84</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>3361</v>
+        <v>3383</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>3361</v>
+        <v>3383</v>
       </c>
       <c r="I155" t="s">
         <v>353</v>
@@ -43306,7 +43423,7 @@
         <v>9A</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>3362</v>
+        <v>3384</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>1624</v>
@@ -43327,7 +43444,7 @@
         <v>9B</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>1628</v>
@@ -43369,7 +43486,7 @@
         <v>9D</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>3364</v>
+        <v>3386</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>1636</v>
@@ -43390,7 +43507,7 @@
         <v>9E</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>3365</v>
+        <v>3387</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>1640</v>
@@ -43516,13 +43633,13 @@
         <v>A4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>3366</v>
+        <v>3388</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>3367</v>
+        <v>3389</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>3367</v>
+        <v>3389</v>
       </c>
       <c r="I166" t="s">
         <v>402</v>
@@ -43537,7 +43654,7 @@
         <v>A5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>3368</v>
+        <v>3390</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>1854</v>
@@ -43567,7 +43684,7 @@
         <v>1794</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>3369</v>
+        <v>3391</v>
       </c>
       <c r="I168" t="s">
         <v>516</v>
@@ -43591,7 +43708,7 @@
         <v>1362</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>3370</v>
+        <v>3392</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>521</v>
@@ -43606,7 +43723,7 @@
         <v>A8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>3371</v>
+        <v>3393</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1672</v>
@@ -43615,7 +43732,7 @@
         <v>1672</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>3372</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -43627,7 +43744,7 @@
         <v>A9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>3373</v>
+        <v>3395</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>1235</v>
@@ -43690,7 +43807,7 @@
         <v>AC</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>3374</v>
+        <v>3396</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>1239</v>
@@ -43711,7 +43828,7 @@
         <v>AD</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>3375</v>
+        <v>3397</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>1810</v>
@@ -43732,7 +43849,7 @@
         <v>AE</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>3376</v>
+        <v>3398</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>1445</v>
@@ -43774,7 +43891,7 @@
         <v>B0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>3377</v>
+        <v>3399</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>1440</v>
@@ -43795,7 +43912,7 @@
         <v>B1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>3378</v>
+        <v>3400</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>1681</v>
@@ -43825,7 +43942,7 @@
         <v>1242</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>3379</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -43837,7 +43954,7 @@
         <v>B3</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>3380</v>
+        <v>3402</v>
       </c>
       <c r="E181" t="s">
         <v>1450</v>
@@ -43858,7 +43975,7 @@
         <v>B4</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>3381</v>
+        <v>3403</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>1857</v>
@@ -43900,7 +44017,7 @@
         <v>B6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>3382</v>
+        <v>3404</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>1245</v>
@@ -43921,7 +44038,7 @@
         <v>B7</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>3383</v>
+        <v>3405</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>1818</v>
@@ -43963,7 +44080,7 @@
         <v>B9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>3384</v>
+        <v>3406</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>1689</v>
@@ -43984,7 +44101,7 @@
         <v>BA</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>3385</v>
+        <v>3407</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>1248</v>
@@ -44005,7 +44122,7 @@
         <v>BB</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>3386</v>
+        <v>3408</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>1868</v>
@@ -44026,7 +44143,7 @@
         <v>BC</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>3387</v>
+        <v>3409</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>1465</v>
@@ -44110,7 +44227,7 @@
         <v>C0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>3388</v>
+        <v>3410</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>1252</v>
@@ -44131,7 +44248,7 @@
         <v>C1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>3389</v>
+        <v>3411</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>1469</v>
@@ -44152,7 +44269,7 @@
         <v>C2</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>3390</v>
+        <v>3412</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>1860</v>
@@ -44172,6 +44289,9 @@
         <f t="shared" si="3"/>
         <v>C3</v>
       </c>
+      <c r="D197" s="2" t="s">
+        <v>3413</v>
+      </c>
       <c r="E197" s="2" t="s">
         <v>1697</v>
       </c>
@@ -44491,7 +44611,7 @@
         <v>D8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>3391</v>
+        <v>3414</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>1725</v>
@@ -44518,7 +44638,7 @@
         <v>1287</v>
       </c>
       <c r="H219" t="s">
-        <v>3392</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -44539,7 +44659,7 @@
         <v>1729</v>
       </c>
       <c r="H220" t="s">
-        <v>3392</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -44551,7 +44671,7 @@
         <v>DB</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>3393</v>
+        <v>3416</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>1292</v>
@@ -44560,7 +44680,7 @@
         <v>1292</v>
       </c>
       <c r="H221" t="s">
-        <v>3392</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -44572,7 +44692,7 @@
         <v>DC</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>3394</v>
+        <v>3417</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>1506</v>
@@ -44593,7 +44713,7 @@
         <v>DD</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>3395</v>
+        <v>3418</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>1733</v>
@@ -44614,7 +44734,7 @@
         <v>DE</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>3396</v>
+        <v>3419</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>1296</v>
@@ -44623,7 +44743,7 @@
         <v>1296</v>
       </c>
       <c r="H224" t="s">
-        <v>3397</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -44635,7 +44755,7 @@
         <v>DF</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>3398</v>
+        <v>3421</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>1835</v>
@@ -44644,7 +44764,7 @@
         <v>1835</v>
       </c>
       <c r="H225" t="s">
-        <v>3397</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -44656,7 +44776,7 @@
         <v>E0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>3399</v>
+        <v>3422</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>102</v>
@@ -44665,7 +44785,7 @@
         <v>102</v>
       </c>
       <c r="H226" t="s">
-        <v>3397</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -44686,7 +44806,7 @@
         <v>1741</v>
       </c>
       <c r="H227" t="s">
-        <v>3400</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -44701,13 +44821,13 @@
         <v>2567</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>3401</v>
+        <v>3424</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>3401</v>
+        <v>3424</v>
       </c>
       <c r="H228" t="s">
-        <v>3400</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:8">
@@ -44719,7 +44839,7 @@
         <v>E3</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>3402</v>
+        <v>3425</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>1308</v>
@@ -44743,10 +44863,10 @@
         <v>2555</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>3403</v>
+        <v>3426</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>3403</v>
+        <v>3426</v>
       </c>
       <c r="H230" t="s">
         <v>2550</v>
@@ -44764,10 +44884,10 @@
         <v>2558</v>
       </c>
       <c r="E231" s="15" t="s">
-        <v>3404</v>
+        <v>3427</v>
       </c>
       <c r="F231" s="15" t="s">
-        <v>3404</v>
+        <v>3427</v>
       </c>
       <c r="H231" t="s">
         <v>2550</v>
@@ -44791,7 +44911,7 @@
         <v>1525</v>
       </c>
       <c r="H232" t="s">
-        <v>3405</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -44806,13 +44926,13 @@
         <v>2545</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>3406</v>
+        <v>3429</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>3406</v>
+        <v>3429</v>
       </c>
       <c r="H233" t="s">
-        <v>3405</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -44827,10 +44947,10 @@
         <v>2530</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>3407</v>
+        <v>3430</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>3407</v>
+        <v>3430</v>
       </c>
       <c r="H234" t="s">
         <v>2528</v>
@@ -44980,7 +45100,7 @@
         <v>1873</v>
       </c>
       <c r="H241" t="s">
-        <v>3408</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -45001,7 +45121,7 @@
         <v>1539</v>
       </c>
       <c r="H242" t="s">
-        <v>3408</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -45022,10 +45142,10 @@
         <v>1749</v>
       </c>
       <c r="H243" t="s">
-        <v>3409</v>
+        <v>3432</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -45037,7 +45157,7 @@
         <v>F2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>3410</v>
+        <v>3433</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>1317</v>
@@ -45046,10 +45166,10 @@
         <v>1317</v>
       </c>
       <c r="H244" t="s">
-        <v>3409</v>
+        <v>3432</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -45061,7 +45181,7 @@
         <v>F3</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>3411</v>
+        <v>3434</v>
       </c>
       <c r="E245" s="11" t="s">
         <v>1543</v>
@@ -45070,10 +45190,10 @@
         <v>1543</v>
       </c>
       <c r="H245" t="s">
-        <v>3409</v>
+        <v>3432</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -45094,10 +45214,10 @@
         <v>1881</v>
       </c>
       <c r="H246" t="s">
-        <v>3412</v>
+        <v>3435</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -45118,10 +45238,10 @@
         <v>1547</v>
       </c>
       <c r="H247" t="s">
-        <v>3412</v>
+        <v>3435</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -45142,10 +45262,10 @@
         <v>1753</v>
       </c>
       <c r="H248" t="s">
-        <v>3413</v>
+        <v>3436</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -45166,10 +45286,10 @@
         <v>1321</v>
       </c>
       <c r="H249" t="s">
-        <v>3413</v>
+        <v>3436</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -45190,10 +45310,10 @@
         <v>1847</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>3414</v>
+        <v>3437</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -45214,10 +45334,10 @@
         <v>1551</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>3414</v>
+        <v>3437</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -45229,7 +45349,7 @@
         <v>FA</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>3415</v>
+        <v>3438</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>1765</v>
@@ -45238,10 +45358,10 @@
         <v>1765</v>
       </c>
       <c r="H252" t="s">
-        <v>3416</v>
+        <v>3439</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -45253,7 +45373,7 @@
         <v>FB</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>3417</v>
+        <v>3440</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>1332</v>
@@ -45262,10 +45382,10 @@
         <v>1332</v>
       </c>
       <c r="H253" t="s">
-        <v>3416</v>
+        <v>3439</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -45273,10 +45393,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>3418</v>
+        <v>3441</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>3419</v>
+        <v>3442</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>1885</v>
@@ -45285,10 +45405,10 @@
         <v>1885</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>3420</v>
+        <v>3443</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>3363</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -45300,7 +45420,7 @@
         <v>FD</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>3421</v>
+        <v>3444</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>1761</v>
@@ -45309,10 +45429,10 @@
         <v>1761</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>3422</v>
+        <v>3445</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>3423</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -45333,10 +45453,10 @@
         <v>1328</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>3422</v>
+        <v>3445</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>3424</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -45348,13 +45468,13 @@
         <v>FF</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>3425</v>
+        <v>3448</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>3425</v>
+        <v>3448</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>3425</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="260" spans="4:4">

--- a/ccchi/字符串表.xlsx
+++ b/ccchi/字符串表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476">
   <si>
     <t>编号</t>
   </si>
@@ -9546,9 +9546,21 @@
     <t>Name=PSX Special Ops - GDI 1</t>
   </si>
   <si>
+    <t>PSX&amp;游戏机独占&amp;任务 - GDI 1</t>
+  </si>
+  <si>
+    <t>PSX&amp;cd&amp;02 - GDI 1</t>
+  </si>
+  <si>
     <t>1=Use the commando to take out the Nod turrets</t>
   </si>
   <si>
+    <t>让特种兵清除西边的炮塔,援军将会从此登陆,全歼敌军</t>
+  </si>
+  <si>
+    <t>f4&amp;d8</t>
+  </si>
+  <si>
     <t>1=使用特种兵清除掉NOD西边沙滩上的炮塔。</t>
   </si>
   <si>
@@ -9576,9 +9588,18 @@
     <t>Name=PSX Special Ops - GDI 2</t>
   </si>
   <si>
+    <t>PSX&amp;游戏机独占&amp;任务 - GDI 2</t>
+  </si>
+  <si>
+    <t>PSX&amp;cd&amp;02 - GDI 2</t>
+  </si>
+  <si>
     <t>1=Dr. Moebius has been trapped at his hospital</t>
   </si>
   <si>
+    <t>莫博士被困在医院中,诺德要杀害他,去营救他.</t>
+  </si>
+  <si>
     <t>1=莫比乌斯博士被蔓延的泰伯利亚困在了他的医院。</t>
   </si>
   <si>
@@ -9603,9 +9624,21 @@
     <t>Name=PSX Special Ops - GDI 3</t>
   </si>
   <si>
+    <t>PSX&amp;游戏机独占&amp;任务 - GDI 3</t>
+  </si>
+  <si>
+    <t>PSX&amp;cd&amp;02 - GDI 3</t>
+  </si>
+  <si>
     <t>1=Money is tight in this mission. Take over the</t>
   </si>
   <si>
+    <t>夺取西边诺德基地,利用其资源,摧毁南边主基地,全歼敌军</t>
+  </si>
+  <si>
+    <t>f1&amp;d8</t>
+  </si>
+  <si>
     <t>1=在这个任务中资金十分有限，拿下西边的NOD基地以利用他们的资源。</t>
   </si>
   <si>
@@ -9636,6 +9669,12 @@
     <t>Name=PSX Special Ops - PATSUX</t>
   </si>
   <si>
+    <t>PSX&amp;游戏机独占&amp;任务 - PATSUX</t>
+  </si>
+  <si>
+    <t>PSX&amp;cd&amp;02 - PATSUX</t>
+  </si>
+  <si>
     <t>Name=PSX 特别行动 - PATSUX</t>
   </si>
   <si>
@@ -9645,6 +9684,12 @@
     <t>1=You have just been laid off without a month's</t>
   </si>
   <si>
+    <t>你被Weirdis解雇了,没有得到一点报酬,他雇佣了Frankekiiii</t>
+  </si>
+  <si>
+    <t>ef&amp;Weirdis&amp;ee&amp;Frankekiiii</t>
+  </si>
+  <si>
     <t>1=你刚刚被weirdis解雇了，他们没有付给你</t>
   </si>
   <si>
@@ -9654,6 +9699,9 @@
     <t>2=pay from Weirdis. Your former bosses have</t>
   </si>
   <si>
+    <t>佣兵保护自己,和另外11名前雇员要建立基地消</t>
+  </si>
+  <si>
     <t>2=一点工钱。你的前任老板聘请了</t>
   </si>
   <si>
@@ -9663,6 +9711,9 @@
     <t>3=hired the Frankekiiii mercenaries to protect</t>
   </si>
   <si>
+    <t>灭他们</t>
+  </si>
+  <si>
     <t>3=frankekiiii佣兵来保护他们。</t>
   </si>
   <si>
@@ -9672,6 +9723,9 @@
     <t>4=them. You and eleven other former employees</t>
   </si>
   <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>4=你和另外11名前雇员</t>
   </si>
   <si>
@@ -9681,6 +9735,9 @@
     <t>5=are to build a base and wipe them out!##</t>
   </si>
   <si>
+    <t>我们改装了奥卡战机帮助你讨回正义.</t>
+  </si>
+  <si>
     <t>5=要建立一个基地并消灭他们！##</t>
   </si>
   <si>
@@ -9720,6 +9777,12 @@
     <t>Name=PSX Special Ops - Nod 1</t>
   </si>
   <si>
+    <t>PSX&amp;游戏机独占&amp;任务 - Nod 1</t>
+  </si>
+  <si>
+    <t>PSX&amp;cd&amp;02 - nod1</t>
+  </si>
+  <si>
     <t>Name=PSX 特别行动 - Nod 1</t>
   </si>
   <si>
@@ -9729,6 +9792,9 @@
     <t>1=The civilians here occupy an area the</t>
   </si>
   <si>
+    <t>平民占据了兄弟会的地盘,摧毁城镇,消灭平民</t>
+  </si>
+  <si>
     <t>1=这里的平民占据着兄弟会</t>
   </si>
   <si>
@@ -9738,6 +9804,9 @@
     <t>2=Brotherhood needs. Destroy the whole town</t>
   </si>
   <si>
+    <t>别让他们逃到北方的GDI基地</t>
+  </si>
+  <si>
     <t>2=的地盘。摧毁整个城镇</t>
   </si>
   <si>
@@ -9771,6 +9840,12 @@
     <t>Name=PSX Special Ops - Nod 2</t>
   </si>
   <si>
+    <t>PSX&amp;游戏机独占&amp;任务 - Nod 2</t>
+  </si>
+  <si>
+    <t>PSX&amp;cd&amp;02 - nod2</t>
+  </si>
+  <si>
     <t>Name=PSX 特别行动 - Nod 2</t>
   </si>
   <si>
@@ -9778,6 +9853,12 @@
   </si>
   <si>
     <t>1=The GDI base in this area must be destroyed.</t>
+  </si>
+  <si>
+    <t>全歼敌军&amp;,不过兄弟会没有多余的资源,你得想办法"弄"点</t>
+  </si>
+  <si>
+    <t>d8&amp;e5</t>
   </si>
   <si>
     <t>1=摧毁此区域的GDI基地。</t>
@@ -10420,29 +10501,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -10466,22 +10524,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10489,30 +10534,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -10550,6 +10594,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -10584,6 +10665,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10608,25 +10713,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10674,12 +10803,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -10699,48 +10822,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10855,30 +10936,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -10927,6 +10984,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10935,10 +11016,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10947,133 +11028,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -34719,16 +34800,16 @@
   <dimension ref="A1:J558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A490" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A508" sqref="$A480:$XFD508"/>
+      <selection pane="bottomLeft" activeCell="C557" sqref="C557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="94.875" style="22" customWidth="1"/>
     <col min="2" max="2" width="50.875" style="22" customWidth="1"/>
-    <col min="3" max="3" width="16" style="22" customWidth="1"/>
+    <col min="3" max="3" width="28.25" style="22" customWidth="1"/>
     <col min="4" max="4" width="8" style="11" customWidth="1"/>
     <col min="5" max="5" width="69.625" style="11" customWidth="1"/>
     <col min="6" max="6" width="12.875" style="11" customWidth="1"/>
@@ -40260,7 +40341,7 @@
         <v>3115</v>
       </c>
       <c r="C482" s="19" t="s">
-        <v>1714</v>
+        <v>1762</v>
       </c>
       <c r="E482" s="20" t="s">
         <v>3116</v>
@@ -40274,7 +40355,7 @@
         <v>3118</v>
       </c>
       <c r="C483" s="19" t="s">
-        <v>1272</v>
+        <v>1886</v>
       </c>
       <c r="E483" s="20" t="s">
         <v>3119</v>
@@ -40340,7 +40421,7 @@
         <v>3130</v>
       </c>
       <c r="C489" s="19" t="s">
-        <v>1710</v>
+        <v>1333</v>
       </c>
       <c r="E489" s="20" t="s">
         <v>3131</v>
@@ -40426,7 +40507,7 @@
         <v>3146</v>
       </c>
       <c r="C497" s="19" t="s">
-        <v>1268</v>
+        <v>1766</v>
       </c>
       <c r="E497" s="20" t="s">
         <v>3147</v>
@@ -40440,7 +40521,7 @@
         <v>3149</v>
       </c>
       <c r="C498" s="19" t="s">
-        <v>1705</v>
+        <v>1552</v>
       </c>
       <c r="E498" s="20" t="s">
         <v>3150</v>
@@ -40516,7 +40597,7 @@
         <v>3163</v>
       </c>
       <c r="C505" s="19" t="s">
-        <v>1823</v>
+        <v>1848</v>
       </c>
       <c r="E505" s="20" t="s">
         <v>3164</v>
@@ -40530,7 +40611,7 @@
         <v>3166</v>
       </c>
       <c r="C506" s="19" t="s">
-        <v>1263</v>
+        <v>1754</v>
       </c>
       <c r="E506" s="20" t="s">
         <v>3167</v>
@@ -40596,195 +40677,219 @@
       <c r="B513" s="23"/>
       <c r="C513" s="23"/>
     </row>
-    <row r="514" spans="1:5">
-      <c r="A514" s="23" t="s">
+    <row r="514" s="20" customFormat="1" spans="1:5">
+      <c r="A514" s="19" t="s">
         <v>3174</v>
       </c>
-      <c r="B514" s="23"/>
-      <c r="C514" s="23"/>
-      <c r="E514" s="11" t="s">
+      <c r="B514" s="19"/>
+      <c r="C514" s="19"/>
+      <c r="E514" s="20" t="s">
         <v>3174</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
-      <c r="A515" s="23" t="s">
+    <row r="515" s="20" customFormat="1" spans="1:5">
+      <c r="A515" s="19" t="s">
         <v>3175</v>
       </c>
-      <c r="B515" s="23"/>
-      <c r="C515" s="23"/>
-      <c r="E515" s="11" t="s">
+      <c r="B515" s="19" t="s">
+        <v>3176</v>
+      </c>
+      <c r="C515" s="19" t="s">
+        <v>3177</v>
+      </c>
+      <c r="E515" s="20" t="s">
         <v>3175</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
-      <c r="A516" s="23" t="s">
-        <v>3176</v>
-      </c>
-      <c r="B516" s="23"/>
-      <c r="C516" s="23"/>
-      <c r="E516" s="11" t="s">
-        <v>3177</v>
-      </c>
-      <c r="F516" s="11" t="s">
+    <row r="516" s="20" customFormat="1" spans="1:6">
+      <c r="A516" s="19" t="s">
         <v>3178</v>
       </c>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="23" t="s">
+      <c r="B516" s="19" t="s">
         <v>3179</v>
       </c>
-      <c r="B517" s="23"/>
-      <c r="C517" s="23"/>
-      <c r="E517" s="11" t="s">
+      <c r="C516" s="19" t="s">
         <v>3180</v>
       </c>
-    </row>
-    <row r="518" spans="1:5">
-      <c r="A518" s="23" t="s">
+      <c r="E516" s="20" t="s">
         <v>3181</v>
       </c>
-      <c r="B518" s="23"/>
-      <c r="C518" s="23"/>
-      <c r="E518" s="11" t="s">
+      <c r="F516" s="20" t="s">
         <v>3182</v>
       </c>
     </row>
-    <row r="519" spans="1:3">
-      <c r="A519" s="23" t="s">
+    <row r="517" s="20" customFormat="1" spans="1:5">
+      <c r="A517" s="19" t="s">
         <v>3183</v>
       </c>
-      <c r="B519" s="23"/>
-      <c r="C519" s="23"/>
+      <c r="B517" s="19"/>
+      <c r="C517" s="19"/>
+      <c r="E517" s="20" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="518" s="20" customFormat="1" spans="1:5">
+      <c r="A518" s="19" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B518" s="19"/>
+      <c r="C518" s="19"/>
+      <c r="E518" s="20" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="519" s="20" customFormat="1" spans="1:3">
+      <c r="A519" s="19" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B519" s="19"/>
+      <c r="C519" s="19"/>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" s="23"/>
       <c r="B520" s="23"/>
       <c r="C520" s="23"/>
     </row>
-    <row r="521" spans="1:5">
-      <c r="A521" s="23" t="s">
-        <v>3184</v>
-      </c>
-      <c r="B521" s="23"/>
-      <c r="C521" s="23"/>
-      <c r="E521" s="11" t="s">
-        <v>3184</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
-      <c r="A522" s="23" t="s">
-        <v>3185</v>
-      </c>
-      <c r="B522" s="23"/>
-      <c r="C522" s="23"/>
-      <c r="E522" s="11" t="s">
-        <v>3185</v>
-      </c>
-    </row>
-    <row r="523" spans="1:6">
-      <c r="A523" s="23" t="s">
-        <v>3186</v>
-      </c>
-      <c r="B523" s="23"/>
-      <c r="C523" s="23"/>
-      <c r="E523" s="11" t="s">
-        <v>3187</v>
-      </c>
-      <c r="F523" s="11" t="s">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
-      <c r="A524" s="23" t="s">
+    <row r="521" s="20" customFormat="1" spans="1:5">
+      <c r="A521" s="19" t="s">
         <v>3188</v>
       </c>
-      <c r="B524" s="23"/>
-      <c r="C524" s="23"/>
-      <c r="E524" s="11" t="s">
+      <c r="B521" s="19"/>
+      <c r="C521" s="19"/>
+      <c r="E521" s="20" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="522" s="20" customFormat="1" spans="1:5">
+      <c r="A522" s="19" t="s">
         <v>3189</v>
       </c>
-    </row>
-    <row r="525" spans="1:5">
-      <c r="A525" s="23" t="s">
+      <c r="B522" s="19" t="s">
         <v>3190</v>
       </c>
-      <c r="B525" s="23"/>
-      <c r="C525" s="23"/>
-      <c r="E525" s="11" t="s">
+      <c r="C522" s="19" t="s">
         <v>3191</v>
       </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="23" t="s">
+      <c r="E522" s="20" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="523" s="20" customFormat="1" spans="1:6">
+      <c r="A523" s="19" t="s">
         <v>3192</v>
       </c>
-      <c r="B526" s="23"/>
-      <c r="C526" s="23"/>
+      <c r="B523" s="19" t="s">
+        <v>3193</v>
+      </c>
+      <c r="C523" s="19" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E523" s="20" t="s">
+        <v>3194</v>
+      </c>
+      <c r="F523" s="20" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="524" s="20" customFormat="1" spans="1:5">
+      <c r="A524" s="19" t="s">
+        <v>3195</v>
+      </c>
+      <c r="B524" s="19"/>
+      <c r="C524" s="19"/>
+      <c r="E524" s="20" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="525" s="20" customFormat="1" spans="1:5">
+      <c r="A525" s="19" t="s">
+        <v>3197</v>
+      </c>
+      <c r="B525" s="19"/>
+      <c r="C525" s="19"/>
+      <c r="E525" s="20" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="526" s="20" customFormat="1" spans="1:3">
+      <c r="A526" s="19" t="s">
+        <v>3199</v>
+      </c>
+      <c r="B526" s="19"/>
+      <c r="C526" s="19"/>
     </row>
     <row r="527" spans="1:3">
       <c r="A527" s="23"/>
       <c r="B527" s="23"/>
       <c r="C527" s="23"/>
     </row>
-    <row r="528" spans="1:5">
-      <c r="A528" s="23" t="s">
-        <v>3193</v>
-      </c>
-      <c r="B528" s="23"/>
-      <c r="C528" s="23"/>
-      <c r="E528" s="11" t="s">
-        <v>3193</v>
-      </c>
-    </row>
-    <row r="529" spans="1:5">
-      <c r="A529" s="23" t="s">
-        <v>3194</v>
-      </c>
-      <c r="B529" s="23"/>
-      <c r="C529" s="23"/>
-      <c r="E529" s="11" t="s">
-        <v>3194</v>
-      </c>
-    </row>
-    <row r="530" spans="1:6">
-      <c r="A530" s="23" t="s">
-        <v>3195</v>
-      </c>
-      <c r="B530" s="23"/>
-      <c r="C530" s="23"/>
-      <c r="E530" s="11" t="s">
-        <v>3196</v>
-      </c>
-      <c r="F530" s="11" t="s">
-        <v>3178</v>
-      </c>
-    </row>
-    <row r="531" spans="1:5">
-      <c r="A531" s="23" t="s">
-        <v>3197</v>
-      </c>
-      <c r="B531" s="23"/>
-      <c r="C531" s="23"/>
-      <c r="E531" s="11" t="s">
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="532" spans="1:5">
-      <c r="A532" s="23" t="s">
-        <v>3199</v>
-      </c>
-      <c r="B532" s="23"/>
-      <c r="C532" s="23"/>
-      <c r="E532" s="11" t="s">
+    <row r="528" s="20" customFormat="1" spans="1:5">
+      <c r="A528" s="19" t="s">
         <v>3200</v>
       </c>
-    </row>
-    <row r="533" spans="1:3">
-      <c r="A533" s="23" t="s">
+      <c r="B528" s="19"/>
+      <c r="C528" s="19"/>
+      <c r="E528" s="20" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="529" s="20" customFormat="1" spans="1:5">
+      <c r="A529" s="19" t="s">
         <v>3201</v>
       </c>
-      <c r="B533" s="23"/>
-      <c r="C533" s="23"/>
+      <c r="B529" s="19" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C529" s="19" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E529" s="20" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="530" s="20" customFormat="1" spans="1:6">
+      <c r="A530" s="19" t="s">
+        <v>3204</v>
+      </c>
+      <c r="B530" s="19" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C530" s="19" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E530" s="20" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F530" s="20" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="531" s="20" customFormat="1" spans="1:5">
+      <c r="A531" s="19" t="s">
+        <v>3208</v>
+      </c>
+      <c r="B531" s="19"/>
+      <c r="C531" s="19"/>
+      <c r="E531" s="20" t="s">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="532" s="20" customFormat="1" spans="1:5">
+      <c r="A532" s="19" t="s">
+        <v>3210</v>
+      </c>
+      <c r="B532" s="19"/>
+      <c r="C532" s="19"/>
+      <c r="E532" s="20" t="s">
+        <v>3211</v>
+      </c>
+    </row>
+    <row r="533" s="20" customFormat="1" spans="1:3">
+      <c r="A533" s="19" t="s">
+        <v>3212</v>
+      </c>
+      <c r="B533" s="19"/>
+      <c r="C533" s="19"/>
     </row>
     <row r="534" spans="1:3">
       <c r="A534" s="23"/>
@@ -40798,23 +40903,23 @@
       <c r="B535" s="23"/>
       <c r="C535" s="23"/>
       <c r="E535" s="11" t="s">
-        <v>3202</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="536" spans="1:8">
       <c r="A536" s="23" t="s">
-        <v>3203</v>
+        <v>3214</v>
       </c>
       <c r="B536" s="23"/>
       <c r="C536" s="23"/>
       <c r="E536" s="11" t="s">
-        <v>3203</v>
+        <v>3214</v>
       </c>
       <c r="F536" s="11" t="s">
         <v>2951</v>
       </c>
       <c r="G536" s="11" t="s">
-        <v>3204</v>
+        <v>3215</v>
       </c>
       <c r="H536" s="11" t="s">
         <v>2953</v>
@@ -40822,119 +40927,141 @@
     </row>
     <row r="537" spans="1:7">
       <c r="A537" s="23" t="s">
-        <v>3205</v>
-      </c>
-      <c r="B537" s="23"/>
-      <c r="C537" s="23"/>
+        <v>3216</v>
+      </c>
+      <c r="B537" s="19" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C537" s="19" t="s">
+        <v>3218</v>
+      </c>
       <c r="E537" s="11" t="s">
-        <v>3206</v>
+        <v>3219</v>
       </c>
       <c r="G537" s="11" t="s">
-        <v>3207</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="538" spans="1:7">
       <c r="A538" s="23" t="s">
-        <v>3208</v>
-      </c>
-      <c r="B538" s="23"/>
-      <c r="C538" s="23"/>
+        <v>3221</v>
+      </c>
+      <c r="B538" s="23" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C538" s="23" t="s">
+        <v>3223</v>
+      </c>
       <c r="E538" s="11" t="s">
-        <v>3209</v>
+        <v>3224</v>
       </c>
       <c r="G538" s="11" t="s">
-        <v>3210</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="23" t="s">
-        <v>3211</v>
-      </c>
-      <c r="B539" s="23"/>
-      <c r="C539" s="23"/>
+        <v>3226</v>
+      </c>
+      <c r="B539" s="23" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C539" s="23" t="s">
+        <v>1314</v>
+      </c>
       <c r="E539" s="11" t="s">
-        <v>3212</v>
+        <v>3228</v>
       </c>
       <c r="G539" s="11" t="s">
-        <v>3213</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="540" spans="1:7">
       <c r="A540" s="23" t="s">
-        <v>3214</v>
-      </c>
-      <c r="B540" s="23"/>
-      <c r="C540" s="23"/>
+        <v>3230</v>
+      </c>
+      <c r="B540" s="23" t="s">
+        <v>3231</v>
+      </c>
+      <c r="C540" s="23" t="s">
+        <v>1746</v>
+      </c>
       <c r="E540" s="11" t="s">
-        <v>3215</v>
+        <v>3232</v>
       </c>
       <c r="G540" s="11" t="s">
-        <v>3216</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="541" spans="1:7">
       <c r="A541" s="23" t="s">
-        <v>3217</v>
+        <v>3234</v>
       </c>
       <c r="B541" s="23"/>
-      <c r="C541" s="23"/>
+      <c r="C541" s="23" t="s">
+        <v>3235</v>
+      </c>
       <c r="E541" s="11" t="s">
-        <v>3218</v>
+        <v>3236</v>
       </c>
       <c r="G541" s="11" t="s">
-        <v>3219</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="542" spans="1:7">
       <c r="A542" s="23" t="s">
-        <v>3220</v>
-      </c>
-      <c r="B542" s="23"/>
-      <c r="C542" s="23"/>
+        <v>3238</v>
+      </c>
+      <c r="B542" s="23" t="s">
+        <v>3239</v>
+      </c>
+      <c r="C542" s="23" t="s">
+        <v>1878</v>
+      </c>
       <c r="E542" s="11" t="s">
-        <v>3221</v>
+        <v>3240</v>
       </c>
       <c r="G542" s="11" t="s">
-        <v>3222</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="543" spans="1:7">
       <c r="A543" s="23" t="s">
-        <v>3223</v>
+        <v>3242</v>
       </c>
       <c r="B543" s="23"/>
       <c r="C543" s="23"/>
       <c r="E543" s="11" t="s">
-        <v>3223</v>
+        <v>3242</v>
       </c>
       <c r="G543" s="11" t="s">
-        <v>3224</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="544" spans="1:7">
       <c r="A544" s="23" t="s">
-        <v>3225</v>
+        <v>3244</v>
       </c>
       <c r="B544" s="23"/>
       <c r="C544" s="23"/>
       <c r="E544" s="11" t="s">
-        <v>3226</v>
+        <v>3245</v>
       </c>
       <c r="G544" s="11" t="s">
-        <v>3227</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="545" spans="1:7">
       <c r="A545" s="23" t="s">
-        <v>3228</v>
+        <v>3247</v>
       </c>
       <c r="B545" s="23"/>
       <c r="C545" s="23"/>
       <c r="E545" s="11" t="s">
-        <v>3229</v>
+        <v>3248</v>
       </c>
       <c r="G545" s="11" t="s">
-        <v>3230</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -40944,18 +41071,18 @@
     </row>
     <row r="547" spans="1:8">
       <c r="A547" s="23" t="s">
-        <v>3231</v>
+        <v>3250</v>
       </c>
       <c r="B547" s="23"/>
       <c r="C547" s="23"/>
       <c r="E547" s="11" t="s">
-        <v>3231</v>
+        <v>3250</v>
       </c>
       <c r="F547" s="11" t="s">
         <v>2951</v>
       </c>
       <c r="G547" s="11" t="s">
-        <v>3232</v>
+        <v>3251</v>
       </c>
       <c r="H547" s="11" t="s">
         <v>2953</v>
@@ -40963,67 +41090,79 @@
     </row>
     <row r="548" spans="1:7">
       <c r="A548" s="23" t="s">
-        <v>3233</v>
-      </c>
-      <c r="B548" s="23"/>
-      <c r="C548" s="23"/>
+        <v>3252</v>
+      </c>
+      <c r="B548" s="19" t="s">
+        <v>3253</v>
+      </c>
+      <c r="C548" s="19" t="s">
+        <v>3254</v>
+      </c>
       <c r="E548" s="11" t="s">
-        <v>3234</v>
+        <v>3255</v>
       </c>
       <c r="G548" s="11" t="s">
-        <v>3235</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="549" spans="1:7">
       <c r="A549" s="23" t="s">
-        <v>3236</v>
-      </c>
-      <c r="B549" s="23"/>
-      <c r="C549" s="23"/>
+        <v>3257</v>
+      </c>
+      <c r="B549" s="23" t="s">
+        <v>3258</v>
+      </c>
+      <c r="C549" s="23" t="s">
+        <v>2740</v>
+      </c>
       <c r="E549" s="11" t="s">
-        <v>3237</v>
+        <v>3259</v>
       </c>
       <c r="G549" s="11" t="s">
-        <v>3238</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="550" spans="1:7">
       <c r="A550" s="23" t="s">
-        <v>3239</v>
-      </c>
-      <c r="B550" s="23"/>
-      <c r="C550" s="23"/>
+        <v>3261</v>
+      </c>
+      <c r="B550" s="23" t="s">
+        <v>3262</v>
+      </c>
+      <c r="C550" s="23" t="s">
+        <v>2751</v>
+      </c>
       <c r="E550" s="11" t="s">
-        <v>3240</v>
+        <v>3263</v>
       </c>
       <c r="G550" s="11" t="s">
-        <v>3241</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="551" spans="1:7">
       <c r="A551" s="23" t="s">
-        <v>3242</v>
+        <v>3265</v>
       </c>
       <c r="B551" s="23"/>
       <c r="C551" s="23"/>
       <c r="E551" s="11" t="s">
-        <v>3243</v>
+        <v>3266</v>
       </c>
       <c r="G551" s="11" t="s">
-        <v>3244</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="552" spans="1:7">
       <c r="A552" s="23" t="s">
-        <v>3245</v>
+        <v>3268</v>
       </c>
       <c r="B552" s="23"/>
       <c r="C552" s="23"/>
       <c r="E552" s="11" t="s">
-        <v>3246</v>
+        <v>3269</v>
       </c>
       <c r="G552" s="11" t="s">
-        <v>3247</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -41033,18 +41172,16 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" s="23" t="s">
-        <v>3248</v>
-      </c>
-      <c r="B554" s="23"/>
-      <c r="C554" s="23"/>
+        <v>3271</v>
+      </c>
       <c r="E554" s="11" t="s">
-        <v>3248</v>
+        <v>3271</v>
       </c>
       <c r="F554" s="11" t="s">
         <v>2951</v>
       </c>
       <c r="G554" s="11" t="s">
-        <v>3249</v>
+        <v>3272</v>
       </c>
       <c r="H554" s="11" t="s">
         <v>2953</v>
@@ -41052,54 +41189,62 @@
     </row>
     <row r="555" spans="1:7">
       <c r="A555" s="23" t="s">
-        <v>3250</v>
-      </c>
-      <c r="B555" s="23"/>
-      <c r="C555" s="23"/>
+        <v>3273</v>
+      </c>
+      <c r="B555" s="19" t="s">
+        <v>3274</v>
+      </c>
+      <c r="C555" s="19" t="s">
+        <v>3275</v>
+      </c>
       <c r="E555" s="11" t="s">
-        <v>3251</v>
+        <v>3276</v>
       </c>
       <c r="G555" s="11" t="s">
-        <v>3252</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="556" spans="1:7">
       <c r="A556" s="23" t="s">
-        <v>3253</v>
-      </c>
-      <c r="B556" s="23"/>
-      <c r="C556" s="23"/>
+        <v>3278</v>
+      </c>
+      <c r="B556" s="23" t="s">
+        <v>3279</v>
+      </c>
+      <c r="C556" s="23" t="s">
+        <v>3280</v>
+      </c>
       <c r="E556" s="11" t="s">
-        <v>3254</v>
+        <v>3281</v>
       </c>
       <c r="G556" s="11" t="s">
-        <v>3255</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="557" spans="1:7">
       <c r="A557" s="23" t="s">
-        <v>3256</v>
+        <v>3283</v>
       </c>
       <c r="B557" s="23"/>
       <c r="C557" s="23"/>
       <c r="E557" s="11" t="s">
-        <v>3257</v>
+        <v>3284</v>
       </c>
       <c r="G557" s="11" t="s">
-        <v>3258</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="558" spans="1:7">
       <c r="A558" s="23" t="s">
-        <v>3259</v>
+        <v>3286</v>
       </c>
       <c r="B558" s="23"/>
       <c r="C558" s="23"/>
       <c r="E558" s="11" t="s">
-        <v>3260</v>
+        <v>3287</v>
       </c>
       <c r="G558" s="11" t="s">
-        <v>3261</v>
+        <v>3288</v>
       </c>
     </row>
   </sheetData>
@@ -41162,25 +41307,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3262</v>
+        <v>3289</v>
       </c>
       <c r="D1" t="s">
-        <v>3263</v>
+        <v>3290</v>
       </c>
       <c r="E1" t="s">
-        <v>3264</v>
+        <v>3291</v>
       </c>
       <c r="F1" t="s">
-        <v>3265</v>
+        <v>3292</v>
       </c>
       <c r="G1" t="s">
-        <v>3266</v>
+        <v>3293</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>3267</v>
+        <v>3294</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>3268</v>
+        <v>3295</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
@@ -41192,13 +41337,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -41229,7 +41374,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>3270</v>
+        <v>3297</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>1555</v>
@@ -41267,7 +41412,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3271</v>
+        <v>3298</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>1769</v>
@@ -41286,7 +41431,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>3272</v>
+        <v>3299</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>1336</v>
@@ -41342,7 +41487,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>3273</v>
+        <v>3300</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>1340</v>
@@ -41361,10 +41506,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -41376,10 +41521,10 @@
         <v>A</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -41391,10 +41536,10 @@
         <v>B</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -41406,10 +41551,10 @@
         <v>C</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -41421,10 +41566,10 @@
         <v>D</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -41706,10 +41851,10 @@
         <v>20</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>3269</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -41721,7 +41866,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3274</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -41733,7 +41878,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3275</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -41745,7 +41890,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3276</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -41757,7 +41902,7 @@
         <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3277</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -41769,7 +41914,7 @@
         <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3278</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -41781,7 +41926,7 @@
         <v>26</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3279</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -41793,7 +41938,7 @@
         <v>27</v>
       </c>
       <c r="C41" s="59" t="s">
-        <v>3280</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -41805,7 +41950,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>3281</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -41817,7 +41962,7 @@
         <v>29</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>3282</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -41829,7 +41974,7 @@
         <v>2A</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>3283</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -41841,7 +41986,7 @@
         <v>2B</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>3284</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -41853,7 +41998,7 @@
         <v>2C</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>3285</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -41865,7 +42010,7 @@
         <v>2D</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>3286</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -41877,7 +42022,7 @@
         <v>2E</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>3287</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -41889,7 +42034,7 @@
         <v>2F</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>3288</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -41901,7 +42046,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>3289</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -41913,7 +42058,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>3290</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -42021,7 +42166,7 @@
         <v>3A</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>3291</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -42033,7 +42178,7 @@
         <v>3B</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>3292</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -42057,7 +42202,7 @@
         <v>3D</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>3293</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -42093,7 +42238,7 @@
         <v>40</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>3294</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -42105,7 +42250,7 @@
         <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>3295</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -42117,7 +42262,7 @@
         <v>42</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>3296</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -42129,7 +42274,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>3297</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -42141,7 +42286,7 @@
         <v>44</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>3298</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -42153,7 +42298,7 @@
         <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>3299</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -42165,7 +42310,7 @@
         <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3300</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -42177,7 +42322,7 @@
         <v>47</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>3301</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -42189,7 +42334,7 @@
         <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>3302</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -42201,7 +42346,7 @@
         <v>49</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>3303</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -42213,7 +42358,7 @@
         <v>4A</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>3304</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -42225,7 +42370,7 @@
         <v>4B</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>3305</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -42237,7 +42382,7 @@
         <v>4C</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>3306</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -42249,7 +42394,7 @@
         <v>4D</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>3307</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -42261,7 +42406,7 @@
         <v>4E</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>3308</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -42273,7 +42418,7 @@
         <v>4F</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>3309</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -42285,7 +42430,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>3310</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -42297,7 +42442,7 @@
         <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>3311</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -42309,7 +42454,7 @@
         <v>52</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>3312</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -42321,7 +42466,7 @@
         <v>53</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>3313</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -42333,7 +42478,7 @@
         <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>3314</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -42345,7 +42490,7 @@
         <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>3315</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -42357,7 +42502,7 @@
         <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>3316</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -42369,7 +42514,7 @@
         <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3317</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -42381,7 +42526,7 @@
         <v>58</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>3318</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -42393,7 +42538,7 @@
         <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>3319</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -42405,7 +42550,7 @@
         <v>5A</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>3320</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -42417,7 +42562,7 @@
         <v>5B</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>3321</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -42429,7 +42574,7 @@
         <v>5C</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>3322</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -42441,7 +42586,7 @@
         <v>5D</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>3323</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -42465,7 +42610,7 @@
         <v>5F</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>3324</v>
+        <v>3351</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -42477,7 +42622,7 @@
         <v>60</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>3325</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -42489,7 +42634,7 @@
         <v>61</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>3326</v>
+        <v>3353</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -42501,7 +42646,7 @@
         <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>3327</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -42513,7 +42658,7 @@
         <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>3328</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -42525,7 +42670,7 @@
         <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>3329</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -42537,7 +42682,7 @@
         <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>3330</v>
+        <v>3357</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -42549,7 +42694,7 @@
         <v>66</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>3331</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -42561,7 +42706,7 @@
         <v>67</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>3332</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -42573,7 +42718,7 @@
         <v>68</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>3333</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -42585,7 +42730,7 @@
         <v>69</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>3334</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -42597,7 +42742,7 @@
         <v>6A</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>3335</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -42609,7 +42754,7 @@
         <v>6B</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>3336</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -42621,7 +42766,7 @@
         <v>6C</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>3337</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -42633,7 +42778,7 @@
         <v>6D</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>3338</v>
+        <v>3365</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -42645,7 +42790,7 @@
         <v>6E</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>3339</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -42657,7 +42802,7 @@
         <v>6F</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>3340</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -42669,7 +42814,7 @@
         <v>70</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>3341</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -42681,7 +42826,7 @@
         <v>71</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>3342</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -42693,7 +42838,7 @@
         <v>72</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>3343</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -42705,7 +42850,7 @@
         <v>73</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>3344</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -42717,7 +42862,7 @@
         <v>74</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>3345</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -42729,7 +42874,7 @@
         <v>75</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>3346</v>
+        <v>3373</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -42753,7 +42898,7 @@
         <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>3347</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -42765,7 +42910,7 @@
         <v>78</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>3348</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -42777,7 +42922,7 @@
         <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>3349</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -42789,7 +42934,7 @@
         <v>7A</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>3350</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -42801,7 +42946,7 @@
         <v>7B</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>3351</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -42813,7 +42958,7 @@
         <v>7C</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>3352</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -42825,7 +42970,7 @@
         <v>7D</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>3353</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -42837,7 +42982,7 @@
         <v>7E</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>3354</v>
+        <v>3381</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -42849,10 +42994,10 @@
         <v>7F</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>3355</v>
+        <v>3382</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>3355</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -42882,13 +43027,13 @@
         <v>81</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>3356</v>
+        <v>3383</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>3356</v>
+        <v>3383</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>3357</v>
+        <v>3384</v>
       </c>
       <c r="I131" t="s">
         <v>258</v>
@@ -42909,7 +43054,7 @@
         <v>2151</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>3358</v>
+        <v>3385</v>
       </c>
       <c r="I132" t="s">
         <v>261</v>
@@ -42924,7 +43069,7 @@
         <v>83</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>3359</v>
+        <v>3386</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>1613</v>
@@ -42933,7 +43078,7 @@
         <v>1613</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>3360</v>
+        <v>3387</v>
       </c>
       <c r="I133" t="s">
         <v>263</v>
@@ -42951,13 +43096,13 @@
         <v>165</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>3361</v>
+        <v>3388</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>3361</v>
+        <v>3388</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>3362</v>
+        <v>3389</v>
       </c>
       <c r="I134" t="s">
         <v>265</v>
@@ -42975,13 +43120,13 @@
         <v>169</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>3363</v>
+        <v>3390</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>3363</v>
+        <v>3390</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>3364</v>
+        <v>3391</v>
       </c>
       <c r="I135" t="s">
         <v>268</v>
@@ -42996,16 +43141,16 @@
         <v>86</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>3365</v>
+        <v>3392</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>3366</v>
+        <v>3393</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>3366</v>
+        <v>3393</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>3367</v>
+        <v>3394</v>
       </c>
       <c r="I136" t="s">
         <v>271</v>
@@ -43065,13 +43210,13 @@
         <v>89</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>3368</v>
+        <v>3395</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>3369</v>
+        <v>3396</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>3369</v>
+        <v>3396</v>
       </c>
       <c r="I139" t="s">
         <v>282</v>
@@ -43086,7 +43231,7 @@
         <v>8A</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>3370</v>
+        <v>3397</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>1920</v>
@@ -43107,7 +43252,7 @@
         <v>8B</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>3371</v>
+        <v>3398</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>1929</v>
@@ -43131,13 +43276,13 @@
         <v>749</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>3372</v>
+        <v>3399</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>3372</v>
+        <v>3399</v>
       </c>
       <c r="I142" t="s">
-        <v>3373</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -43152,10 +43297,10 @@
         <v>753</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>3374</v>
+        <v>3401</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>3374</v>
+        <v>3401</v>
       </c>
       <c r="I143" t="s">
         <v>300</v>
@@ -43170,7 +43315,7 @@
         <v>8E</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>3375</v>
+        <v>3402</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>2384</v>
@@ -43179,7 +43324,7 @@
         <v>2384</v>
       </c>
       <c r="I144" t="s">
-        <v>3376</v>
+        <v>3403</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -43191,13 +43336,13 @@
         <v>8F</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>3377</v>
+        <v>3404</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>3378</v>
+        <v>3405</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>3378</v>
+        <v>3405</v>
       </c>
       <c r="I145" t="s">
         <v>312</v>
@@ -43285,7 +43430,7 @@
         <v>2400</v>
       </c>
       <c r="I149" t="s">
-        <v>3379</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -43300,10 +43445,10 @@
         <v>233</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>3380</v>
+        <v>3407</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>3380</v>
+        <v>3407</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>332</v>
@@ -43321,10 +43466,10 @@
         <v>649</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>3381</v>
+        <v>3408</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>3381</v>
+        <v>3408</v>
       </c>
       <c r="I151" t="s">
         <v>335</v>
@@ -43369,7 +43514,7 @@
         <v>1610</v>
       </c>
       <c r="I153" t="s">
-        <v>3382</v>
+        <v>3409</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -43405,10 +43550,10 @@
         <v>84</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>3383</v>
+        <v>3410</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>3383</v>
+        <v>3410</v>
       </c>
       <c r="I155" t="s">
         <v>353</v>
@@ -43423,7 +43568,7 @@
         <v>9A</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>3384</v>
+        <v>3411</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>1624</v>
@@ -43444,7 +43589,7 @@
         <v>9B</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>1628</v>
@@ -43486,7 +43631,7 @@
         <v>9D</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>3386</v>
+        <v>3413</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>1636</v>
@@ -43507,7 +43652,7 @@
         <v>9E</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>3387</v>
+        <v>3414</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>1640</v>
@@ -43633,13 +43778,13 @@
         <v>A4</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>3388</v>
+        <v>3415</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>3389</v>
+        <v>3416</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>3389</v>
+        <v>3416</v>
       </c>
       <c r="I166" t="s">
         <v>402</v>
@@ -43654,7 +43799,7 @@
         <v>A5</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>3390</v>
+        <v>3417</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>1854</v>
@@ -43684,7 +43829,7 @@
         <v>1794</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>3391</v>
+        <v>3418</v>
       </c>
       <c r="I168" t="s">
         <v>516</v>
@@ -43708,7 +43853,7 @@
         <v>1362</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>3392</v>
+        <v>3419</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>521</v>
@@ -43723,7 +43868,7 @@
         <v>A8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>3393</v>
+        <v>3420</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>1672</v>
@@ -43732,7 +43877,7 @@
         <v>1672</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>3394</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -43744,7 +43889,7 @@
         <v>A9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>3395</v>
+        <v>3422</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>1235</v>
@@ -43807,7 +43952,7 @@
         <v>AC</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>3396</v>
+        <v>3423</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>1239</v>
@@ -43828,7 +43973,7 @@
         <v>AD</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>3397</v>
+        <v>3424</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>1810</v>
@@ -43849,7 +43994,7 @@
         <v>AE</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>3398</v>
+        <v>3425</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>1445</v>
@@ -43891,7 +44036,7 @@
         <v>B0</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>3399</v>
+        <v>3426</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>1440</v>
@@ -43912,7 +44057,7 @@
         <v>B1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>3400</v>
+        <v>3427</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>1681</v>
@@ -43942,7 +44087,7 @@
         <v>1242</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>3401</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -43954,7 +44099,7 @@
         <v>B3</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>3402</v>
+        <v>3429</v>
       </c>
       <c r="E181" t="s">
         <v>1450</v>
@@ -43975,7 +44120,7 @@
         <v>B4</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>3403</v>
+        <v>3430</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>1857</v>
@@ -44017,7 +44162,7 @@
         <v>B6</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>3404</v>
+        <v>3431</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>1245</v>
@@ -44038,7 +44183,7 @@
         <v>B7</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>3405</v>
+        <v>3432</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>1818</v>
@@ -44080,7 +44225,7 @@
         <v>B9</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>3406</v>
+        <v>3433</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>1689</v>
@@ -44101,7 +44246,7 @@
         <v>BA</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>3407</v>
+        <v>3434</v>
       </c>
       <c r="E188" s="12" t="s">
         <v>1248</v>
@@ -44122,7 +44267,7 @@
         <v>BB</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>3408</v>
+        <v>3435</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>1868</v>
@@ -44143,7 +44288,7 @@
         <v>BC</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>3409</v>
+        <v>3436</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>1465</v>
@@ -44227,7 +44372,7 @@
         <v>C0</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>3410</v>
+        <v>3437</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>1252</v>
@@ -44248,7 +44393,7 @@
         <v>C1</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>3411</v>
+        <v>3438</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>1469</v>
@@ -44269,7 +44414,7 @@
         <v>C2</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>3412</v>
+        <v>3439</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>1860</v>
@@ -44290,7 +44435,7 @@
         <v>C3</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>3413</v>
+        <v>3440</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>1697</v>
@@ -44611,7 +44756,7 @@
         <v>D8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>3414</v>
+        <v>3441</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>1725</v>
@@ -44638,7 +44783,7 @@
         <v>1287</v>
       </c>
       <c r="H219" t="s">
-        <v>3415</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -44659,7 +44804,7 @@
         <v>1729</v>
       </c>
       <c r="H220" t="s">
-        <v>3415</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -44671,7 +44816,7 @@
         <v>DB</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>3416</v>
+        <v>3443</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>1292</v>
@@ -44680,7 +44825,7 @@
         <v>1292</v>
       </c>
       <c r="H221" t="s">
-        <v>3415</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -44692,7 +44837,7 @@
         <v>DC</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>3417</v>
+        <v>3444</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>1506</v>
@@ -44713,7 +44858,7 @@
         <v>DD</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>3418</v>
+        <v>3445</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>1733</v>
@@ -44734,7 +44879,7 @@
         <v>DE</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>3419</v>
+        <v>3446</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>1296</v>
@@ -44743,7 +44888,7 @@
         <v>1296</v>
       </c>
       <c r="H224" t="s">
-        <v>3420</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -44755,7 +44900,7 @@
         <v>DF</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>3421</v>
+        <v>3448</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>1835</v>
@@ -44764,7 +44909,7 @@
         <v>1835</v>
       </c>
       <c r="H225" t="s">
-        <v>3420</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -44776,7 +44921,7 @@
         <v>E0</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>3422</v>
+        <v>3449</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>102</v>
@@ -44785,7 +44930,7 @@
         <v>102</v>
       </c>
       <c r="H226" t="s">
-        <v>3420</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -44806,7 +44951,7 @@
         <v>1741</v>
       </c>
       <c r="H227" t="s">
-        <v>3423</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -44821,13 +44966,13 @@
         <v>2567</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>3424</v>
+        <v>3451</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>3424</v>
+        <v>3451</v>
       </c>
       <c r="H228" t="s">
-        <v>3423</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="229" ht="17" customHeight="1" spans="1:8">
@@ -44839,7 +44984,7 @@
         <v>E3</v>
       </c>
       <c r="D229" s="13" t="s">
-        <v>3425</v>
+        <v>3452</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>1308</v>
@@ -44863,10 +45008,10 @@
         <v>2555</v>
       </c>
       <c r="E230" s="14" t="s">
-        <v>3426</v>
+        <v>3453</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>3426</v>
+        <v>3453</v>
       </c>
       <c r="H230" t="s">
         <v>2550</v>
@@ -44884,10 +45029,10 @@
         <v>2558</v>
       </c>
       <c r="E231" s="15" t="s">
-        <v>3427</v>
+        <v>3454</v>
       </c>
       <c r="F231" s="15" t="s">
-        <v>3427</v>
+        <v>3454</v>
       </c>
       <c r="H231" t="s">
         <v>2550</v>
@@ -44911,7 +45056,7 @@
         <v>1525</v>
       </c>
       <c r="H232" t="s">
-        <v>3428</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -44926,13 +45071,13 @@
         <v>2545</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>3429</v>
+        <v>3456</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>3429</v>
+        <v>3456</v>
       </c>
       <c r="H233" t="s">
-        <v>3428</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -44947,10 +45092,10 @@
         <v>2530</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>3430</v>
+        <v>3457</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>3430</v>
+        <v>3457</v>
       </c>
       <c r="H234" t="s">
         <v>2528</v>
@@ -45100,7 +45245,7 @@
         <v>1873</v>
       </c>
       <c r="H241" t="s">
-        <v>3431</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -45121,7 +45266,7 @@
         <v>1539</v>
       </c>
       <c r="H242" t="s">
-        <v>3431</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -45142,10 +45287,10 @@
         <v>1749</v>
       </c>
       <c r="H243" t="s">
-        <v>3432</v>
+        <v>3459</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -45157,7 +45302,7 @@
         <v>F2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>3433</v>
+        <v>3460</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>1317</v>
@@ -45166,10 +45311,10 @@
         <v>1317</v>
       </c>
       <c r="H244" t="s">
-        <v>3432</v>
+        <v>3459</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -45181,7 +45326,7 @@
         <v>F3</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>3434</v>
+        <v>3461</v>
       </c>
       <c r="E245" s="11" t="s">
         <v>1543</v>
@@ -45190,10 +45335,10 @@
         <v>1543</v>
       </c>
       <c r="H245" t="s">
-        <v>3432</v>
+        <v>3459</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -45214,10 +45359,10 @@
         <v>1881</v>
       </c>
       <c r="H246" t="s">
-        <v>3435</v>
+        <v>3462</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="247" spans="1:10">
@@ -45238,10 +45383,10 @@
         <v>1547</v>
       </c>
       <c r="H247" t="s">
-        <v>3435</v>
+        <v>3462</v>
       </c>
       <c r="J247" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="248" spans="1:10">
@@ -45262,10 +45407,10 @@
         <v>1753</v>
       </c>
       <c r="H248" t="s">
-        <v>3436</v>
+        <v>3463</v>
       </c>
       <c r="J248" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="249" spans="1:10">
@@ -45286,10 +45431,10 @@
         <v>1321</v>
       </c>
       <c r="H249" t="s">
-        <v>3436</v>
+        <v>3463</v>
       </c>
       <c r="J249" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="250" spans="1:10">
@@ -45310,10 +45455,10 @@
         <v>1847</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>3437</v>
+        <v>3464</v>
       </c>
       <c r="J250" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="251" spans="1:10">
@@ -45334,10 +45479,10 @@
         <v>1551</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>3437</v>
+        <v>3464</v>
       </c>
       <c r="J251" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="252" spans="1:10">
@@ -45349,7 +45494,7 @@
         <v>FA</v>
       </c>
       <c r="D252" s="18" t="s">
-        <v>3438</v>
+        <v>3465</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>1765</v>
@@ -45358,10 +45503,10 @@
         <v>1765</v>
       </c>
       <c r="H252" t="s">
-        <v>3439</v>
+        <v>3466</v>
       </c>
       <c r="J252" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="253" spans="1:10">
@@ -45373,7 +45518,7 @@
         <v>FB</v>
       </c>
       <c r="D253" s="19" t="s">
-        <v>3440</v>
+        <v>3467</v>
       </c>
       <c r="E253" s="9" t="s">
         <v>1332</v>
@@ -45382,10 +45527,10 @@
         <v>1332</v>
       </c>
       <c r="H253" t="s">
-        <v>3439</v>
+        <v>3466</v>
       </c>
       <c r="J253" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="254" spans="1:10">
@@ -45393,10 +45538,10 @@
         <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>3441</v>
+        <v>3468</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>3442</v>
+        <v>3469</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>1885</v>
@@ -45405,10 +45550,10 @@
         <v>1885</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>3443</v>
+        <v>3470</v>
       </c>
       <c r="J254" s="2" t="s">
-        <v>3385</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -45420,7 +45565,7 @@
         <v>FD</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>3444</v>
+        <v>3471</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>1761</v>
@@ -45429,10 +45574,10 @@
         <v>1761</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>3445</v>
+        <v>3472</v>
       </c>
       <c r="J255" s="2" t="s">
-        <v>3446</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -45453,10 +45598,10 @@
         <v>1328</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>3445</v>
+        <v>3472</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>3447</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -45468,13 +45613,13 @@
         <v>FF</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>3448</v>
+        <v>3475</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>3448</v>
+        <v>3475</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>3448</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="260" spans="4:4">

--- a/ccchi/字符串表.xlsx
+++ b/ccchi/字符串表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13065" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="界面字符串" sheetId="1" r:id="rId1"/>
@@ -34800,9 +34800,9 @@
   <dimension ref="A1:J558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A532" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A511" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C557" sqref="C557"/>
+      <selection pane="bottomLeft" activeCell="A549" sqref="A549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -40906,27 +40906,27 @@
         <v>3213</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
-      <c r="A536" s="23" t="s">
+    <row r="536" s="20" customFormat="1" spans="1:8">
+      <c r="A536" s="19" t="s">
         <v>3214</v>
       </c>
-      <c r="B536" s="23"/>
-      <c r="C536" s="23"/>
-      <c r="E536" s="11" t="s">
+      <c r="B536" s="19"/>
+      <c r="C536" s="19"/>
+      <c r="E536" s="20" t="s">
         <v>3214</v>
       </c>
-      <c r="F536" s="11" t="s">
+      <c r="F536" s="20" t="s">
         <v>2951</v>
       </c>
-      <c r="G536" s="11" t="s">
+      <c r="G536" s="20" t="s">
         <v>3215</v>
       </c>
-      <c r="H536" s="11" t="s">
+      <c r="H536" s="20" t="s">
         <v>2953</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
-      <c r="A537" s="23" t="s">
+    <row r="537" s="20" customFormat="1" spans="1:7">
+      <c r="A537" s="19" t="s">
         <v>3216</v>
       </c>
       <c r="B537" s="19" t="s">
@@ -40935,161 +40935,161 @@
       <c r="C537" s="19" t="s">
         <v>3218</v>
       </c>
-      <c r="E537" s="11" t="s">
+      <c r="E537" s="20" t="s">
         <v>3219</v>
       </c>
-      <c r="G537" s="11" t="s">
+      <c r="G537" s="20" t="s">
         <v>3220</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
-      <c r="A538" s="23" t="s">
+    <row r="538" s="20" customFormat="1" spans="1:7">
+      <c r="A538" s="19" t="s">
         <v>3221</v>
       </c>
-      <c r="B538" s="23" t="s">
+      <c r="B538" s="19" t="s">
         <v>3222</v>
       </c>
-      <c r="C538" s="23" t="s">
+      <c r="C538" s="19" t="s">
         <v>3223</v>
       </c>
-      <c r="E538" s="11" t="s">
+      <c r="E538" s="20" t="s">
         <v>3224</v>
       </c>
-      <c r="G538" s="11" t="s">
+      <c r="G538" s="20" t="s">
         <v>3225</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
-      <c r="A539" s="23" t="s">
+    <row r="539" s="20" customFormat="1" spans="1:7">
+      <c r="A539" s="19" t="s">
         <v>3226</v>
       </c>
-      <c r="B539" s="23" t="s">
+      <c r="B539" s="19" t="s">
         <v>3227</v>
       </c>
-      <c r="C539" s="23" t="s">
+      <c r="C539" s="19" t="s">
         <v>1314</v>
       </c>
-      <c r="E539" s="11" t="s">
+      <c r="E539" s="20" t="s">
         <v>3228</v>
       </c>
-      <c r="G539" s="11" t="s">
+      <c r="G539" s="20" t="s">
         <v>3229</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
-      <c r="A540" s="23" t="s">
+    <row r="540" s="20" customFormat="1" spans="1:7">
+      <c r="A540" s="19" t="s">
         <v>3230</v>
       </c>
-      <c r="B540" s="23" t="s">
+      <c r="B540" s="19" t="s">
         <v>3231</v>
       </c>
-      <c r="C540" s="23" t="s">
+      <c r="C540" s="19" t="s">
         <v>1746</v>
       </c>
-      <c r="E540" s="11" t="s">
+      <c r="E540" s="20" t="s">
         <v>3232</v>
       </c>
-      <c r="G540" s="11" t="s">
+      <c r="G540" s="20" t="s">
         <v>3233</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
-      <c r="A541" s="23" t="s">
+    <row r="541" s="20" customFormat="1" spans="1:7">
+      <c r="A541" s="19" t="s">
         <v>3234</v>
       </c>
-      <c r="B541" s="23"/>
-      <c r="C541" s="23" t="s">
+      <c r="B541" s="19"/>
+      <c r="C541" s="19" t="s">
         <v>3235</v>
       </c>
-      <c r="E541" s="11" t="s">
+      <c r="E541" s="20" t="s">
         <v>3236</v>
       </c>
-      <c r="G541" s="11" t="s">
+      <c r="G541" s="20" t="s">
         <v>3237</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
-      <c r="A542" s="23" t="s">
+    <row r="542" s="20" customFormat="1" spans="1:7">
+      <c r="A542" s="19" t="s">
         <v>3238</v>
       </c>
-      <c r="B542" s="23" t="s">
+      <c r="B542" s="19" t="s">
         <v>3239</v>
       </c>
-      <c r="C542" s="23" t="s">
+      <c r="C542" s="19" t="s">
         <v>1878</v>
       </c>
-      <c r="E542" s="11" t="s">
+      <c r="E542" s="20" t="s">
         <v>3240</v>
       </c>
-      <c r="G542" s="11" t="s">
+      <c r="G542" s="20" t="s">
         <v>3241</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
-      <c r="A543" s="23" t="s">
+    <row r="543" s="20" customFormat="1" spans="1:7">
+      <c r="A543" s="19" t="s">
         <v>3242</v>
       </c>
-      <c r="B543" s="23"/>
-      <c r="C543" s="23"/>
-      <c r="E543" s="11" t="s">
+      <c r="B543" s="19"/>
+      <c r="C543" s="19"/>
+      <c r="E543" s="20" t="s">
         <v>3242</v>
       </c>
-      <c r="G543" s="11" t="s">
+      <c r="G543" s="20" t="s">
         <v>3243</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
-      <c r="A544" s="23" t="s">
+    <row r="544" s="20" customFormat="1" spans="1:7">
+      <c r="A544" s="19" t="s">
         <v>3244</v>
       </c>
-      <c r="B544" s="23"/>
-      <c r="C544" s="23"/>
-      <c r="E544" s="11" t="s">
+      <c r="B544" s="19"/>
+      <c r="C544" s="19"/>
+      <c r="E544" s="20" t="s">
         <v>3245</v>
       </c>
-      <c r="G544" s="11" t="s">
+      <c r="G544" s="20" t="s">
         <v>3246</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
-      <c r="A545" s="23" t="s">
+    <row r="545" s="20" customFormat="1" spans="1:7">
+      <c r="A545" s="19" t="s">
         <v>3247</v>
       </c>
-      <c r="B545" s="23"/>
-      <c r="C545" s="23"/>
-      <c r="E545" s="11" t="s">
+      <c r="B545" s="19"/>
+      <c r="C545" s="19"/>
+      <c r="E545" s="20" t="s">
         <v>3248</v>
       </c>
-      <c r="G545" s="11" t="s">
+      <c r="G545" s="20" t="s">
         <v>3249</v>
       </c>
     </row>
-    <row r="546" spans="1:3">
-      <c r="A546" s="23"/>
-      <c r="B546" s="23"/>
-      <c r="C546" s="23"/>
-    </row>
-    <row r="547" spans="1:8">
-      <c r="A547" s="23" t="s">
+    <row r="546" s="20" customFormat="1" spans="1:3">
+      <c r="A546" s="19"/>
+      <c r="B546" s="19"/>
+      <c r="C546" s="19"/>
+    </row>
+    <row r="547" s="20" customFormat="1" spans="1:8">
+      <c r="A547" s="19" t="s">
         <v>3250</v>
       </c>
-      <c r="B547" s="23"/>
-      <c r="C547" s="23"/>
-      <c r="E547" s="11" t="s">
+      <c r="B547" s="19"/>
+      <c r="C547" s="19"/>
+      <c r="E547" s="20" t="s">
         <v>3250</v>
       </c>
-      <c r="F547" s="11" t="s">
+      <c r="F547" s="20" t="s">
         <v>2951</v>
       </c>
-      <c r="G547" s="11" t="s">
+      <c r="G547" s="20" t="s">
         <v>3251</v>
       </c>
-      <c r="H547" s="11" t="s">
+      <c r="H547" s="20" t="s">
         <v>2953</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
-      <c r="A548" s="23" t="s">
+    <row r="548" s="20" customFormat="1" spans="1:7">
+      <c r="A548" s="19" t="s">
         <v>3252</v>
       </c>
       <c r="B548" s="19" t="s">
@@ -41098,97 +41098,99 @@
       <c r="C548" s="19" t="s">
         <v>3254</v>
       </c>
-      <c r="E548" s="11" t="s">
+      <c r="E548" s="20" t="s">
         <v>3255</v>
       </c>
-      <c r="G548" s="11" t="s">
+      <c r="G548" s="20" t="s">
         <v>3256</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
-      <c r="A549" s="23" t="s">
+    <row r="549" s="20" customFormat="1" spans="1:7">
+      <c r="A549" s="19" t="s">
         <v>3257</v>
       </c>
-      <c r="B549" s="23" t="s">
+      <c r="B549" s="19" t="s">
         <v>3258</v>
       </c>
-      <c r="C549" s="23" t="s">
+      <c r="C549" s="19" t="s">
         <v>2740</v>
       </c>
-      <c r="E549" s="11" t="s">
+      <c r="E549" s="20" t="s">
         <v>3259</v>
       </c>
-      <c r="G549" s="11" t="s">
+      <c r="G549" s="20" t="s">
         <v>3260</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
-      <c r="A550" s="23" t="s">
+    <row r="550" s="20" customFormat="1" spans="1:7">
+      <c r="A550" s="19" t="s">
         <v>3261</v>
       </c>
-      <c r="B550" s="23" t="s">
+      <c r="B550" s="19" t="s">
         <v>3262</v>
       </c>
-      <c r="C550" s="23" t="s">
+      <c r="C550" s="19" t="s">
         <v>2751</v>
       </c>
-      <c r="E550" s="11" t="s">
+      <c r="E550" s="20" t="s">
         <v>3263</v>
       </c>
-      <c r="G550" s="11" t="s">
+      <c r="G550" s="20" t="s">
         <v>3264</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
-      <c r="A551" s="23" t="s">
+    <row r="551" s="20" customFormat="1" spans="1:7">
+      <c r="A551" s="19" t="s">
         <v>3265</v>
       </c>
-      <c r="B551" s="23"/>
-      <c r="C551" s="23"/>
-      <c r="E551" s="11" t="s">
+      <c r="B551" s="19"/>
+      <c r="C551" s="19"/>
+      <c r="E551" s="20" t="s">
         <v>3266</v>
       </c>
-      <c r="G551" s="11" t="s">
+      <c r="G551" s="20" t="s">
         <v>3267</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
-      <c r="A552" s="23" t="s">
+    <row r="552" s="20" customFormat="1" spans="1:7">
+      <c r="A552" s="19" t="s">
         <v>3268</v>
       </c>
-      <c r="B552" s="23"/>
-      <c r="C552" s="23"/>
-      <c r="E552" s="11" t="s">
+      <c r="B552" s="19"/>
+      <c r="C552" s="19"/>
+      <c r="E552" s="20" t="s">
         <v>3269</v>
       </c>
-      <c r="G552" s="11" t="s">
+      <c r="G552" s="20" t="s">
         <v>3270</v>
       </c>
     </row>
-    <row r="553" spans="1:3">
-      <c r="A553" s="23"/>
-      <c r="B553" s="23"/>
-      <c r="C553" s="23"/>
-    </row>
-    <row r="554" spans="1:8">
-      <c r="A554" s="23" t="s">
+    <row r="553" s="20" customFormat="1" spans="1:3">
+      <c r="A553" s="19"/>
+      <c r="B553" s="19"/>
+      <c r="C553" s="19"/>
+    </row>
+    <row r="554" s="20" customFormat="1" spans="1:8">
+      <c r="A554" s="19" t="s">
         <v>3271</v>
       </c>
-      <c r="E554" s="11" t="s">
+      <c r="B554" s="27"/>
+      <c r="C554" s="27"/>
+      <c r="E554" s="20" t="s">
         <v>3271</v>
       </c>
-      <c r="F554" s="11" t="s">
+      <c r="F554" s="20" t="s">
         <v>2951</v>
       </c>
-      <c r="G554" s="11" t="s">
+      <c r="G554" s="20" t="s">
         <v>3272</v>
       </c>
-      <c r="H554" s="11" t="s">
+      <c r="H554" s="20" t="s">
         <v>2953</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
-      <c r="A555" s="23" t="s">
+    <row r="555" s="20" customFormat="1" spans="1:7">
+      <c r="A555" s="19" t="s">
         <v>3273</v>
       </c>
       <c r="B555" s="19" t="s">
@@ -41197,53 +41199,53 @@
       <c r="C555" s="19" t="s">
         <v>3275</v>
       </c>
-      <c r="E555" s="11" t="s">
+      <c r="E555" s="20" t="s">
         <v>3276</v>
       </c>
-      <c r="G555" s="11" t="s">
+      <c r="G555" s="20" t="s">
         <v>3277</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
-      <c r="A556" s="23" t="s">
+    <row r="556" s="20" customFormat="1" spans="1:7">
+      <c r="A556" s="19" t="s">
         <v>3278</v>
       </c>
-      <c r="B556" s="23" t="s">
+      <c r="B556" s="19" t="s">
         <v>3279</v>
       </c>
-      <c r="C556" s="23" t="s">
+      <c r="C556" s="19" t="s">
         <v>3280</v>
       </c>
-      <c r="E556" s="11" t="s">
+      <c r="E556" s="20" t="s">
         <v>3281</v>
       </c>
-      <c r="G556" s="11" t="s">
+      <c r="G556" s="20" t="s">
         <v>3282</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
-      <c r="A557" s="23" t="s">
+    <row r="557" s="20" customFormat="1" spans="1:7">
+      <c r="A557" s="19" t="s">
         <v>3283</v>
       </c>
-      <c r="B557" s="23"/>
-      <c r="C557" s="23"/>
-      <c r="E557" s="11" t="s">
+      <c r="B557" s="19"/>
+      <c r="C557" s="19"/>
+      <c r="E557" s="20" t="s">
         <v>3284</v>
       </c>
-      <c r="G557" s="11" t="s">
+      <c r="G557" s="20" t="s">
         <v>3285</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
-      <c r="A558" s="23" t="s">
+    <row r="558" s="20" customFormat="1" spans="1:7">
+      <c r="A558" s="19" t="s">
         <v>3286</v>
       </c>
-      <c r="B558" s="23"/>
-      <c r="C558" s="23"/>
-      <c r="E558" s="11" t="s">
+      <c r="B558" s="19"/>
+      <c r="C558" s="19"/>
+      <c r="E558" s="20" t="s">
         <v>3287</v>
       </c>
-      <c r="G558" s="11" t="s">
+      <c r="G558" s="20" t="s">
         <v>3288</v>
       </c>
     </row>
